--- a/database/industries/shoyande/shepaksa/product/monthly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37349CE0-E767-4252-AB0D-4D79229D2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33A2C6-3A41-4405-8AA8-820B5F1FA137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1406,154 +1406,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2650</v>
+        <v>3078</v>
       </c>
       <c r="F11" s="11">
-        <v>3078</v>
+        <v>2994</v>
       </c>
       <c r="G11" s="11">
-        <v>2994</v>
+        <v>3800</v>
       </c>
       <c r="H11" s="11">
-        <v>3800</v>
+        <v>2801</v>
       </c>
       <c r="I11" s="11">
-        <v>2801</v>
+        <v>2770</v>
       </c>
       <c r="J11" s="11">
-        <v>2770</v>
+        <v>4603</v>
       </c>
       <c r="K11" s="11">
-        <v>4603</v>
+        <v>1170</v>
       </c>
       <c r="L11" s="11">
-        <v>1170</v>
+        <v>4413</v>
       </c>
       <c r="M11" s="11">
-        <v>4413</v>
+        <v>1764</v>
       </c>
       <c r="N11" s="11">
-        <v>1764</v>
+        <v>3522</v>
       </c>
       <c r="O11" s="11">
-        <v>3522</v>
+        <v>3374</v>
       </c>
       <c r="P11" s="11">
-        <v>3374</v>
+        <v>3606</v>
       </c>
       <c r="Q11" s="11">
-        <v>3606</v>
+        <v>3729</v>
       </c>
       <c r="R11" s="11">
-        <v>3729</v>
+        <v>3007</v>
       </c>
       <c r="S11" s="11">
-        <v>3007</v>
+        <v>4682</v>
       </c>
       <c r="T11" s="11">
-        <v>4682</v>
+        <v>3252</v>
       </c>
       <c r="U11" s="11">
-        <v>3252</v>
+        <v>2091</v>
       </c>
       <c r="V11" s="11">
-        <v>2091</v>
+        <v>3230</v>
       </c>
       <c r="W11" s="11">
-        <v>3230</v>
+        <v>1394</v>
       </c>
       <c r="X11" s="11">
-        <v>1394</v>
+        <v>3281</v>
       </c>
       <c r="Y11" s="11">
-        <v>3281</v>
+        <v>3857</v>
       </c>
       <c r="Z11" s="11">
-        <v>3857</v>
+        <v>4685</v>
       </c>
       <c r="AA11" s="11">
-        <v>4685</v>
+        <v>2018</v>
       </c>
       <c r="AB11" s="11">
-        <v>2018</v>
+        <v>4065</v>
       </c>
       <c r="AC11" s="11">
-        <v>4065</v>
+        <v>3828</v>
       </c>
       <c r="AD11" s="11">
-        <v>3828</v>
+        <v>4104</v>
       </c>
       <c r="AE11" s="11">
-        <v>4104</v>
+        <v>5137</v>
       </c>
       <c r="AF11" s="11">
-        <v>5137</v>
+        <v>1587</v>
       </c>
       <c r="AG11" s="11">
-        <v>1587</v>
+        <v>2560</v>
       </c>
       <c r="AH11" s="11">
-        <v>2560</v>
+        <v>2549</v>
       </c>
       <c r="AI11" s="11">
-        <v>2549</v>
+        <v>1822</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1822</v>
+        <v>2160</v>
       </c>
       <c r="AK11" s="11">
-        <v>2160</v>
+        <v>3535</v>
       </c>
       <c r="AL11" s="11">
-        <v>3535</v>
+        <v>2717</v>
       </c>
       <c r="AM11" s="11">
-        <v>2717</v>
+        <v>2341</v>
       </c>
       <c r="AN11" s="11">
-        <v>2341</v>
+        <v>3156</v>
       </c>
       <c r="AO11" s="11">
-        <v>3156</v>
+        <v>3084</v>
       </c>
       <c r="AP11" s="11">
-        <v>3084</v>
+        <v>4125</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4125</v>
+        <v>5623</v>
       </c>
       <c r="AR11" s="11">
-        <v>5623</v>
+        <v>795</v>
       </c>
       <c r="AS11" s="11">
-        <v>795</v>
+        <v>1366</v>
       </c>
       <c r="AT11" s="11">
-        <v>1366</v>
+        <v>2679</v>
       </c>
       <c r="AU11" s="11">
-        <v>2679</v>
+        <v>1456</v>
       </c>
       <c r="AV11" s="11">
-        <v>1456</v>
+        <v>1610</v>
       </c>
       <c r="AW11" s="11">
-        <v>1610</v>
+        <v>1214</v>
       </c>
       <c r="AX11" s="11">
-        <v>1214</v>
+        <v>1324</v>
       </c>
       <c r="AY11" s="11">
-        <v>1324</v>
+        <v>2525</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2525</v>
+        <v>1419</v>
       </c>
       <c r="BA11" s="11">
-        <v>1419</v>
+        <v>1101</v>
       </c>
       <c r="BB11" s="11">
-        <v>1101</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1565,154 +1565,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>4364</v>
+        <v>5082</v>
       </c>
       <c r="F12" s="13">
-        <v>5082</v>
+        <v>6251</v>
       </c>
       <c r="G12" s="13">
-        <v>6251</v>
+        <v>7022</v>
       </c>
       <c r="H12" s="13">
-        <v>7022</v>
+        <v>4585</v>
       </c>
       <c r="I12" s="13">
-        <v>4585</v>
+        <v>3601</v>
       </c>
       <c r="J12" s="13">
-        <v>3601</v>
+        <v>6973</v>
       </c>
       <c r="K12" s="13">
-        <v>6973</v>
+        <v>1809</v>
       </c>
       <c r="L12" s="13">
-        <v>1809</v>
+        <v>3745</v>
       </c>
       <c r="M12" s="13">
-        <v>3745</v>
+        <v>5653</v>
       </c>
       <c r="N12" s="13">
-        <v>5653</v>
+        <v>8783</v>
       </c>
       <c r="O12" s="13">
-        <v>8783</v>
+        <v>6879</v>
       </c>
       <c r="P12" s="13">
-        <v>6879</v>
+        <v>7133</v>
       </c>
       <c r="Q12" s="13">
-        <v>7133</v>
+        <v>3913</v>
       </c>
       <c r="R12" s="13">
-        <v>3913</v>
+        <v>5465</v>
       </c>
       <c r="S12" s="13">
-        <v>5465</v>
+        <v>6974</v>
       </c>
       <c r="T12" s="13">
-        <v>6974</v>
+        <v>5070</v>
       </c>
       <c r="U12" s="13">
-        <v>5070</v>
+        <v>5120</v>
       </c>
       <c r="V12" s="13">
-        <v>5120</v>
+        <v>5960</v>
       </c>
       <c r="W12" s="13">
-        <v>5960</v>
+        <v>2979</v>
       </c>
       <c r="X12" s="13">
-        <v>2979</v>
+        <v>6456</v>
       </c>
       <c r="Y12" s="13">
-        <v>6456</v>
+        <v>5139</v>
       </c>
       <c r="Z12" s="13">
-        <v>5139</v>
+        <v>7714</v>
       </c>
       <c r="AA12" s="13">
-        <v>7714</v>
+        <v>3558</v>
       </c>
       <c r="AB12" s="13">
-        <v>3558</v>
+        <v>4138</v>
       </c>
       <c r="AC12" s="13">
-        <v>4138</v>
+        <v>3976</v>
       </c>
       <c r="AD12" s="13">
-        <v>3976</v>
+        <v>6814</v>
       </c>
       <c r="AE12" s="13">
-        <v>6814</v>
+        <v>8093</v>
       </c>
       <c r="AF12" s="13">
-        <v>8093</v>
+        <v>4723</v>
       </c>
       <c r="AG12" s="13">
-        <v>4723</v>
+        <v>4742</v>
       </c>
       <c r="AH12" s="13">
-        <v>4742</v>
+        <v>5846</v>
       </c>
       <c r="AI12" s="13">
-        <v>5846</v>
+        <v>3613</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3613</v>
+        <v>4217</v>
       </c>
       <c r="AK12" s="13">
-        <v>4217</v>
+        <v>5232</v>
       </c>
       <c r="AL12" s="13">
-        <v>5232</v>
+        <v>6749</v>
       </c>
       <c r="AM12" s="13">
-        <v>6749</v>
+        <v>5262</v>
       </c>
       <c r="AN12" s="13">
-        <v>5262</v>
+        <v>6788</v>
       </c>
       <c r="AO12" s="13">
-        <v>6788</v>
+        <v>6186</v>
       </c>
       <c r="AP12" s="13">
-        <v>6186</v>
+        <v>7465</v>
       </c>
       <c r="AQ12" s="13">
-        <v>7465</v>
+        <v>7585</v>
       </c>
       <c r="AR12" s="13">
-        <v>7585</v>
+        <v>2177</v>
       </c>
       <c r="AS12" s="13">
-        <v>2177</v>
+        <v>2510</v>
       </c>
       <c r="AT12" s="13">
-        <v>2510</v>
+        <v>5890</v>
       </c>
       <c r="AU12" s="13">
-        <v>5890</v>
+        <v>3302</v>
       </c>
       <c r="AV12" s="13">
-        <v>3302</v>
+        <v>4031</v>
       </c>
       <c r="AW12" s="13">
-        <v>4031</v>
+        <v>5701</v>
       </c>
       <c r="AX12" s="13">
-        <v>5701</v>
+        <v>6793</v>
       </c>
       <c r="AY12" s="13">
-        <v>6793</v>
+        <v>6969</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6969</v>
+        <v>6369</v>
       </c>
       <c r="BA12" s="13">
-        <v>6369</v>
+        <v>5801</v>
       </c>
       <c r="BB12" s="13">
-        <v>5801</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1724,154 +1724,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>732</v>
+        <v>1224</v>
       </c>
       <c r="F13" s="11">
-        <v>1224</v>
+        <v>1688</v>
       </c>
       <c r="G13" s="11">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="H13" s="11">
-        <v>1678</v>
+        <v>1826</v>
       </c>
       <c r="I13" s="11">
-        <v>1826</v>
+        <v>1304</v>
       </c>
       <c r="J13" s="11">
-        <v>1304</v>
+        <v>1944</v>
       </c>
       <c r="K13" s="11">
-        <v>1944</v>
+        <v>129</v>
       </c>
       <c r="L13" s="11">
-        <v>129</v>
+        <v>2013</v>
       </c>
       <c r="M13" s="11">
-        <v>2013</v>
+        <v>906</v>
       </c>
       <c r="N13" s="11">
-        <v>906</v>
+        <v>2356</v>
       </c>
       <c r="O13" s="11">
-        <v>2356</v>
+        <v>1874</v>
       </c>
       <c r="P13" s="11">
-        <v>1874</v>
+        <v>2262</v>
       </c>
       <c r="Q13" s="11">
-        <v>2262</v>
+        <v>1702</v>
       </c>
       <c r="R13" s="11">
-        <v>1702</v>
+        <v>2060</v>
       </c>
       <c r="S13" s="11">
-        <v>2060</v>
+        <v>3134</v>
       </c>
       <c r="T13" s="11">
-        <v>3134</v>
+        <v>1835</v>
       </c>
       <c r="U13" s="11">
-        <v>1835</v>
+        <v>1738</v>
       </c>
       <c r="V13" s="11">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="W13" s="11">
-        <v>1742</v>
+        <v>1077</v>
       </c>
       <c r="X13" s="11">
-        <v>1077</v>
+        <v>2050</v>
       </c>
       <c r="Y13" s="11">
-        <v>2050</v>
+        <v>2009</v>
       </c>
       <c r="Z13" s="11">
-        <v>2009</v>
+        <v>2329</v>
       </c>
       <c r="AA13" s="11">
-        <v>2329</v>
+        <v>1365</v>
       </c>
       <c r="AB13" s="11">
-        <v>1365</v>
+        <v>1019</v>
       </c>
       <c r="AC13" s="11">
-        <v>1019</v>
+        <v>1537</v>
       </c>
       <c r="AD13" s="11">
-        <v>1537</v>
+        <v>2306</v>
       </c>
       <c r="AE13" s="11">
-        <v>2306</v>
+        <v>3049</v>
       </c>
       <c r="AF13" s="11">
-        <v>3049</v>
+        <v>2136</v>
       </c>
       <c r="AG13" s="11">
-        <v>2136</v>
+        <v>2369</v>
       </c>
       <c r="AH13" s="11">
-        <v>2369</v>
+        <v>1960</v>
       </c>
       <c r="AI13" s="11">
-        <v>1960</v>
+        <v>1436</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="AK13" s="11">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="AL13" s="11">
-        <v>1577</v>
+        <v>2504</v>
       </c>
       <c r="AM13" s="11">
-        <v>2504</v>
+        <v>1691</v>
       </c>
       <c r="AN13" s="11">
-        <v>1691</v>
+        <v>2505</v>
       </c>
       <c r="AO13" s="11">
-        <v>2505</v>
+        <v>2456</v>
       </c>
       <c r="AP13" s="11">
-        <v>2456</v>
+        <v>2964</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2964</v>
+        <v>3066</v>
       </c>
       <c r="AR13" s="11">
-        <v>3066</v>
+        <v>798</v>
       </c>
       <c r="AS13" s="11">
-        <v>798</v>
+        <v>1082</v>
       </c>
       <c r="AT13" s="11">
-        <v>1082</v>
+        <v>1757</v>
       </c>
       <c r="AU13" s="11">
-        <v>1757</v>
+        <v>1184</v>
       </c>
       <c r="AV13" s="11">
-        <v>1184</v>
+        <v>1311</v>
       </c>
       <c r="AW13" s="11">
-        <v>1311</v>
+        <v>1878</v>
       </c>
       <c r="AX13" s="11">
-        <v>1878</v>
+        <v>2432</v>
       </c>
       <c r="AY13" s="11">
-        <v>2432</v>
+        <v>1443</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1443</v>
+        <v>851</v>
       </c>
       <c r="BA13" s="11">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="BB13" s="11">
-        <v>874</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2020,74 +2020,74 @@
       <c r="AE15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>60</v>
+      <c r="AF15" s="11">
+        <v>723</v>
       </c>
       <c r="AG15" s="11">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="AH15" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI15" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ15" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK15" s="11">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="AL15" s="11">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AM15" s="11">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="AN15" s="11">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="AO15" s="11">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="AP15" s="11">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AQ15" s="11">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="AR15" s="11">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="AS15" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AT15" s="11">
         <v>159</v>
       </c>
       <c r="AU15" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AV15" s="11">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AW15" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX15" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY15" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ15" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA15" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB15" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2177,8 +2177,8 @@
       <c r="AE16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF16" s="15" t="s">
-        <v>60</v>
+      <c r="AF16" s="15">
+        <v>0</v>
       </c>
       <c r="AG16" s="15">
         <v>0</v>
@@ -2254,154 +2254,154 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
-        <v>7746</v>
+        <v>9384</v>
       </c>
       <c r="F17" s="17">
-        <v>9384</v>
+        <v>10933</v>
       </c>
       <c r="G17" s="17">
-        <v>10933</v>
+        <v>12500</v>
       </c>
       <c r="H17" s="17">
-        <v>12500</v>
+        <v>9212</v>
       </c>
       <c r="I17" s="17">
-        <v>9212</v>
+        <v>7675</v>
       </c>
       <c r="J17" s="17">
-        <v>7675</v>
+        <v>13520</v>
       </c>
       <c r="K17" s="17">
-        <v>13520</v>
+        <v>3108</v>
       </c>
       <c r="L17" s="17">
-        <v>3108</v>
+        <v>10171</v>
       </c>
       <c r="M17" s="17">
-        <v>10171</v>
+        <v>8323</v>
       </c>
       <c r="N17" s="17">
-        <v>8323</v>
+        <v>14661</v>
       </c>
       <c r="O17" s="17">
-        <v>14661</v>
+        <v>12127</v>
       </c>
       <c r="P17" s="17">
-        <v>12127</v>
+        <v>13001</v>
       </c>
       <c r="Q17" s="17">
-        <v>13001</v>
+        <v>9344</v>
       </c>
       <c r="R17" s="17">
-        <v>9344</v>
+        <v>10532</v>
       </c>
       <c r="S17" s="17">
-        <v>10532</v>
+        <v>14790</v>
       </c>
       <c r="T17" s="17">
-        <v>14790</v>
+        <v>10157</v>
       </c>
       <c r="U17" s="17">
-        <v>10157</v>
+        <v>8949</v>
       </c>
       <c r="V17" s="17">
-        <v>8949</v>
+        <v>10932</v>
       </c>
       <c r="W17" s="17">
-        <v>10932</v>
+        <v>5450</v>
       </c>
       <c r="X17" s="17">
-        <v>5450</v>
+        <v>11787</v>
       </c>
       <c r="Y17" s="17">
-        <v>11787</v>
+        <v>11005</v>
       </c>
       <c r="Z17" s="17">
-        <v>11005</v>
+        <v>14728</v>
       </c>
       <c r="AA17" s="17">
-        <v>14728</v>
+        <v>6941</v>
       </c>
       <c r="AB17" s="17">
-        <v>6941</v>
+        <v>9222</v>
       </c>
       <c r="AC17" s="17">
-        <v>9222</v>
+        <v>9341</v>
       </c>
       <c r="AD17" s="17">
-        <v>9341</v>
+        <v>13224</v>
       </c>
       <c r="AE17" s="17">
-        <v>13224</v>
+        <v>16279</v>
       </c>
       <c r="AF17" s="17">
-        <v>16279</v>
+        <v>9169</v>
       </c>
       <c r="AG17" s="17">
-        <v>9169</v>
+        <v>10318</v>
       </c>
       <c r="AH17" s="17">
-        <v>10318</v>
+        <v>11191</v>
       </c>
       <c r="AI17" s="17">
-        <v>11191</v>
+        <v>7123</v>
       </c>
       <c r="AJ17" s="17">
-        <v>7123</v>
+        <v>8591</v>
       </c>
       <c r="AK17" s="17">
-        <v>8591</v>
+        <v>10907</v>
       </c>
       <c r="AL17" s="17">
-        <v>10907</v>
+        <v>12452</v>
       </c>
       <c r="AM17" s="17">
-        <v>12452</v>
+        <v>9850</v>
       </c>
       <c r="AN17" s="17">
-        <v>9850</v>
+        <v>13024</v>
       </c>
       <c r="AO17" s="17">
-        <v>13024</v>
+        <v>12146</v>
       </c>
       <c r="AP17" s="17">
-        <v>12146</v>
+        <v>14714</v>
       </c>
       <c r="AQ17" s="17">
-        <v>14714</v>
+        <v>16910</v>
       </c>
       <c r="AR17" s="17">
-        <v>16910</v>
+        <v>4299</v>
       </c>
       <c r="AS17" s="17">
-        <v>4299</v>
+        <v>5117</v>
       </c>
       <c r="AT17" s="17">
-        <v>5117</v>
+        <v>10485</v>
       </c>
       <c r="AU17" s="17">
-        <v>10485</v>
+        <v>6019</v>
       </c>
       <c r="AV17" s="17">
-        <v>6019</v>
+        <v>7166</v>
       </c>
       <c r="AW17" s="17">
-        <v>7166</v>
+        <v>9019</v>
       </c>
       <c r="AX17" s="17">
-        <v>9019</v>
+        <v>10793</v>
       </c>
       <c r="AY17" s="17">
-        <v>10793</v>
+        <v>11093</v>
       </c>
       <c r="AZ17" s="17">
-        <v>11093</v>
+        <v>8847</v>
       </c>
       <c r="BA17" s="17">
-        <v>8847</v>
+        <v>8049</v>
       </c>
       <c r="BB17" s="17">
-        <v>8049</v>
+        <v>10684</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2847,154 +2847,154 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>2487</v>
+        <v>3021</v>
       </c>
       <c r="F24" s="11">
-        <v>3021</v>
+        <v>3060</v>
       </c>
       <c r="G24" s="11">
-        <v>3060</v>
+        <v>3812</v>
       </c>
       <c r="H24" s="11">
-        <v>3812</v>
+        <v>2602</v>
       </c>
       <c r="I24" s="11">
-        <v>2602</v>
+        <v>3047</v>
       </c>
       <c r="J24" s="11">
-        <v>3047</v>
+        <v>4992</v>
       </c>
       <c r="K24" s="11">
-        <v>4992</v>
+        <v>916</v>
       </c>
       <c r="L24" s="11">
-        <v>916</v>
+        <v>4470</v>
       </c>
       <c r="M24" s="11">
-        <v>4470</v>
+        <v>1719</v>
       </c>
       <c r="N24" s="11">
-        <v>1719</v>
+        <v>3093</v>
       </c>
       <c r="O24" s="11">
-        <v>3093</v>
+        <v>3603</v>
       </c>
       <c r="P24" s="11">
-        <v>3603</v>
+        <v>3867</v>
       </c>
       <c r="Q24" s="11">
-        <v>3867</v>
+        <v>3374</v>
       </c>
       <c r="R24" s="11">
-        <v>3374</v>
+        <v>3103</v>
       </c>
       <c r="S24" s="11">
-        <v>3103</v>
+        <v>4932</v>
       </c>
       <c r="T24" s="11">
-        <v>4932</v>
+        <v>2917</v>
       </c>
       <c r="U24" s="11">
-        <v>2917</v>
+        <v>2512</v>
       </c>
       <c r="V24" s="11">
-        <v>2512</v>
+        <v>3183</v>
       </c>
       <c r="W24" s="11">
-        <v>3183</v>
+        <v>1110</v>
       </c>
       <c r="X24" s="11">
-        <v>1110</v>
+        <v>3447</v>
       </c>
       <c r="Y24" s="11">
-        <v>3447</v>
+        <v>4081</v>
       </c>
       <c r="Z24" s="11">
-        <v>4081</v>
+        <v>4502</v>
       </c>
       <c r="AA24" s="11">
-        <v>4502</v>
+        <v>2255</v>
       </c>
       <c r="AB24" s="11">
-        <v>2255</v>
+        <v>3886</v>
       </c>
       <c r="AC24" s="11">
-        <v>3886</v>
+        <v>3844</v>
       </c>
       <c r="AD24" s="11">
-        <v>3844</v>
+        <v>4182</v>
       </c>
       <c r="AE24" s="11">
-        <v>4182</v>
+        <v>3997</v>
       </c>
       <c r="AF24" s="11">
-        <v>3997</v>
+        <v>1935</v>
       </c>
       <c r="AG24" s="11">
-        <v>1935</v>
+        <v>2792</v>
       </c>
       <c r="AH24" s="11">
-        <v>2792</v>
+        <v>3041</v>
       </c>
       <c r="AI24" s="11">
-        <v>3041</v>
+        <v>1663</v>
       </c>
       <c r="AJ24" s="11">
-        <v>1663</v>
+        <v>2418</v>
       </c>
       <c r="AK24" s="11">
-        <v>2418</v>
+        <v>3552</v>
       </c>
       <c r="AL24" s="11">
-        <v>3552</v>
+        <v>2560</v>
       </c>
       <c r="AM24" s="11">
-        <v>2560</v>
+        <v>2303</v>
       </c>
       <c r="AN24" s="11">
-        <v>2303</v>
+        <v>3252</v>
       </c>
       <c r="AO24" s="11">
-        <v>3252</v>
+        <v>3209</v>
       </c>
       <c r="AP24" s="11">
-        <v>3209</v>
+        <v>3911</v>
       </c>
       <c r="AQ24" s="11">
-        <v>3911</v>
+        <v>4251</v>
       </c>
       <c r="AR24" s="11">
-        <v>4251</v>
+        <v>1080</v>
       </c>
       <c r="AS24" s="11">
-        <v>1080</v>
+        <v>1748</v>
       </c>
       <c r="AT24" s="11">
-        <v>1748</v>
+        <v>3299</v>
       </c>
       <c r="AU24" s="11">
-        <v>3299</v>
+        <v>1396</v>
       </c>
       <c r="AV24" s="11">
-        <v>1396</v>
+        <v>1708</v>
       </c>
       <c r="AW24" s="11">
-        <v>1708</v>
+        <v>840</v>
       </c>
       <c r="AX24" s="11">
-        <v>840</v>
+        <v>1449</v>
       </c>
       <c r="AY24" s="11">
-        <v>1449</v>
+        <v>2580</v>
       </c>
       <c r="AZ24" s="11">
-        <v>2580</v>
+        <v>1412</v>
       </c>
       <c r="BA24" s="11">
-        <v>1412</v>
+        <v>1174</v>
       </c>
       <c r="BB24" s="11">
-        <v>1174</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3006,154 +3006,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>4881</v>
+        <v>3557</v>
       </c>
       <c r="F25" s="13">
-        <v>3557</v>
+        <v>6308</v>
       </c>
       <c r="G25" s="13">
-        <v>6308</v>
+        <v>6958</v>
       </c>
       <c r="H25" s="13">
-        <v>6958</v>
+        <v>4217</v>
       </c>
       <c r="I25" s="13">
-        <v>4217</v>
+        <v>4374</v>
       </c>
       <c r="J25" s="13">
-        <v>4374</v>
+        <v>7182</v>
       </c>
       <c r="K25" s="13">
-        <v>7182</v>
+        <v>1224</v>
       </c>
       <c r="L25" s="13">
-        <v>1224</v>
+        <v>3402</v>
       </c>
       <c r="M25" s="13">
-        <v>3402</v>
+        <v>6049</v>
       </c>
       <c r="N25" s="13">
-        <v>6049</v>
+        <v>6809</v>
       </c>
       <c r="O25" s="13">
-        <v>6809</v>
+        <v>8158</v>
       </c>
       <c r="P25" s="13">
-        <v>8158</v>
+        <v>7507</v>
       </c>
       <c r="Q25" s="13">
-        <v>7507</v>
+        <v>3009</v>
       </c>
       <c r="R25" s="13">
-        <v>3009</v>
+        <v>4519</v>
       </c>
       <c r="S25" s="13">
-        <v>4519</v>
+        <v>8669</v>
       </c>
       <c r="T25" s="13">
-        <v>8669</v>
+        <v>2729</v>
       </c>
       <c r="U25" s="13">
-        <v>2729</v>
+        <v>5070</v>
       </c>
       <c r="V25" s="13">
-        <v>5070</v>
+        <v>7654</v>
       </c>
       <c r="W25" s="13">
-        <v>7654</v>
+        <v>1830</v>
       </c>
       <c r="X25" s="13">
-        <v>1830</v>
+        <v>5662</v>
       </c>
       <c r="Y25" s="13">
-        <v>5662</v>
+        <v>6759</v>
       </c>
       <c r="Z25" s="13">
-        <v>6759</v>
+        <v>6702</v>
       </c>
       <c r="AA25" s="13">
-        <v>6702</v>
+        <v>5166</v>
       </c>
       <c r="AB25" s="13">
-        <v>5166</v>
+        <v>3470</v>
       </c>
       <c r="AC25" s="13">
-        <v>3470</v>
+        <v>4264</v>
       </c>
       <c r="AD25" s="13">
-        <v>4264</v>
+        <v>5846</v>
       </c>
       <c r="AE25" s="13">
-        <v>5846</v>
+        <v>9805</v>
       </c>
       <c r="AF25" s="13">
-        <v>9805</v>
+        <v>2544</v>
       </c>
       <c r="AG25" s="13">
-        <v>2544</v>
+        <v>5444</v>
       </c>
       <c r="AH25" s="13">
-        <v>5444</v>
+        <v>7015</v>
       </c>
       <c r="AI25" s="13">
-        <v>7015</v>
+        <v>1651</v>
       </c>
       <c r="AJ25" s="13">
-        <v>1651</v>
+        <v>5856</v>
       </c>
       <c r="AK25" s="13">
-        <v>5856</v>
+        <v>4424</v>
       </c>
       <c r="AL25" s="13">
-        <v>4424</v>
+        <v>5732</v>
       </c>
       <c r="AM25" s="13">
-        <v>5732</v>
+        <v>5204</v>
       </c>
       <c r="AN25" s="13">
-        <v>5204</v>
+        <v>7437</v>
       </c>
       <c r="AO25" s="13">
-        <v>7437</v>
+        <v>6593</v>
       </c>
       <c r="AP25" s="13">
-        <v>6593</v>
+        <v>7107</v>
       </c>
       <c r="AQ25" s="13">
-        <v>7107</v>
+        <v>8173</v>
       </c>
       <c r="AR25" s="13">
-        <v>8173</v>
+        <v>834</v>
       </c>
       <c r="AS25" s="13">
-        <v>834</v>
+        <v>3457</v>
       </c>
       <c r="AT25" s="13">
-        <v>3457</v>
+        <v>5105</v>
       </c>
       <c r="AU25" s="13">
-        <v>5105</v>
+        <v>4373</v>
       </c>
       <c r="AV25" s="13">
-        <v>4373</v>
+        <v>5731</v>
       </c>
       <c r="AW25" s="13">
-        <v>5731</v>
+        <v>4554</v>
       </c>
       <c r="AX25" s="13">
-        <v>4554</v>
+        <v>6563</v>
       </c>
       <c r="AY25" s="13">
-        <v>6563</v>
+        <v>6856</v>
       </c>
       <c r="AZ25" s="13">
-        <v>6856</v>
+        <v>6853</v>
       </c>
       <c r="BA25" s="13">
-        <v>6853</v>
+        <v>5778</v>
       </c>
       <c r="BB25" s="13">
-        <v>5778</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3165,154 +3165,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>730</v>
+        <v>1025</v>
       </c>
       <c r="F26" s="11">
-        <v>1025</v>
+        <v>1664</v>
       </c>
       <c r="G26" s="11">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="H26" s="11">
-        <v>1697</v>
+        <v>2015</v>
       </c>
       <c r="I26" s="11">
-        <v>2015</v>
+        <v>1188</v>
       </c>
       <c r="J26" s="11">
-        <v>1188</v>
+        <v>2485</v>
       </c>
       <c r="K26" s="11">
-        <v>2485</v>
+        <v>20</v>
       </c>
       <c r="L26" s="11">
-        <v>20</v>
+        <v>1207</v>
       </c>
       <c r="M26" s="11">
-        <v>1207</v>
+        <v>1320</v>
       </c>
       <c r="N26" s="11">
-        <v>1320</v>
+        <v>2465</v>
       </c>
       <c r="O26" s="11">
-        <v>2465</v>
+        <v>2117</v>
       </c>
       <c r="P26" s="11">
-        <v>2117</v>
+        <v>1838</v>
       </c>
       <c r="Q26" s="11">
-        <v>1838</v>
+        <v>1083</v>
       </c>
       <c r="R26" s="11">
-        <v>1083</v>
+        <v>2875</v>
       </c>
       <c r="S26" s="11">
-        <v>2875</v>
+        <v>3198</v>
       </c>
       <c r="T26" s="11">
-        <v>3198</v>
+        <v>1264</v>
       </c>
       <c r="U26" s="11">
-        <v>1264</v>
+        <v>2031</v>
       </c>
       <c r="V26" s="11">
-        <v>2031</v>
+        <v>2268</v>
       </c>
       <c r="W26" s="11">
-        <v>2268</v>
+        <v>72</v>
       </c>
       <c r="X26" s="11">
-        <v>72</v>
+        <v>2549</v>
       </c>
       <c r="Y26" s="11">
-        <v>2549</v>
+        <v>2295</v>
       </c>
       <c r="Z26" s="11">
-        <v>2295</v>
+        <v>2239</v>
       </c>
       <c r="AA26" s="11">
-        <v>2239</v>
+        <v>1490</v>
       </c>
       <c r="AB26" s="11">
-        <v>1490</v>
+        <v>1103</v>
       </c>
       <c r="AC26" s="11">
-        <v>1103</v>
+        <v>1275</v>
       </c>
       <c r="AD26" s="11">
-        <v>1275</v>
+        <v>2185</v>
       </c>
       <c r="AE26" s="11">
-        <v>2185</v>
+        <v>3634</v>
       </c>
       <c r="AF26" s="11">
-        <v>3634</v>
+        <v>1292</v>
       </c>
       <c r="AG26" s="11">
-        <v>1292</v>
+        <v>2194</v>
       </c>
       <c r="AH26" s="11">
-        <v>2194</v>
+        <v>2873</v>
       </c>
       <c r="AI26" s="11">
-        <v>2873</v>
+        <v>687</v>
       </c>
       <c r="AJ26" s="11">
-        <v>687</v>
+        <v>1496</v>
       </c>
       <c r="AK26" s="11">
-        <v>1496</v>
+        <v>2061</v>
       </c>
       <c r="AL26" s="11">
-        <v>2061</v>
+        <v>2109</v>
       </c>
       <c r="AM26" s="11">
-        <v>2109</v>
+        <v>1699</v>
       </c>
       <c r="AN26" s="11">
-        <v>1699</v>
+        <v>2795</v>
       </c>
       <c r="AO26" s="11">
-        <v>2795</v>
+        <v>2434</v>
       </c>
       <c r="AP26" s="11">
-        <v>2434</v>
+        <v>2759</v>
       </c>
       <c r="AQ26" s="11">
-        <v>2759</v>
+        <v>2477</v>
       </c>
       <c r="AR26" s="11">
-        <v>2477</v>
+        <v>949</v>
       </c>
       <c r="AS26" s="11">
-        <v>949</v>
+        <v>817</v>
       </c>
       <c r="AT26" s="11">
-        <v>817</v>
+        <v>1927</v>
       </c>
       <c r="AU26" s="11">
-        <v>1927</v>
+        <v>1126</v>
       </c>
       <c r="AV26" s="11">
-        <v>1126</v>
+        <v>1958</v>
       </c>
       <c r="AW26" s="11">
-        <v>1958</v>
+        <v>1009</v>
       </c>
       <c r="AX26" s="11">
-        <v>1009</v>
+        <v>2382</v>
       </c>
       <c r="AY26" s="11">
-        <v>2382</v>
+        <v>1752</v>
       </c>
       <c r="AZ26" s="11">
-        <v>1752</v>
+        <v>850</v>
       </c>
       <c r="BA26" s="11">
-        <v>850</v>
+        <v>1244</v>
       </c>
       <c r="BB26" s="11">
-        <v>1244</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3461,74 +3461,74 @@
       <c r="AE28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" s="11" t="s">
-        <v>60</v>
+      <c r="AF28" s="11">
+        <v>722</v>
       </c>
       <c r="AG28" s="11">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AH28" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI28" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ28" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK28" s="11">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AL28" s="11">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AM28" s="11">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AN28" s="11">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AO28" s="11">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AP28" s="11">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AQ28" s="11">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AR28" s="11">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AS28" s="11">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AT28" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AU28" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AV28" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AW28" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX28" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY28" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ28" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA28" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB28" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3618,74 +3618,74 @@
       <c r="AE29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF29" s="15" t="s">
-        <v>60</v>
+      <c r="AF29" s="15">
+        <v>722</v>
       </c>
       <c r="AG29" s="15">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AH29" s="15">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AI29" s="15">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AJ29" s="15">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AK29" s="15">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AL29" s="15">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AM29" s="15">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AN29" s="15">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AO29" s="15">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AP29" s="15">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AQ29" s="15">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AR29" s="15">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AS29" s="15">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AT29" s="15">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AU29" s="15">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AV29" s="15">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AW29" s="15">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AX29" s="15">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AY29" s="15">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AZ29" s="15">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="BA29" s="15">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BB29" s="15">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3832,8 +3832,8 @@
       <c r="AE31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AF31" s="17" t="s">
-        <v>60</v>
+      <c r="AF31" s="17">
+        <v>0</v>
       </c>
       <c r="AG31" s="17">
         <v>0</v>
@@ -3909,154 +3909,154 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>8098</v>
+        <v>7603</v>
       </c>
       <c r="F32" s="15">
-        <v>7603</v>
+        <v>11032</v>
       </c>
       <c r="G32" s="15">
-        <v>11032</v>
+        <v>12467</v>
       </c>
       <c r="H32" s="15">
-        <v>12467</v>
+        <v>8834</v>
       </c>
       <c r="I32" s="15">
-        <v>8834</v>
+        <v>8609</v>
       </c>
       <c r="J32" s="15">
-        <v>8609</v>
+        <v>14659</v>
       </c>
       <c r="K32" s="15">
-        <v>14659</v>
+        <v>2160</v>
       </c>
       <c r="L32" s="15">
-        <v>2160</v>
+        <v>9079</v>
       </c>
       <c r="M32" s="15">
-        <v>9079</v>
+        <v>9088</v>
       </c>
       <c r="N32" s="15">
-        <v>9088</v>
+        <v>12367</v>
       </c>
       <c r="O32" s="15">
-        <v>12367</v>
+        <v>13878</v>
       </c>
       <c r="P32" s="15">
-        <v>13878</v>
+        <v>13212</v>
       </c>
       <c r="Q32" s="15">
-        <v>13212</v>
+        <v>7466</v>
       </c>
       <c r="R32" s="15">
-        <v>7466</v>
+        <v>10497</v>
       </c>
       <c r="S32" s="15">
-        <v>10497</v>
+        <v>16799</v>
       </c>
       <c r="T32" s="15">
-        <v>16799</v>
+        <v>6910</v>
       </c>
       <c r="U32" s="15">
-        <v>6910</v>
+        <v>9613</v>
       </c>
       <c r="V32" s="15">
-        <v>9613</v>
+        <v>13105</v>
       </c>
       <c r="W32" s="15">
-        <v>13105</v>
+        <v>3012</v>
       </c>
       <c r="X32" s="15">
-        <v>3012</v>
+        <v>11658</v>
       </c>
       <c r="Y32" s="15">
-        <v>11658</v>
+        <v>13135</v>
       </c>
       <c r="Z32" s="15">
-        <v>13135</v>
+        <v>13443</v>
       </c>
       <c r="AA32" s="15">
-        <v>13443</v>
+        <v>8911</v>
       </c>
       <c r="AB32" s="15">
-        <v>8911</v>
+        <v>8459</v>
       </c>
       <c r="AC32" s="15">
-        <v>8459</v>
+        <v>9383</v>
       </c>
       <c r="AD32" s="15">
-        <v>9383</v>
+        <v>12213</v>
       </c>
       <c r="AE32" s="15">
-        <v>12213</v>
+        <v>17436</v>
       </c>
       <c r="AF32" s="15">
-        <v>17436</v>
+        <v>6493</v>
       </c>
       <c r="AG32" s="15">
-        <v>6493</v>
+        <v>11077</v>
       </c>
       <c r="AH32" s="15">
-        <v>11077</v>
+        <v>13765</v>
       </c>
       <c r="AI32" s="15">
-        <v>13765</v>
+        <v>4253</v>
       </c>
       <c r="AJ32" s="15">
-        <v>4253</v>
+        <v>10522</v>
       </c>
       <c r="AK32" s="15">
-        <v>10522</v>
+        <v>10590</v>
       </c>
       <c r="AL32" s="15">
-        <v>10590</v>
+        <v>10802</v>
       </c>
       <c r="AM32" s="15">
-        <v>10802</v>
+        <v>9709</v>
       </c>
       <c r="AN32" s="15">
-        <v>9709</v>
+        <v>14059</v>
       </c>
       <c r="AO32" s="15">
-        <v>14059</v>
+        <v>12588</v>
       </c>
       <c r="AP32" s="15">
-        <v>12588</v>
+        <v>13880</v>
       </c>
       <c r="AQ32" s="15">
-        <v>13880</v>
+        <v>15805</v>
       </c>
       <c r="AR32" s="15">
-        <v>15805</v>
+        <v>3392</v>
       </c>
       <c r="AS32" s="15">
-        <v>3392</v>
+        <v>6180</v>
       </c>
       <c r="AT32" s="15">
-        <v>6180</v>
+        <v>10490</v>
       </c>
       <c r="AU32" s="15">
-        <v>10490</v>
+        <v>6973</v>
       </c>
       <c r="AV32" s="15">
-        <v>6973</v>
+        <v>9611</v>
       </c>
       <c r="AW32" s="15">
-        <v>9611</v>
+        <v>6629</v>
       </c>
       <c r="AX32" s="15">
-        <v>6629</v>
+        <v>10638</v>
       </c>
       <c r="AY32" s="15">
-        <v>10638</v>
+        <v>11344</v>
       </c>
       <c r="AZ32" s="15">
-        <v>11344</v>
+        <v>9323</v>
       </c>
       <c r="BA32" s="15">
-        <v>9323</v>
+        <v>8469</v>
       </c>
       <c r="BB32" s="15">
-        <v>8469</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4502,154 +4502,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>135251</v>
+        <v>207476</v>
       </c>
       <c r="F39" s="11">
-        <v>207476</v>
+        <v>245417</v>
       </c>
       <c r="G39" s="11">
-        <v>245417</v>
+        <v>292592</v>
       </c>
       <c r="H39" s="11">
-        <v>292592</v>
+        <v>133072</v>
       </c>
       <c r="I39" s="11">
-        <v>133072</v>
+        <v>210931</v>
       </c>
       <c r="J39" s="11">
-        <v>210931</v>
+        <v>367879</v>
       </c>
       <c r="K39" s="11">
-        <v>367879</v>
+        <v>72141</v>
       </c>
       <c r="L39" s="11">
-        <v>72141</v>
+        <v>338087</v>
       </c>
       <c r="M39" s="11">
-        <v>338087</v>
+        <v>57812</v>
       </c>
       <c r="N39" s="11">
-        <v>57812</v>
+        <v>219935</v>
       </c>
       <c r="O39" s="11">
-        <v>219935</v>
+        <v>299689</v>
       </c>
       <c r="P39" s="11">
-        <v>299689</v>
+        <v>308897</v>
       </c>
       <c r="Q39" s="11">
-        <v>308897</v>
+        <v>269021</v>
       </c>
       <c r="R39" s="11">
-        <v>269021</v>
+        <v>277453</v>
       </c>
       <c r="S39" s="11">
-        <v>277453</v>
+        <v>431209</v>
       </c>
       <c r="T39" s="11">
-        <v>431209</v>
+        <v>222159</v>
       </c>
       <c r="U39" s="11">
-        <v>222159</v>
+        <v>216370</v>
       </c>
       <c r="V39" s="11">
-        <v>216370</v>
+        <v>275538</v>
       </c>
       <c r="W39" s="11">
-        <v>275538</v>
+        <v>135971</v>
       </c>
       <c r="X39" s="11">
-        <v>135971</v>
+        <v>405988</v>
       </c>
       <c r="Y39" s="11">
-        <v>405988</v>
+        <v>365928</v>
       </c>
       <c r="Z39" s="11">
-        <v>365928</v>
+        <v>530198</v>
       </c>
       <c r="AA39" s="11">
-        <v>530198</v>
+        <v>300830</v>
       </c>
       <c r="AB39" s="11">
-        <v>300830</v>
+        <v>529308</v>
       </c>
       <c r="AC39" s="11">
-        <v>529308</v>
+        <v>581230</v>
       </c>
       <c r="AD39" s="11">
-        <v>581230</v>
+        <v>658525</v>
       </c>
       <c r="AE39" s="11">
-        <v>658525</v>
+        <v>639476</v>
       </c>
       <c r="AF39" s="11">
-        <v>639476</v>
+        <v>476606</v>
       </c>
       <c r="AG39" s="11">
-        <v>476606</v>
+        <v>650741</v>
       </c>
       <c r="AH39" s="11">
-        <v>650741</v>
+        <v>655981</v>
       </c>
       <c r="AI39" s="11">
-        <v>655981</v>
+        <v>414079</v>
       </c>
       <c r="AJ39" s="11">
-        <v>414079</v>
+        <v>541580</v>
       </c>
       <c r="AK39" s="11">
-        <v>541580</v>
+        <v>854410</v>
       </c>
       <c r="AL39" s="11">
-        <v>854410</v>
+        <v>690500</v>
       </c>
       <c r="AM39" s="11">
-        <v>690500</v>
+        <v>636390</v>
       </c>
       <c r="AN39" s="11">
-        <v>636390</v>
+        <v>933279</v>
       </c>
       <c r="AO39" s="11">
-        <v>933279</v>
+        <v>931503</v>
       </c>
       <c r="AP39" s="11">
-        <v>931503</v>
+        <v>1119592</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1119592</v>
+        <v>1092906</v>
       </c>
       <c r="AR39" s="11">
-        <v>1092906</v>
+        <v>314066</v>
       </c>
       <c r="AS39" s="11">
-        <v>314066</v>
+        <v>555546</v>
       </c>
       <c r="AT39" s="11">
-        <v>555546</v>
+        <v>931846</v>
       </c>
       <c r="AU39" s="11">
-        <v>931846</v>
+        <v>465181</v>
       </c>
       <c r="AV39" s="11">
-        <v>465181</v>
+        <v>586997</v>
       </c>
       <c r="AW39" s="11">
-        <v>586997</v>
+        <v>339359</v>
       </c>
       <c r="AX39" s="11">
-        <v>339359</v>
+        <v>555212</v>
       </c>
       <c r="AY39" s="11">
-        <v>555212</v>
+        <v>1070743</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1070743</v>
+        <v>526539</v>
       </c>
       <c r="BA39" s="11">
-        <v>526539</v>
+        <v>435277</v>
       </c>
       <c r="BB39" s="11">
-        <v>435277</v>
+        <v>845907</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4661,154 +4661,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>150608</v>
+        <v>177421</v>
       </c>
       <c r="F40" s="13">
-        <v>177421</v>
+        <v>335341</v>
       </c>
       <c r="G40" s="13">
-        <v>335341</v>
+        <v>379752</v>
       </c>
       <c r="H40" s="13">
-        <v>379752</v>
+        <v>228207</v>
       </c>
       <c r="I40" s="13">
-        <v>228207</v>
+        <v>244593</v>
       </c>
       <c r="J40" s="13">
-        <v>244593</v>
+        <v>451785</v>
       </c>
       <c r="K40" s="13">
-        <v>451785</v>
+        <v>72239</v>
       </c>
       <c r="L40" s="13">
-        <v>72239</v>
+        <v>167670</v>
       </c>
       <c r="M40" s="13">
-        <v>167670</v>
+        <v>385756</v>
       </c>
       <c r="N40" s="13">
-        <v>385756</v>
+        <v>462062</v>
       </c>
       <c r="O40" s="13">
-        <v>462062</v>
+        <v>580165</v>
       </c>
       <c r="P40" s="13">
-        <v>580165</v>
+        <v>503247</v>
       </c>
       <c r="Q40" s="13">
-        <v>503247</v>
+        <v>160308</v>
       </c>
       <c r="R40" s="13">
-        <v>160308</v>
+        <v>281087</v>
       </c>
       <c r="S40" s="13">
-        <v>281087</v>
+        <v>435073</v>
       </c>
       <c r="T40" s="13">
-        <v>435073</v>
+        <v>176918</v>
       </c>
       <c r="U40" s="13">
-        <v>176918</v>
+        <v>346407</v>
       </c>
       <c r="V40" s="13">
-        <v>346407</v>
+        <v>535075</v>
       </c>
       <c r="W40" s="13">
-        <v>535075</v>
+        <v>78738</v>
       </c>
       <c r="X40" s="13">
-        <v>78738</v>
+        <v>346981</v>
       </c>
       <c r="Y40" s="13">
-        <v>346981</v>
+        <v>409756</v>
       </c>
       <c r="Z40" s="13">
-        <v>409756</v>
+        <v>474855</v>
       </c>
       <c r="AA40" s="13">
-        <v>474855</v>
+        <v>462286</v>
       </c>
       <c r="AB40" s="13">
-        <v>462286</v>
+        <v>270637</v>
       </c>
       <c r="AC40" s="13">
-        <v>270637</v>
+        <v>400262</v>
       </c>
       <c r="AD40" s="13">
-        <v>400262</v>
+        <v>653440</v>
       </c>
       <c r="AE40" s="13">
-        <v>653440</v>
+        <v>1101063</v>
       </c>
       <c r="AF40" s="13">
-        <v>1101063</v>
+        <v>272693</v>
       </c>
       <c r="AG40" s="13">
-        <v>272693</v>
+        <v>585479</v>
       </c>
       <c r="AH40" s="13">
-        <v>585479</v>
+        <v>842662</v>
       </c>
       <c r="AI40" s="13">
-        <v>842662</v>
+        <v>136451</v>
       </c>
       <c r="AJ40" s="13">
-        <v>136451</v>
+        <v>656903</v>
       </c>
       <c r="AK40" s="13">
-        <v>656903</v>
+        <v>399786</v>
       </c>
       <c r="AL40" s="13">
-        <v>399786</v>
+        <v>838949</v>
       </c>
       <c r="AM40" s="13">
-        <v>838949</v>
+        <v>798539</v>
       </c>
       <c r="AN40" s="13">
-        <v>798539</v>
+        <v>1051164</v>
       </c>
       <c r="AO40" s="13">
-        <v>1051164</v>
+        <v>1026145</v>
       </c>
       <c r="AP40" s="13">
-        <v>1026145</v>
+        <v>1030708</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1030708</v>
+        <v>1109659</v>
       </c>
       <c r="AR40" s="13">
-        <v>1109659</v>
+        <v>116449</v>
       </c>
       <c r="AS40" s="13">
-        <v>116449</v>
+        <v>491857</v>
       </c>
       <c r="AT40" s="13">
-        <v>491857</v>
+        <v>690648</v>
       </c>
       <c r="AU40" s="13">
-        <v>690648</v>
+        <v>516216</v>
       </c>
       <c r="AV40" s="13">
-        <v>516216</v>
+        <v>584647</v>
       </c>
       <c r="AW40" s="13">
-        <v>754065</v>
+        <v>590159</v>
       </c>
       <c r="AX40" s="13">
-        <v>590159</v>
+        <v>839468</v>
       </c>
       <c r="AY40" s="13">
-        <v>839468</v>
+        <v>826353</v>
       </c>
       <c r="AZ40" s="13">
-        <v>826353</v>
+        <v>943825</v>
       </c>
       <c r="BA40" s="13">
-        <v>943825</v>
+        <v>881573</v>
       </c>
       <c r="BB40" s="13">
-        <v>881573</v>
+        <v>742413</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4820,154 +4820,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>60264</v>
+        <v>126978</v>
       </c>
       <c r="F41" s="11">
-        <v>126978</v>
+        <v>212831</v>
       </c>
       <c r="G41" s="11">
-        <v>212831</v>
+        <v>225665</v>
       </c>
       <c r="H41" s="11">
-        <v>225665</v>
+        <v>260803</v>
       </c>
       <c r="I41" s="11">
-        <v>260803</v>
+        <v>153502</v>
       </c>
       <c r="J41" s="11">
-        <v>153502</v>
+        <v>319496</v>
       </c>
       <c r="K41" s="11">
-        <v>319496</v>
+        <v>2739</v>
       </c>
       <c r="L41" s="11">
-        <v>2739</v>
+        <v>150665</v>
       </c>
       <c r="M41" s="11">
-        <v>150665</v>
+        <v>186450</v>
       </c>
       <c r="N41" s="11">
-        <v>186450</v>
+        <v>385045</v>
       </c>
       <c r="O41" s="11">
-        <v>385045</v>
+        <v>336596</v>
       </c>
       <c r="P41" s="11">
-        <v>336596</v>
+        <v>288015</v>
       </c>
       <c r="Q41" s="11">
-        <v>288015</v>
+        <v>173700</v>
       </c>
       <c r="R41" s="11">
-        <v>173700</v>
+        <v>468445</v>
       </c>
       <c r="S41" s="11">
-        <v>468445</v>
+        <v>517421</v>
       </c>
       <c r="T41" s="11">
-        <v>517421</v>
+        <v>208648</v>
       </c>
       <c r="U41" s="11">
-        <v>208648</v>
+        <v>330834</v>
       </c>
       <c r="V41" s="11">
-        <v>330834</v>
+        <v>356881</v>
       </c>
       <c r="W41" s="11">
-        <v>356881</v>
+        <v>11507</v>
       </c>
       <c r="X41" s="11">
-        <v>11507</v>
+        <v>404418</v>
       </c>
       <c r="Y41" s="11">
-        <v>404418</v>
+        <v>340860</v>
       </c>
       <c r="Z41" s="11">
-        <v>340860</v>
+        <v>385627</v>
       </c>
       <c r="AA41" s="11">
-        <v>385627</v>
+        <v>317496</v>
       </c>
       <c r="AB41" s="11">
-        <v>317496</v>
+        <v>229818</v>
       </c>
       <c r="AC41" s="11">
-        <v>229818</v>
+        <v>274023</v>
       </c>
       <c r="AD41" s="11">
-        <v>274023</v>
+        <v>617080</v>
       </c>
       <c r="AE41" s="11">
-        <v>617080</v>
+        <v>978696</v>
       </c>
       <c r="AF41" s="11">
-        <v>978696</v>
+        <v>383315</v>
       </c>
       <c r="AG41" s="11">
-        <v>383315</v>
+        <v>651915</v>
       </c>
       <c r="AH41" s="11">
-        <v>651915</v>
+        <v>855510</v>
       </c>
       <c r="AI41" s="11">
-        <v>855510</v>
+        <v>204053</v>
       </c>
       <c r="AJ41" s="11">
-        <v>204053</v>
+        <v>450202</v>
       </c>
       <c r="AK41" s="11">
-        <v>450202</v>
+        <v>669426</v>
       </c>
       <c r="AL41" s="11">
-        <v>669426</v>
+        <v>780093</v>
       </c>
       <c r="AM41" s="11">
-        <v>780093</v>
+        <v>613291</v>
       </c>
       <c r="AN41" s="11">
-        <v>613291</v>
+        <v>1036461</v>
       </c>
       <c r="AO41" s="11">
-        <v>1036461</v>
+        <v>892684</v>
       </c>
       <c r="AP41" s="11">
-        <v>892684</v>
+        <v>999753</v>
       </c>
       <c r="AQ41" s="11">
-        <v>999753</v>
+        <v>895714</v>
       </c>
       <c r="AR41" s="11">
-        <v>895714</v>
+        <v>346199</v>
       </c>
       <c r="AS41" s="11">
-        <v>346199</v>
+        <v>300889</v>
       </c>
       <c r="AT41" s="11">
-        <v>300889</v>
+        <v>713310</v>
       </c>
       <c r="AU41" s="11">
-        <v>713310</v>
+        <v>412705</v>
       </c>
       <c r="AV41" s="11">
-        <v>412705</v>
+        <v>723501</v>
       </c>
       <c r="AW41" s="11">
-        <v>723501</v>
+        <v>449699</v>
       </c>
       <c r="AX41" s="11">
-        <v>449699</v>
+        <v>1087993</v>
       </c>
       <c r="AY41" s="11">
-        <v>1087993</v>
+        <v>783911</v>
       </c>
       <c r="AZ41" s="11">
-        <v>783911</v>
+        <v>388624</v>
       </c>
       <c r="BA41" s="11">
-        <v>388624</v>
+        <v>623673</v>
       </c>
       <c r="BB41" s="11">
-        <v>623673</v>
+        <v>1186522</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5116,74 +5116,74 @@
       <c r="AE43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF43" s="11" t="s">
-        <v>60</v>
+      <c r="AF43" s="11">
+        <v>13884</v>
       </c>
       <c r="AG43" s="11">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AH43" s="11">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AI43" s="11">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AJ43" s="11">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AK43" s="11">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AL43" s="11">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AM43" s="11">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AN43" s="11">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AO43" s="11">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AP43" s="11">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AQ43" s="11">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AR43" s="11">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AS43" s="11">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AT43" s="11">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AU43" s="11">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AV43" s="11">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AW43" s="11">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AX43" s="11">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AY43" s="11">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AZ43" s="11">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="BA43" s="11">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BB43" s="11">
-        <v>9422</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5275,74 +5275,74 @@
       <c r="AE44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF44" s="15" t="s">
-        <v>60</v>
+      <c r="AF44" s="15">
+        <v>13884</v>
       </c>
       <c r="AG44" s="15">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AH44" s="15">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AI44" s="15">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AJ44" s="15">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AK44" s="15">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AL44" s="15">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AM44" s="15">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AN44" s="15">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AO44" s="15">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AP44" s="15">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AQ44" s="15">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AR44" s="15">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AS44" s="15">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AT44" s="15">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AU44" s="15">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AV44" s="15">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AW44" s="15">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AX44" s="15">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AY44" s="15">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AZ44" s="15">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="BA44" s="15">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BB44" s="15">
-        <v>9422</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5491,8 +5491,8 @@
       <c r="AE46" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AF46" s="17" t="s">
-        <v>60</v>
+      <c r="AF46" s="17">
+        <v>0</v>
       </c>
       <c r="AG46" s="17">
         <v>0</v>
@@ -5707,74 +5707,74 @@
       <c r="AE48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF48" s="11" t="s">
-        <v>60</v>
+      <c r="AF48" s="11">
+        <v>-31488</v>
       </c>
       <c r="AG48" s="11">
-        <v>-31488</v>
+        <v>-56009</v>
       </c>
       <c r="AH48" s="11">
-        <v>-56009</v>
+        <v>-82605</v>
       </c>
       <c r="AI48" s="11">
-        <v>-82605</v>
+        <v>-11564</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-11564</v>
+        <v>-54416</v>
       </c>
       <c r="AK48" s="11">
-        <v>-54416</v>
+        <v>-103909</v>
       </c>
       <c r="AL48" s="11">
-        <v>-103909</v>
+        <v>-235607</v>
       </c>
       <c r="AM48" s="11">
-        <v>-235607</v>
+        <v>-161691</v>
       </c>
       <c r="AN48" s="11">
-        <v>-161691</v>
+        <v>-119088</v>
       </c>
       <c r="AO48" s="11">
-        <v>-119088</v>
+        <v>-115277</v>
       </c>
       <c r="AP48" s="11">
-        <v>-115277</v>
+        <v>-112079</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-112079</v>
+        <v>-204882</v>
       </c>
       <c r="AR48" s="11">
-        <v>-204882</v>
+        <v>-36995</v>
       </c>
       <c r="AS48" s="11">
-        <v>-36995</v>
+        <v>-45946</v>
       </c>
       <c r="AT48" s="11">
-        <v>-45946</v>
+        <v>-46192</v>
       </c>
       <c r="AU48" s="11">
-        <v>-46192</v>
+        <v>-16286</v>
       </c>
       <c r="AV48" s="11">
-        <v>-16286</v>
+        <v>-37502</v>
       </c>
       <c r="AW48" s="11">
-        <v>-37502</v>
+        <v>-16386</v>
       </c>
       <c r="AX48" s="11">
-        <v>-16386</v>
+        <v>-40513</v>
       </c>
       <c r="AY48" s="11">
-        <v>-40513</v>
+        <v>-35307</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-35307</v>
+        <v>-28490</v>
       </c>
       <c r="BA48" s="11">
-        <v>-28490</v>
+        <v>-37223</v>
       </c>
       <c r="BB48" s="11">
-        <v>-37223</v>
+        <v>-53821</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5784,154 +5784,154 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>346123</v>
+        <v>511875</v>
       </c>
       <c r="F49" s="15">
-        <v>511875</v>
+        <v>793589</v>
       </c>
       <c r="G49" s="15">
-        <v>793589</v>
+        <v>898009</v>
       </c>
       <c r="H49" s="15">
-        <v>898009</v>
+        <v>622082</v>
       </c>
       <c r="I49" s="15">
-        <v>622082</v>
+        <v>609026</v>
       </c>
       <c r="J49" s="15">
-        <v>609026</v>
+        <v>1139160</v>
       </c>
       <c r="K49" s="15">
-        <v>1139160</v>
+        <v>147119</v>
       </c>
       <c r="L49" s="15">
-        <v>147119</v>
+        <v>656422</v>
       </c>
       <c r="M49" s="15">
-        <v>656422</v>
+        <v>630018</v>
       </c>
       <c r="N49" s="15">
-        <v>630018</v>
+        <v>1067042</v>
       </c>
       <c r="O49" s="15">
-        <v>1067042</v>
+        <v>1216450</v>
       </c>
       <c r="P49" s="15">
-        <v>1216450</v>
+        <v>1100159</v>
       </c>
       <c r="Q49" s="15">
-        <v>1100159</v>
+        <v>603029</v>
       </c>
       <c r="R49" s="15">
-        <v>603029</v>
+        <v>1026985</v>
       </c>
       <c r="S49" s="15">
-        <v>1026985</v>
+        <v>1383703</v>
       </c>
       <c r="T49" s="15">
-        <v>1383703</v>
+        <v>607725</v>
       </c>
       <c r="U49" s="15">
-        <v>607725</v>
+        <v>893611</v>
       </c>
       <c r="V49" s="15">
-        <v>893611</v>
+        <v>1167494</v>
       </c>
       <c r="W49" s="15">
-        <v>1167494</v>
+        <v>226216</v>
       </c>
       <c r="X49" s="15">
-        <v>226216</v>
+        <v>1157387</v>
       </c>
       <c r="Y49" s="15">
-        <v>1157387</v>
+        <v>1116544</v>
       </c>
       <c r="Z49" s="15">
-        <v>1116544</v>
+        <v>1390680</v>
       </c>
       <c r="AA49" s="15">
-        <v>1390680</v>
+        <v>1080612</v>
       </c>
       <c r="AB49" s="15">
-        <v>1080612</v>
+        <v>1029763</v>
       </c>
       <c r="AC49" s="15">
-        <v>1029763</v>
+        <v>1255515</v>
       </c>
       <c r="AD49" s="15">
-        <v>1255515</v>
+        <v>1929045</v>
       </c>
       <c r="AE49" s="15">
-        <v>1929045</v>
+        <v>2719235</v>
       </c>
       <c r="AF49" s="15">
-        <v>2719235</v>
+        <v>1115010</v>
       </c>
       <c r="AG49" s="15">
-        <v>1115010</v>
+        <v>1844658</v>
       </c>
       <c r="AH49" s="15">
-        <v>1844658</v>
+        <v>2295446</v>
       </c>
       <c r="AI49" s="15">
-        <v>2295446</v>
+        <v>749262</v>
       </c>
       <c r="AJ49" s="15">
-        <v>749262</v>
+        <v>1613692</v>
       </c>
       <c r="AK49" s="15">
-        <v>1613692</v>
+        <v>1833734</v>
       </c>
       <c r="AL49" s="15">
-        <v>1833734</v>
+        <v>2084927</v>
       </c>
       <c r="AM49" s="15">
-        <v>2084927</v>
+        <v>1899594</v>
       </c>
       <c r="AN49" s="15">
-        <v>1899594</v>
+        <v>2917059</v>
       </c>
       <c r="AO49" s="15">
-        <v>2917059</v>
+        <v>2744607</v>
       </c>
       <c r="AP49" s="15">
-        <v>2744607</v>
+        <v>3040704</v>
       </c>
       <c r="AQ49" s="15">
-        <v>3040704</v>
+        <v>2917357</v>
       </c>
       <c r="AR49" s="15">
-        <v>2917357</v>
+        <v>754233</v>
       </c>
       <c r="AS49" s="15">
-        <v>754233</v>
+        <v>1307811</v>
       </c>
       <c r="AT49" s="15">
-        <v>1307811</v>
+        <v>2295082</v>
       </c>
       <c r="AU49" s="15">
-        <v>2295082</v>
+        <v>1380521</v>
       </c>
       <c r="AV49" s="15">
-        <v>1380521</v>
+        <v>1865037</v>
       </c>
       <c r="AW49" s="15">
-        <v>2034455</v>
+        <v>1370626</v>
       </c>
       <c r="AX49" s="15">
-        <v>1370626</v>
+        <v>2450616</v>
       </c>
       <c r="AY49" s="15">
-        <v>2450616</v>
+        <v>2651117</v>
       </c>
       <c r="AZ49" s="15">
-        <v>2651117</v>
+        <v>1837684</v>
       </c>
       <c r="BA49" s="15">
-        <v>1837684</v>
+        <v>1912722</v>
       </c>
       <c r="BB49" s="15">
-        <v>1912722</v>
+        <v>2731260</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6377,154 +6377,154 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>54383193</v>
+        <v>68677921</v>
       </c>
       <c r="F56" s="11">
-        <v>68677921</v>
+        <v>80201634</v>
       </c>
       <c r="G56" s="11">
-        <v>80201634</v>
+        <v>76755509</v>
       </c>
       <c r="H56" s="11">
-        <v>76755509</v>
+        <v>51142198</v>
       </c>
       <c r="I56" s="11">
-        <v>51142198</v>
+        <v>69225796</v>
       </c>
       <c r="J56" s="11">
-        <v>69225796</v>
+        <v>73693710</v>
       </c>
       <c r="K56" s="11">
-        <v>73693710</v>
+        <v>78756550</v>
       </c>
       <c r="L56" s="11">
-        <v>78756550</v>
+        <v>75634676</v>
       </c>
       <c r="M56" s="11">
-        <v>75634676</v>
+        <v>33631181</v>
       </c>
       <c r="N56" s="11">
-        <v>33631181</v>
+        <v>71107339</v>
       </c>
       <c r="O56" s="11">
-        <v>71107339</v>
+        <v>83177630</v>
       </c>
       <c r="P56" s="11">
-        <v>83177630</v>
+        <v>79880269</v>
       </c>
       <c r="Q56" s="11">
-        <v>79880269</v>
+        <v>79733551</v>
       </c>
       <c r="R56" s="11">
-        <v>79733551</v>
+        <v>89414438</v>
       </c>
       <c r="S56" s="11">
-        <v>89414438</v>
+        <v>87430860</v>
       </c>
       <c r="T56" s="11">
-        <v>87430860</v>
+        <v>76160096</v>
       </c>
       <c r="U56" s="11">
-        <v>76160096</v>
+        <v>86134554</v>
       </c>
       <c r="V56" s="11">
-        <v>86134554</v>
+        <v>86565504</v>
       </c>
       <c r="W56" s="11">
-        <v>86565504</v>
+        <v>122496396</v>
       </c>
       <c r="X56" s="11">
-        <v>122496396</v>
+        <v>117780099</v>
       </c>
       <c r="Y56" s="11">
-        <v>117780099</v>
+        <v>89666258</v>
       </c>
       <c r="Z56" s="11">
-        <v>89666258</v>
+        <v>117769436</v>
       </c>
       <c r="AA56" s="11">
-        <v>117769436</v>
+        <v>133405765</v>
       </c>
       <c r="AB56" s="11">
-        <v>133405765</v>
+        <v>136208955</v>
       </c>
       <c r="AC56" s="11">
-        <v>136208955</v>
+        <v>151204475</v>
       </c>
       <c r="AD56" s="11">
-        <v>151204475</v>
+        <v>157466523</v>
       </c>
       <c r="AE56" s="11">
-        <v>157466523</v>
+        <v>159988992</v>
       </c>
       <c r="AF56" s="11">
-        <v>159988992</v>
+        <v>246308010</v>
       </c>
       <c r="AG56" s="11">
-        <v>246308010</v>
+        <v>233073424</v>
       </c>
       <c r="AH56" s="11">
-        <v>233073424</v>
+        <v>215712266</v>
       </c>
       <c r="AI56" s="11">
-        <v>215712266</v>
+        <v>248995189</v>
       </c>
       <c r="AJ56" s="11">
-        <v>248995189</v>
+        <v>223978495</v>
       </c>
       <c r="AK56" s="11">
-        <v>223978495</v>
+        <v>240543356</v>
       </c>
       <c r="AL56" s="11">
-        <v>240543356</v>
+        <v>269726563</v>
       </c>
       <c r="AM56" s="11">
-        <v>269726563</v>
+        <v>276330873</v>
       </c>
       <c r="AN56" s="11">
-        <v>276330873</v>
+        <v>286986162</v>
       </c>
       <c r="AO56" s="11">
-        <v>286986162</v>
+        <v>290278280</v>
       </c>
       <c r="AP56" s="11">
-        <v>290278280</v>
+        <v>286267451</v>
       </c>
       <c r="AQ56" s="11">
-        <v>286267451</v>
+        <v>257093860</v>
       </c>
       <c r="AR56" s="11">
-        <v>257093860</v>
+        <v>290801852</v>
       </c>
       <c r="AS56" s="11">
-        <v>290801852</v>
+        <v>317818078</v>
       </c>
       <c r="AT56" s="11">
-        <v>317818078</v>
+        <v>282463171</v>
       </c>
       <c r="AU56" s="11">
-        <v>282463171</v>
+        <v>333224212</v>
       </c>
       <c r="AV56" s="11">
-        <v>333224212</v>
+        <v>343675059</v>
       </c>
       <c r="AW56" s="11">
-        <v>343675059</v>
+        <v>403998810</v>
       </c>
       <c r="AX56" s="11">
-        <v>403998810</v>
+        <v>383169082</v>
       </c>
       <c r="AY56" s="11">
-        <v>383169082</v>
+        <v>415016667</v>
       </c>
       <c r="AZ56" s="11">
-        <v>415016667</v>
+        <v>372902975</v>
       </c>
       <c r="BA56" s="11">
-        <v>372902975</v>
+        <v>370764055</v>
       </c>
       <c r="BB56" s="11">
-        <v>370764055</v>
+        <v>161432634</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -6536,154 +6536,154 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>30855972</v>
+        <v>49879393</v>
       </c>
       <c r="F57" s="13">
-        <v>49879393</v>
+        <v>53161224</v>
       </c>
       <c r="G57" s="13">
-        <v>53161224</v>
+        <v>54577752</v>
       </c>
       <c r="H57" s="13">
-        <v>54577752</v>
+        <v>54115959</v>
       </c>
       <c r="I57" s="13">
-        <v>54115959</v>
+        <v>55919753</v>
       </c>
       <c r="J57" s="13">
-        <v>55919753</v>
+        <v>62905180</v>
       </c>
       <c r="K57" s="13">
-        <v>62905180</v>
+        <v>59018791</v>
       </c>
       <c r="L57" s="13">
-        <v>59018791</v>
+        <v>49285714</v>
       </c>
       <c r="M57" s="13">
-        <v>49285714</v>
+        <v>63771863</v>
       </c>
       <c r="N57" s="13">
-        <v>63771863</v>
+        <v>67860479</v>
       </c>
       <c r="O57" s="13">
-        <v>67860479</v>
+        <v>71116082</v>
       </c>
       <c r="P57" s="13">
-        <v>71116082</v>
+        <v>67037032</v>
       </c>
       <c r="Q57" s="13">
-        <v>67037032</v>
+        <v>53276171</v>
       </c>
       <c r="R57" s="13">
-        <v>53276171</v>
+        <v>62201151</v>
       </c>
       <c r="S57" s="13">
-        <v>62201151</v>
+        <v>50187219</v>
       </c>
       <c r="T57" s="13">
-        <v>50187219</v>
+        <v>64828875</v>
       </c>
       <c r="U57" s="13">
-        <v>64828875</v>
+        <v>68324852</v>
       </c>
       <c r="V57" s="13">
-        <v>68324852</v>
+        <v>69907891</v>
       </c>
       <c r="W57" s="13">
-        <v>69907891</v>
+        <v>43026230</v>
       </c>
       <c r="X57" s="13">
-        <v>43026230</v>
+        <v>61282409</v>
       </c>
       <c r="Y57" s="13">
-        <v>61282409</v>
+        <v>60623761</v>
       </c>
       <c r="Z57" s="13">
-        <v>60623761</v>
+        <v>70852731</v>
       </c>
       <c r="AA57" s="13">
-        <v>70852731</v>
+        <v>89486256</v>
       </c>
       <c r="AB57" s="13">
-        <v>89486256</v>
+        <v>77993372</v>
       </c>
       <c r="AC57" s="13">
-        <v>77993372</v>
+        <v>93870075</v>
       </c>
       <c r="AD57" s="13">
-        <v>93870075</v>
+        <v>111775573</v>
       </c>
       <c r="AE57" s="13">
-        <v>111775573</v>
+        <v>112296073</v>
       </c>
       <c r="AF57" s="13">
-        <v>112296073</v>
+        <v>107190645</v>
       </c>
       <c r="AG57" s="13">
-        <v>107190645</v>
+        <v>107545738</v>
       </c>
       <c r="AH57" s="13">
-        <v>107545738</v>
+        <v>120122880</v>
       </c>
       <c r="AI57" s="13">
-        <v>120122880</v>
+        <v>82647486</v>
       </c>
       <c r="AJ57" s="13">
-        <v>82647486</v>
+        <v>112176059</v>
       </c>
       <c r="AK57" s="13">
-        <v>112176059</v>
+        <v>90367541</v>
       </c>
       <c r="AL57" s="13">
-        <v>90367541</v>
+        <v>146362352</v>
       </c>
       <c r="AM57" s="13">
-        <v>146362352</v>
+        <v>153447156</v>
       </c>
       <c r="AN57" s="13">
-        <v>153447156</v>
+        <v>141342477</v>
       </c>
       <c r="AO57" s="13">
-        <v>141342477</v>
+        <v>155641590</v>
       </c>
       <c r="AP57" s="13">
-        <v>155641590</v>
+        <v>145027156</v>
       </c>
       <c r="AQ57" s="13">
-        <v>145027156</v>
+        <v>135771320</v>
       </c>
       <c r="AR57" s="13">
-        <v>135771320</v>
+        <v>139627098</v>
       </c>
       <c r="AS57" s="13">
-        <v>139627098</v>
+        <v>142278565</v>
       </c>
       <c r="AT57" s="13">
-        <v>142278565</v>
+        <v>135288541</v>
       </c>
       <c r="AU57" s="13">
-        <v>135288541</v>
+        <v>118046193</v>
       </c>
       <c r="AV57" s="13">
-        <v>118046193</v>
+        <v>122888411</v>
       </c>
       <c r="AW57" s="13">
-        <v>131576514</v>
+        <v>129591348</v>
       </c>
       <c r="AX57" s="13">
-        <v>129591348</v>
+        <v>127909188</v>
       </c>
       <c r="AY57" s="13">
-        <v>127909188</v>
+        <v>120529901</v>
       </c>
       <c r="AZ57" s="13">
-        <v>120529901</v>
+        <v>137724354</v>
       </c>
       <c r="BA57" s="13">
-        <v>137724354</v>
+        <v>152574074</v>
       </c>
       <c r="BB57" s="13">
-        <v>152574074</v>
+        <v>393019058</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -6695,154 +6695,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>82553425</v>
+        <v>123880976</v>
       </c>
       <c r="F58" s="11">
-        <v>123880976</v>
+        <v>127903245</v>
       </c>
       <c r="G58" s="11">
-        <v>127903245</v>
+        <v>132978786</v>
       </c>
       <c r="H58" s="11">
-        <v>132978786</v>
+        <v>129430769</v>
       </c>
       <c r="I58" s="11">
-        <v>129430769</v>
+        <v>129210438</v>
       </c>
       <c r="J58" s="11">
-        <v>129210438</v>
+        <v>128569819</v>
       </c>
       <c r="K58" s="11">
-        <v>128569819</v>
+        <v>136950000</v>
       </c>
       <c r="L58" s="11">
-        <v>136950000</v>
+        <v>124826015</v>
       </c>
       <c r="M58" s="11">
-        <v>124826015</v>
+        <v>141250000</v>
       </c>
       <c r="N58" s="11">
-        <v>141250000</v>
+        <v>156204868</v>
       </c>
       <c r="O58" s="11">
-        <v>156204868</v>
+        <v>158996693</v>
       </c>
       <c r="P58" s="11">
-        <v>158996693</v>
+        <v>156700218</v>
       </c>
       <c r="Q58" s="11">
-        <v>156700218</v>
+        <v>160387812</v>
       </c>
       <c r="R58" s="11">
-        <v>160387812</v>
+        <v>162937391</v>
       </c>
       <c r="S58" s="11">
-        <v>162937391</v>
+        <v>161795184</v>
       </c>
       <c r="T58" s="11">
-        <v>161795184</v>
+        <v>165069620</v>
       </c>
       <c r="U58" s="11">
-        <v>165069620</v>
+        <v>162892171</v>
       </c>
       <c r="V58" s="11">
-        <v>162892171</v>
+        <v>157354938</v>
       </c>
       <c r="W58" s="11">
-        <v>157354938</v>
+        <v>159819444</v>
       </c>
       <c r="X58" s="11">
-        <v>159819444</v>
+        <v>158657513</v>
       </c>
       <c r="Y58" s="11">
-        <v>158657513</v>
+        <v>148522876</v>
       </c>
       <c r="Z58" s="11">
-        <v>148522876</v>
+        <v>172231800</v>
       </c>
       <c r="AA58" s="11">
-        <v>172231800</v>
+        <v>213084564</v>
       </c>
       <c r="AB58" s="11">
-        <v>213084564</v>
+        <v>208357208</v>
       </c>
       <c r="AC58" s="11">
-        <v>208357208</v>
+        <v>214920000</v>
       </c>
       <c r="AD58" s="11">
-        <v>214920000</v>
+        <v>282416476</v>
       </c>
       <c r="AE58" s="11">
-        <v>282416476</v>
+        <v>269316456</v>
       </c>
       <c r="AF58" s="11">
-        <v>269316456</v>
+        <v>296683437</v>
       </c>
       <c r="AG58" s="11">
-        <v>296683437</v>
+        <v>297135369</v>
       </c>
       <c r="AH58" s="11">
-        <v>297135369</v>
+        <v>297775844</v>
       </c>
       <c r="AI58" s="11">
-        <v>297775844</v>
+        <v>297020378</v>
       </c>
       <c r="AJ58" s="11">
-        <v>297020378</v>
+        <v>300937166</v>
       </c>
       <c r="AK58" s="11">
-        <v>300937166</v>
+        <v>324806405</v>
       </c>
       <c r="AL58" s="11">
-        <v>324806405</v>
+        <v>369887624</v>
       </c>
       <c r="AM58" s="11">
-        <v>369887624</v>
+        <v>360971748</v>
       </c>
       <c r="AN58" s="11">
-        <v>360971748</v>
+        <v>370826834</v>
       </c>
       <c r="AO58" s="11">
-        <v>370826834</v>
+        <v>366755957</v>
       </c>
       <c r="AP58" s="11">
-        <v>366755957</v>
+        <v>362360638</v>
       </c>
       <c r="AQ58" s="11">
-        <v>362360638</v>
+        <v>361612434</v>
       </c>
       <c r="AR58" s="11">
-        <v>361612434</v>
+        <v>364804004</v>
       </c>
       <c r="AS58" s="11">
-        <v>364804004</v>
+        <v>368285190</v>
       </c>
       <c r="AT58" s="11">
-        <v>368285190</v>
+        <v>370166061</v>
       </c>
       <c r="AU58" s="11">
-        <v>370166061</v>
+        <v>366523091</v>
       </c>
       <c r="AV58" s="11">
-        <v>366523091</v>
+        <v>369510215</v>
       </c>
       <c r="AW58" s="11">
-        <v>369510215</v>
+        <v>445687810</v>
       </c>
       <c r="AX58" s="11">
-        <v>445687810</v>
+        <v>456756087</v>
       </c>
       <c r="AY58" s="11">
-        <v>456756087</v>
+        <v>447437785</v>
       </c>
       <c r="AZ58" s="11">
-        <v>447437785</v>
+        <v>457204706</v>
       </c>
       <c r="BA58" s="11">
-        <v>457204706</v>
+        <v>501344855</v>
       </c>
       <c r="BB58" s="11">
-        <v>501344855</v>
+        <v>540310565</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -6991,74 +6991,74 @@
       <c r="AE60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>60</v>
+      <c r="AF60" s="11">
+        <v>19229917</v>
       </c>
       <c r="AG60" s="11">
-        <v>19229917</v>
+        <v>19369397</v>
       </c>
       <c r="AH60" s="11">
-        <v>19369397</v>
+        <v>28586124</v>
       </c>
       <c r="AI60" s="11">
-        <v>28586124</v>
+        <v>24773810</v>
       </c>
       <c r="AJ60" s="11">
-        <v>24773810</v>
+        <v>25828457</v>
       </c>
       <c r="AK60" s="11">
-        <v>25828457</v>
+        <v>25354430</v>
       </c>
       <c r="AL60" s="11">
-        <v>25354430</v>
+        <v>27411471</v>
       </c>
       <c r="AM60" s="11">
-        <v>27411471</v>
+        <v>25974155</v>
       </c>
       <c r="AN60" s="11">
-        <v>25974155</v>
+        <v>26509565</v>
       </c>
       <c r="AO60" s="11">
-        <v>26509565</v>
+        <v>27136364</v>
       </c>
       <c r="AP60" s="11">
-        <v>27136364</v>
+        <v>26504854</v>
       </c>
       <c r="AQ60" s="11">
-        <v>26504854</v>
+        <v>26504425</v>
       </c>
       <c r="AR60" s="11">
-        <v>26504425</v>
+        <v>27436673</v>
       </c>
       <c r="AS60" s="11">
-        <v>27436673</v>
+        <v>34588608</v>
       </c>
       <c r="AT60" s="11">
-        <v>34588608</v>
+        <v>34402516</v>
       </c>
       <c r="AU60" s="11">
-        <v>34402516</v>
+        <v>34679487</v>
       </c>
       <c r="AV60" s="11">
-        <v>34679487</v>
+        <v>34551402</v>
       </c>
       <c r="AW60" s="11">
-        <v>34551402</v>
+        <v>34491150</v>
       </c>
       <c r="AX60" s="11">
-        <v>34491150</v>
+        <v>34655738</v>
       </c>
       <c r="AY60" s="11">
-        <v>34655738</v>
+        <v>34724359</v>
       </c>
       <c r="AZ60" s="11">
-        <v>34724359</v>
+        <v>34548077</v>
       </c>
       <c r="BA60" s="11">
-        <v>34548077</v>
+        <v>34512821</v>
       </c>
       <c r="BB60" s="11">
-        <v>34512821</v>
+        <v>34474747</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shepaksa/product/monthly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33A2C6-3A41-4405-8AA8-820B5F1FA137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E12A387-98E9-4821-8CA6-58F966403C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپاکسا-پاکسان‌</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 10 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 11 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1406,154 +1406,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3078</v>
+        <v>2994</v>
       </c>
       <c r="F11" s="11">
-        <v>2994</v>
+        <v>3800</v>
       </c>
       <c r="G11" s="11">
-        <v>3800</v>
+        <v>2801</v>
       </c>
       <c r="H11" s="11">
-        <v>2801</v>
+        <v>2770</v>
       </c>
       <c r="I11" s="11">
-        <v>2770</v>
+        <v>4603</v>
       </c>
       <c r="J11" s="11">
-        <v>4603</v>
+        <v>1170</v>
       </c>
       <c r="K11" s="11">
-        <v>1170</v>
+        <v>4413</v>
       </c>
       <c r="L11" s="11">
-        <v>4413</v>
+        <v>1764</v>
       </c>
       <c r="M11" s="11">
-        <v>1764</v>
+        <v>3522</v>
       </c>
       <c r="N11" s="11">
-        <v>3522</v>
+        <v>3374</v>
       </c>
       <c r="O11" s="11">
-        <v>3374</v>
+        <v>3606</v>
       </c>
       <c r="P11" s="11">
-        <v>3606</v>
+        <v>3729</v>
       </c>
       <c r="Q11" s="11">
-        <v>3729</v>
+        <v>3007</v>
       </c>
       <c r="R11" s="11">
-        <v>3007</v>
+        <v>4682</v>
       </c>
       <c r="S11" s="11">
-        <v>4682</v>
+        <v>3252</v>
       </c>
       <c r="T11" s="11">
-        <v>3252</v>
+        <v>2091</v>
       </c>
       <c r="U11" s="11">
-        <v>2091</v>
+        <v>3230</v>
       </c>
       <c r="V11" s="11">
-        <v>3230</v>
+        <v>1394</v>
       </c>
       <c r="W11" s="11">
-        <v>1394</v>
+        <v>3281</v>
       </c>
       <c r="X11" s="11">
-        <v>3281</v>
+        <v>3857</v>
       </c>
       <c r="Y11" s="11">
-        <v>3857</v>
+        <v>4685</v>
       </c>
       <c r="Z11" s="11">
-        <v>4685</v>
+        <v>2018</v>
       </c>
       <c r="AA11" s="11">
-        <v>2018</v>
+        <v>4065</v>
       </c>
       <c r="AB11" s="11">
-        <v>4065</v>
+        <v>3828</v>
       </c>
       <c r="AC11" s="11">
-        <v>3828</v>
+        <v>4104</v>
       </c>
       <c r="AD11" s="11">
-        <v>4104</v>
+        <v>5137</v>
       </c>
       <c r="AE11" s="11">
-        <v>5137</v>
+        <v>1587</v>
       </c>
       <c r="AF11" s="11">
-        <v>1587</v>
+        <v>2560</v>
       </c>
       <c r="AG11" s="11">
-        <v>2560</v>
+        <v>2549</v>
       </c>
       <c r="AH11" s="11">
-        <v>2549</v>
+        <v>1822</v>
       </c>
       <c r="AI11" s="11">
-        <v>1822</v>
+        <v>2160</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2160</v>
+        <v>3535</v>
       </c>
       <c r="AK11" s="11">
-        <v>3535</v>
+        <v>2717</v>
       </c>
       <c r="AL11" s="11">
-        <v>2717</v>
+        <v>2341</v>
       </c>
       <c r="AM11" s="11">
-        <v>2341</v>
+        <v>3156</v>
       </c>
       <c r="AN11" s="11">
-        <v>3156</v>
+        <v>3084</v>
       </c>
       <c r="AO11" s="11">
-        <v>3084</v>
+        <v>4125</v>
       </c>
       <c r="AP11" s="11">
-        <v>4125</v>
+        <v>5623</v>
       </c>
       <c r="AQ11" s="11">
-        <v>5623</v>
+        <v>795</v>
       </c>
       <c r="AR11" s="11">
-        <v>795</v>
+        <v>1366</v>
       </c>
       <c r="AS11" s="11">
-        <v>1366</v>
+        <v>2679</v>
       </c>
       <c r="AT11" s="11">
-        <v>2679</v>
+        <v>1456</v>
       </c>
       <c r="AU11" s="11">
-        <v>1456</v>
+        <v>1610</v>
       </c>
       <c r="AV11" s="11">
-        <v>1610</v>
+        <v>1214</v>
       </c>
       <c r="AW11" s="11">
-        <v>1214</v>
+        <v>1324</v>
       </c>
       <c r="AX11" s="11">
-        <v>1324</v>
+        <v>2525</v>
       </c>
       <c r="AY11" s="11">
-        <v>2525</v>
+        <v>1419</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1419</v>
+        <v>1101</v>
       </c>
       <c r="BA11" s="11">
-        <v>1101</v>
+        <v>2154</v>
       </c>
       <c r="BB11" s="11">
-        <v>5800</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1565,154 +1565,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5082</v>
+        <v>6251</v>
       </c>
       <c r="F12" s="13">
-        <v>6251</v>
+        <v>7022</v>
       </c>
       <c r="G12" s="13">
-        <v>7022</v>
+        <v>4585</v>
       </c>
       <c r="H12" s="13">
-        <v>4585</v>
+        <v>3601</v>
       </c>
       <c r="I12" s="13">
-        <v>3601</v>
+        <v>6973</v>
       </c>
       <c r="J12" s="13">
-        <v>6973</v>
+        <v>1809</v>
       </c>
       <c r="K12" s="13">
-        <v>1809</v>
+        <v>3745</v>
       </c>
       <c r="L12" s="13">
-        <v>3745</v>
+        <v>5653</v>
       </c>
       <c r="M12" s="13">
-        <v>5653</v>
+        <v>8783</v>
       </c>
       <c r="N12" s="13">
-        <v>8783</v>
+        <v>6879</v>
       </c>
       <c r="O12" s="13">
-        <v>6879</v>
+        <v>7133</v>
       </c>
       <c r="P12" s="13">
-        <v>7133</v>
+        <v>3913</v>
       </c>
       <c r="Q12" s="13">
-        <v>3913</v>
+        <v>5465</v>
       </c>
       <c r="R12" s="13">
-        <v>5465</v>
+        <v>6974</v>
       </c>
       <c r="S12" s="13">
-        <v>6974</v>
+        <v>5070</v>
       </c>
       <c r="T12" s="13">
-        <v>5070</v>
+        <v>5120</v>
       </c>
       <c r="U12" s="13">
-        <v>5120</v>
+        <v>5960</v>
       </c>
       <c r="V12" s="13">
-        <v>5960</v>
+        <v>2979</v>
       </c>
       <c r="W12" s="13">
-        <v>2979</v>
+        <v>6456</v>
       </c>
       <c r="X12" s="13">
-        <v>6456</v>
+        <v>5139</v>
       </c>
       <c r="Y12" s="13">
-        <v>5139</v>
+        <v>7714</v>
       </c>
       <c r="Z12" s="13">
-        <v>7714</v>
+        <v>3558</v>
       </c>
       <c r="AA12" s="13">
-        <v>3558</v>
+        <v>4138</v>
       </c>
       <c r="AB12" s="13">
-        <v>4138</v>
+        <v>3976</v>
       </c>
       <c r="AC12" s="13">
-        <v>3976</v>
+        <v>6814</v>
       </c>
       <c r="AD12" s="13">
-        <v>6814</v>
+        <v>8093</v>
       </c>
       <c r="AE12" s="13">
-        <v>8093</v>
+        <v>4723</v>
       </c>
       <c r="AF12" s="13">
-        <v>4723</v>
+        <v>4742</v>
       </c>
       <c r="AG12" s="13">
-        <v>4742</v>
+        <v>5846</v>
       </c>
       <c r="AH12" s="13">
-        <v>5846</v>
+        <v>3613</v>
       </c>
       <c r="AI12" s="13">
-        <v>3613</v>
+        <v>4217</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4217</v>
+        <v>5232</v>
       </c>
       <c r="AK12" s="13">
-        <v>5232</v>
+        <v>6749</v>
       </c>
       <c r="AL12" s="13">
-        <v>6749</v>
+        <v>5262</v>
       </c>
       <c r="AM12" s="13">
-        <v>5262</v>
+        <v>6788</v>
       </c>
       <c r="AN12" s="13">
-        <v>6788</v>
+        <v>6186</v>
       </c>
       <c r="AO12" s="13">
-        <v>6186</v>
+        <v>7465</v>
       </c>
       <c r="AP12" s="13">
-        <v>7465</v>
+        <v>7585</v>
       </c>
       <c r="AQ12" s="13">
-        <v>7585</v>
+        <v>2177</v>
       </c>
       <c r="AR12" s="13">
-        <v>2177</v>
+        <v>2510</v>
       </c>
       <c r="AS12" s="13">
-        <v>2510</v>
+        <v>5890</v>
       </c>
       <c r="AT12" s="13">
-        <v>5890</v>
+        <v>3302</v>
       </c>
       <c r="AU12" s="13">
-        <v>3302</v>
+        <v>4031</v>
       </c>
       <c r="AV12" s="13">
-        <v>4031</v>
+        <v>5701</v>
       </c>
       <c r="AW12" s="13">
-        <v>5701</v>
+        <v>6793</v>
       </c>
       <c r="AX12" s="13">
-        <v>6793</v>
+        <v>6969</v>
       </c>
       <c r="AY12" s="13">
-        <v>6969</v>
+        <v>6369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6369</v>
+        <v>5801</v>
       </c>
       <c r="BA12" s="13">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="BB12" s="13">
-        <v>2157</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1724,154 +1724,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1224</v>
+        <v>1688</v>
       </c>
       <c r="F13" s="11">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="G13" s="11">
-        <v>1678</v>
+        <v>1826</v>
       </c>
       <c r="H13" s="11">
-        <v>1826</v>
+        <v>1304</v>
       </c>
       <c r="I13" s="11">
-        <v>1304</v>
+        <v>1944</v>
       </c>
       <c r="J13" s="11">
-        <v>1944</v>
+        <v>129</v>
       </c>
       <c r="K13" s="11">
-        <v>129</v>
+        <v>2013</v>
       </c>
       <c r="L13" s="11">
-        <v>2013</v>
+        <v>906</v>
       </c>
       <c r="M13" s="11">
-        <v>906</v>
+        <v>2356</v>
       </c>
       <c r="N13" s="11">
-        <v>2356</v>
+        <v>1874</v>
       </c>
       <c r="O13" s="11">
-        <v>1874</v>
+        <v>2262</v>
       </c>
       <c r="P13" s="11">
-        <v>2262</v>
+        <v>1702</v>
       </c>
       <c r="Q13" s="11">
-        <v>1702</v>
+        <v>2060</v>
       </c>
       <c r="R13" s="11">
-        <v>2060</v>
+        <v>3134</v>
       </c>
       <c r="S13" s="11">
-        <v>3134</v>
+        <v>1835</v>
       </c>
       <c r="T13" s="11">
-        <v>1835</v>
+        <v>1738</v>
       </c>
       <c r="U13" s="11">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="V13" s="11">
-        <v>1742</v>
+        <v>1077</v>
       </c>
       <c r="W13" s="11">
-        <v>1077</v>
+        <v>2050</v>
       </c>
       <c r="X13" s="11">
-        <v>2050</v>
+        <v>2009</v>
       </c>
       <c r="Y13" s="11">
-        <v>2009</v>
+        <v>2329</v>
       </c>
       <c r="Z13" s="11">
-        <v>2329</v>
+        <v>1365</v>
       </c>
       <c r="AA13" s="11">
-        <v>1365</v>
+        <v>1019</v>
       </c>
       <c r="AB13" s="11">
-        <v>1019</v>
+        <v>1537</v>
       </c>
       <c r="AC13" s="11">
-        <v>1537</v>
+        <v>2306</v>
       </c>
       <c r="AD13" s="11">
-        <v>2306</v>
+        <v>3049</v>
       </c>
       <c r="AE13" s="11">
-        <v>3049</v>
+        <v>2136</v>
       </c>
       <c r="AF13" s="11">
-        <v>2136</v>
+        <v>2369</v>
       </c>
       <c r="AG13" s="11">
-        <v>2369</v>
+        <v>1960</v>
       </c>
       <c r="AH13" s="11">
-        <v>1960</v>
+        <v>1436</v>
       </c>
       <c r="AI13" s="11">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="AK13" s="11">
-        <v>1577</v>
+        <v>2504</v>
       </c>
       <c r="AL13" s="11">
-        <v>2504</v>
+        <v>1691</v>
       </c>
       <c r="AM13" s="11">
-        <v>1691</v>
+        <v>2505</v>
       </c>
       <c r="AN13" s="11">
-        <v>2505</v>
+        <v>2456</v>
       </c>
       <c r="AO13" s="11">
-        <v>2456</v>
+        <v>2964</v>
       </c>
       <c r="AP13" s="11">
-        <v>2964</v>
+        <v>3066</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3066</v>
+        <v>798</v>
       </c>
       <c r="AR13" s="11">
-        <v>798</v>
+        <v>1082</v>
       </c>
       <c r="AS13" s="11">
-        <v>1082</v>
+        <v>1757</v>
       </c>
       <c r="AT13" s="11">
-        <v>1757</v>
+        <v>1184</v>
       </c>
       <c r="AU13" s="11">
-        <v>1184</v>
+        <v>1311</v>
       </c>
       <c r="AV13" s="11">
-        <v>1311</v>
+        <v>1878</v>
       </c>
       <c r="AW13" s="11">
-        <v>1878</v>
+        <v>2432</v>
       </c>
       <c r="AX13" s="11">
-        <v>2432</v>
+        <v>1443</v>
       </c>
       <c r="AY13" s="11">
-        <v>1443</v>
+        <v>851</v>
       </c>
       <c r="AZ13" s="11">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="BA13" s="11">
-        <v>874</v>
+        <v>2430</v>
       </c>
       <c r="BB13" s="11">
-        <v>2430</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2017,77 +2017,77 @@
       <c r="AD15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>60</v>
+      <c r="AE15" s="11">
+        <v>723</v>
       </c>
       <c r="AF15" s="11">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="AG15" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH15" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI15" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ15" s="11">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="AK15" s="11">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AL15" s="11">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="AM15" s="11">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="AN15" s="11">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="AO15" s="11">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AP15" s="11">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="AQ15" s="11">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="AR15" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AS15" s="11">
         <v>159</v>
       </c>
       <c r="AT15" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AU15" s="11">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AV15" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW15" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX15" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY15" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ15" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA15" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB15" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2174,8 +2174,8 @@
       <c r="AD16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE16" s="15" t="s">
-        <v>60</v>
+      <c r="AE16" s="15">
+        <v>0</v>
       </c>
       <c r="AF16" s="15">
         <v>0</v>
@@ -2254,154 +2254,154 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
-        <v>9384</v>
+        <v>10933</v>
       </c>
       <c r="F17" s="17">
-        <v>10933</v>
+        <v>12500</v>
       </c>
       <c r="G17" s="17">
-        <v>12500</v>
+        <v>9212</v>
       </c>
       <c r="H17" s="17">
-        <v>9212</v>
+        <v>7675</v>
       </c>
       <c r="I17" s="17">
-        <v>7675</v>
+        <v>13520</v>
       </c>
       <c r="J17" s="17">
-        <v>13520</v>
+        <v>3108</v>
       </c>
       <c r="K17" s="17">
-        <v>3108</v>
+        <v>10171</v>
       </c>
       <c r="L17" s="17">
-        <v>10171</v>
+        <v>8323</v>
       </c>
       <c r="M17" s="17">
-        <v>8323</v>
+        <v>14661</v>
       </c>
       <c r="N17" s="17">
-        <v>14661</v>
+        <v>12127</v>
       </c>
       <c r="O17" s="17">
-        <v>12127</v>
+        <v>13001</v>
       </c>
       <c r="P17" s="17">
-        <v>13001</v>
+        <v>9344</v>
       </c>
       <c r="Q17" s="17">
-        <v>9344</v>
+        <v>10532</v>
       </c>
       <c r="R17" s="17">
-        <v>10532</v>
+        <v>14790</v>
       </c>
       <c r="S17" s="17">
-        <v>14790</v>
+        <v>10157</v>
       </c>
       <c r="T17" s="17">
-        <v>10157</v>
+        <v>8949</v>
       </c>
       <c r="U17" s="17">
-        <v>8949</v>
+        <v>10932</v>
       </c>
       <c r="V17" s="17">
-        <v>10932</v>
+        <v>5450</v>
       </c>
       <c r="W17" s="17">
-        <v>5450</v>
+        <v>11787</v>
       </c>
       <c r="X17" s="17">
-        <v>11787</v>
+        <v>11005</v>
       </c>
       <c r="Y17" s="17">
-        <v>11005</v>
+        <v>14728</v>
       </c>
       <c r="Z17" s="17">
-        <v>14728</v>
+        <v>6941</v>
       </c>
       <c r="AA17" s="17">
-        <v>6941</v>
+        <v>9222</v>
       </c>
       <c r="AB17" s="17">
-        <v>9222</v>
+        <v>9341</v>
       </c>
       <c r="AC17" s="17">
-        <v>9341</v>
+        <v>13224</v>
       </c>
       <c r="AD17" s="17">
-        <v>13224</v>
+        <v>16279</v>
       </c>
       <c r="AE17" s="17">
-        <v>16279</v>
+        <v>9169</v>
       </c>
       <c r="AF17" s="17">
-        <v>9169</v>
+        <v>10318</v>
       </c>
       <c r="AG17" s="17">
-        <v>10318</v>
+        <v>11191</v>
       </c>
       <c r="AH17" s="17">
-        <v>11191</v>
+        <v>7123</v>
       </c>
       <c r="AI17" s="17">
-        <v>7123</v>
+        <v>8591</v>
       </c>
       <c r="AJ17" s="17">
-        <v>8591</v>
+        <v>10907</v>
       </c>
       <c r="AK17" s="17">
-        <v>10907</v>
+        <v>12452</v>
       </c>
       <c r="AL17" s="17">
-        <v>12452</v>
+        <v>9850</v>
       </c>
       <c r="AM17" s="17">
-        <v>9850</v>
+        <v>13024</v>
       </c>
       <c r="AN17" s="17">
-        <v>13024</v>
+        <v>12146</v>
       </c>
       <c r="AO17" s="17">
-        <v>12146</v>
+        <v>14714</v>
       </c>
       <c r="AP17" s="17">
-        <v>14714</v>
+        <v>16910</v>
       </c>
       <c r="AQ17" s="17">
-        <v>16910</v>
+        <v>4299</v>
       </c>
       <c r="AR17" s="17">
-        <v>4299</v>
+        <v>5117</v>
       </c>
       <c r="AS17" s="17">
-        <v>5117</v>
+        <v>10485</v>
       </c>
       <c r="AT17" s="17">
-        <v>10485</v>
+        <v>6019</v>
       </c>
       <c r="AU17" s="17">
-        <v>6019</v>
+        <v>7166</v>
       </c>
       <c r="AV17" s="17">
-        <v>7166</v>
+        <v>9019</v>
       </c>
       <c r="AW17" s="17">
-        <v>9019</v>
+        <v>10793</v>
       </c>
       <c r="AX17" s="17">
-        <v>10793</v>
+        <v>11093</v>
       </c>
       <c r="AY17" s="17">
-        <v>11093</v>
+        <v>8847</v>
       </c>
       <c r="AZ17" s="17">
-        <v>8847</v>
+        <v>8049</v>
       </c>
       <c r="BA17" s="17">
-        <v>8049</v>
+        <v>10683</v>
       </c>
       <c r="BB17" s="17">
-        <v>10684</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2847,154 +2847,154 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>3021</v>
+        <v>3060</v>
       </c>
       <c r="F24" s="11">
-        <v>3060</v>
+        <v>3812</v>
       </c>
       <c r="G24" s="11">
-        <v>3812</v>
+        <v>2602</v>
       </c>
       <c r="H24" s="11">
-        <v>2602</v>
+        <v>3047</v>
       </c>
       <c r="I24" s="11">
-        <v>3047</v>
+        <v>4992</v>
       </c>
       <c r="J24" s="11">
-        <v>4992</v>
+        <v>916</v>
       </c>
       <c r="K24" s="11">
-        <v>916</v>
+        <v>4470</v>
       </c>
       <c r="L24" s="11">
-        <v>4470</v>
+        <v>1719</v>
       </c>
       <c r="M24" s="11">
-        <v>1719</v>
+        <v>3093</v>
       </c>
       <c r="N24" s="11">
-        <v>3093</v>
+        <v>3603</v>
       </c>
       <c r="O24" s="11">
-        <v>3603</v>
+        <v>3867</v>
       </c>
       <c r="P24" s="11">
-        <v>3867</v>
+        <v>3374</v>
       </c>
       <c r="Q24" s="11">
-        <v>3374</v>
+        <v>3103</v>
       </c>
       <c r="R24" s="11">
-        <v>3103</v>
+        <v>4932</v>
       </c>
       <c r="S24" s="11">
-        <v>4932</v>
+        <v>2917</v>
       </c>
       <c r="T24" s="11">
-        <v>2917</v>
+        <v>2512</v>
       </c>
       <c r="U24" s="11">
-        <v>2512</v>
+        <v>3183</v>
       </c>
       <c r="V24" s="11">
-        <v>3183</v>
+        <v>1110</v>
       </c>
       <c r="W24" s="11">
-        <v>1110</v>
+        <v>3447</v>
       </c>
       <c r="X24" s="11">
-        <v>3447</v>
+        <v>4081</v>
       </c>
       <c r="Y24" s="11">
-        <v>4081</v>
+        <v>4502</v>
       </c>
       <c r="Z24" s="11">
-        <v>4502</v>
+        <v>2255</v>
       </c>
       <c r="AA24" s="11">
-        <v>2255</v>
+        <v>3886</v>
       </c>
       <c r="AB24" s="11">
-        <v>3886</v>
+        <v>3844</v>
       </c>
       <c r="AC24" s="11">
-        <v>3844</v>
+        <v>4182</v>
       </c>
       <c r="AD24" s="11">
-        <v>4182</v>
+        <v>3997</v>
       </c>
       <c r="AE24" s="11">
-        <v>3997</v>
+        <v>1935</v>
       </c>
       <c r="AF24" s="11">
-        <v>1935</v>
+        <v>2792</v>
       </c>
       <c r="AG24" s="11">
-        <v>2792</v>
+        <v>3041</v>
       </c>
       <c r="AH24" s="11">
-        <v>3041</v>
+        <v>1663</v>
       </c>
       <c r="AI24" s="11">
-        <v>1663</v>
+        <v>2418</v>
       </c>
       <c r="AJ24" s="11">
-        <v>2418</v>
+        <v>3552</v>
       </c>
       <c r="AK24" s="11">
-        <v>3552</v>
+        <v>2560</v>
       </c>
       <c r="AL24" s="11">
-        <v>2560</v>
+        <v>2303</v>
       </c>
       <c r="AM24" s="11">
-        <v>2303</v>
+        <v>3252</v>
       </c>
       <c r="AN24" s="11">
-        <v>3252</v>
+        <v>3209</v>
       </c>
       <c r="AO24" s="11">
-        <v>3209</v>
+        <v>3911</v>
       </c>
       <c r="AP24" s="11">
-        <v>3911</v>
+        <v>4251</v>
       </c>
       <c r="AQ24" s="11">
-        <v>4251</v>
+        <v>1080</v>
       </c>
       <c r="AR24" s="11">
-        <v>1080</v>
+        <v>1748</v>
       </c>
       <c r="AS24" s="11">
-        <v>1748</v>
+        <v>3299</v>
       </c>
       <c r="AT24" s="11">
-        <v>3299</v>
+        <v>1396</v>
       </c>
       <c r="AU24" s="11">
-        <v>1396</v>
+        <v>1708</v>
       </c>
       <c r="AV24" s="11">
-        <v>1708</v>
+        <v>840</v>
       </c>
       <c r="AW24" s="11">
-        <v>840</v>
+        <v>1449</v>
       </c>
       <c r="AX24" s="11">
-        <v>1449</v>
+        <v>2580</v>
       </c>
       <c r="AY24" s="11">
-        <v>2580</v>
+        <v>1412</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1412</v>
+        <v>1174</v>
       </c>
       <c r="BA24" s="11">
-        <v>1174</v>
+        <v>-685</v>
       </c>
       <c r="BB24" s="11">
-        <v>5240</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3006,154 +3006,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>3557</v>
+        <v>6308</v>
       </c>
       <c r="F25" s="13">
-        <v>6308</v>
+        <v>6958</v>
       </c>
       <c r="G25" s="13">
-        <v>6958</v>
+        <v>4217</v>
       </c>
       <c r="H25" s="13">
-        <v>4217</v>
+        <v>4374</v>
       </c>
       <c r="I25" s="13">
-        <v>4374</v>
+        <v>7182</v>
       </c>
       <c r="J25" s="13">
-        <v>7182</v>
+        <v>1224</v>
       </c>
       <c r="K25" s="13">
-        <v>1224</v>
+        <v>3402</v>
       </c>
       <c r="L25" s="13">
-        <v>3402</v>
+        <v>6049</v>
       </c>
       <c r="M25" s="13">
-        <v>6049</v>
+        <v>6809</v>
       </c>
       <c r="N25" s="13">
-        <v>6809</v>
+        <v>8158</v>
       </c>
       <c r="O25" s="13">
-        <v>8158</v>
+        <v>7507</v>
       </c>
       <c r="P25" s="13">
-        <v>7507</v>
+        <v>3009</v>
       </c>
       <c r="Q25" s="13">
-        <v>3009</v>
+        <v>4519</v>
       </c>
       <c r="R25" s="13">
-        <v>4519</v>
+        <v>8669</v>
       </c>
       <c r="S25" s="13">
-        <v>8669</v>
+        <v>2729</v>
       </c>
       <c r="T25" s="13">
-        <v>2729</v>
+        <v>5070</v>
       </c>
       <c r="U25" s="13">
-        <v>5070</v>
+        <v>7654</v>
       </c>
       <c r="V25" s="13">
-        <v>7654</v>
+        <v>1830</v>
       </c>
       <c r="W25" s="13">
-        <v>1830</v>
+        <v>5662</v>
       </c>
       <c r="X25" s="13">
-        <v>5662</v>
+        <v>6759</v>
       </c>
       <c r="Y25" s="13">
-        <v>6759</v>
+        <v>6702</v>
       </c>
       <c r="Z25" s="13">
-        <v>6702</v>
+        <v>5166</v>
       </c>
       <c r="AA25" s="13">
-        <v>5166</v>
+        <v>3470</v>
       </c>
       <c r="AB25" s="13">
-        <v>3470</v>
+        <v>4264</v>
       </c>
       <c r="AC25" s="13">
-        <v>4264</v>
+        <v>5846</v>
       </c>
       <c r="AD25" s="13">
-        <v>5846</v>
+        <v>9805</v>
       </c>
       <c r="AE25" s="13">
-        <v>9805</v>
+        <v>2544</v>
       </c>
       <c r="AF25" s="13">
-        <v>2544</v>
+        <v>5444</v>
       </c>
       <c r="AG25" s="13">
-        <v>5444</v>
+        <v>7015</v>
       </c>
       <c r="AH25" s="13">
-        <v>7015</v>
+        <v>1651</v>
       </c>
       <c r="AI25" s="13">
-        <v>1651</v>
+        <v>5856</v>
       </c>
       <c r="AJ25" s="13">
-        <v>5856</v>
+        <v>4424</v>
       </c>
       <c r="AK25" s="13">
-        <v>4424</v>
+        <v>5732</v>
       </c>
       <c r="AL25" s="13">
-        <v>5732</v>
+        <v>5204</v>
       </c>
       <c r="AM25" s="13">
-        <v>5204</v>
+        <v>7437</v>
       </c>
       <c r="AN25" s="13">
-        <v>7437</v>
+        <v>6593</v>
       </c>
       <c r="AO25" s="13">
-        <v>6593</v>
+        <v>7107</v>
       </c>
       <c r="AP25" s="13">
-        <v>7107</v>
+        <v>8173</v>
       </c>
       <c r="AQ25" s="13">
-        <v>8173</v>
+        <v>834</v>
       </c>
       <c r="AR25" s="13">
-        <v>834</v>
+        <v>3457</v>
       </c>
       <c r="AS25" s="13">
-        <v>3457</v>
+        <v>5105</v>
       </c>
       <c r="AT25" s="13">
-        <v>5105</v>
+        <v>4373</v>
       </c>
       <c r="AU25" s="13">
-        <v>4373</v>
+        <v>5731</v>
       </c>
       <c r="AV25" s="13">
-        <v>5731</v>
+        <v>4554</v>
       </c>
       <c r="AW25" s="13">
-        <v>4554</v>
+        <v>6563</v>
       </c>
       <c r="AX25" s="13">
-        <v>6563</v>
+        <v>6856</v>
       </c>
       <c r="AY25" s="13">
-        <v>6856</v>
+        <v>6853</v>
       </c>
       <c r="AZ25" s="13">
-        <v>6853</v>
+        <v>5778</v>
       </c>
       <c r="BA25" s="13">
-        <v>5778</v>
+        <v>7813</v>
       </c>
       <c r="BB25" s="13">
-        <v>1889</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3165,154 +3165,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1025</v>
+        <v>1664</v>
       </c>
       <c r="F26" s="11">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="G26" s="11">
-        <v>1697</v>
+        <v>2015</v>
       </c>
       <c r="H26" s="11">
-        <v>2015</v>
+        <v>1188</v>
       </c>
       <c r="I26" s="11">
-        <v>1188</v>
+        <v>2485</v>
       </c>
       <c r="J26" s="11">
-        <v>2485</v>
+        <v>20</v>
       </c>
       <c r="K26" s="11">
-        <v>20</v>
+        <v>1207</v>
       </c>
       <c r="L26" s="11">
-        <v>1207</v>
+        <v>1320</v>
       </c>
       <c r="M26" s="11">
-        <v>1320</v>
+        <v>2465</v>
       </c>
       <c r="N26" s="11">
-        <v>2465</v>
+        <v>2117</v>
       </c>
       <c r="O26" s="11">
-        <v>2117</v>
+        <v>1838</v>
       </c>
       <c r="P26" s="11">
-        <v>1838</v>
+        <v>1083</v>
       </c>
       <c r="Q26" s="11">
-        <v>1083</v>
+        <v>2875</v>
       </c>
       <c r="R26" s="11">
-        <v>2875</v>
+        <v>3198</v>
       </c>
       <c r="S26" s="11">
-        <v>3198</v>
+        <v>1264</v>
       </c>
       <c r="T26" s="11">
-        <v>1264</v>
+        <v>2031</v>
       </c>
       <c r="U26" s="11">
-        <v>2031</v>
+        <v>2268</v>
       </c>
       <c r="V26" s="11">
-        <v>2268</v>
+        <v>72</v>
       </c>
       <c r="W26" s="11">
-        <v>72</v>
+        <v>2549</v>
       </c>
       <c r="X26" s="11">
-        <v>2549</v>
+        <v>2295</v>
       </c>
       <c r="Y26" s="11">
-        <v>2295</v>
+        <v>2239</v>
       </c>
       <c r="Z26" s="11">
-        <v>2239</v>
+        <v>1490</v>
       </c>
       <c r="AA26" s="11">
-        <v>1490</v>
+        <v>1103</v>
       </c>
       <c r="AB26" s="11">
-        <v>1103</v>
+        <v>1275</v>
       </c>
       <c r="AC26" s="11">
-        <v>1275</v>
+        <v>2185</v>
       </c>
       <c r="AD26" s="11">
-        <v>2185</v>
+        <v>3634</v>
       </c>
       <c r="AE26" s="11">
-        <v>3634</v>
+        <v>1292</v>
       </c>
       <c r="AF26" s="11">
-        <v>1292</v>
+        <v>2194</v>
       </c>
       <c r="AG26" s="11">
-        <v>2194</v>
+        <v>2873</v>
       </c>
       <c r="AH26" s="11">
-        <v>2873</v>
+        <v>687</v>
       </c>
       <c r="AI26" s="11">
-        <v>687</v>
+        <v>1496</v>
       </c>
       <c r="AJ26" s="11">
-        <v>1496</v>
+        <v>2061</v>
       </c>
       <c r="AK26" s="11">
-        <v>2061</v>
+        <v>2109</v>
       </c>
       <c r="AL26" s="11">
-        <v>2109</v>
+        <v>1699</v>
       </c>
       <c r="AM26" s="11">
-        <v>1699</v>
+        <v>2795</v>
       </c>
       <c r="AN26" s="11">
-        <v>2795</v>
+        <v>2434</v>
       </c>
       <c r="AO26" s="11">
-        <v>2434</v>
+        <v>2759</v>
       </c>
       <c r="AP26" s="11">
-        <v>2759</v>
+        <v>2477</v>
       </c>
       <c r="AQ26" s="11">
-        <v>2477</v>
+        <v>949</v>
       </c>
       <c r="AR26" s="11">
-        <v>949</v>
+        <v>817</v>
       </c>
       <c r="AS26" s="11">
-        <v>817</v>
+        <v>1927</v>
       </c>
       <c r="AT26" s="11">
-        <v>1927</v>
+        <v>1126</v>
       </c>
       <c r="AU26" s="11">
-        <v>1126</v>
+        <v>1958</v>
       </c>
       <c r="AV26" s="11">
-        <v>1958</v>
+        <v>1009</v>
       </c>
       <c r="AW26" s="11">
-        <v>1009</v>
+        <v>2382</v>
       </c>
       <c r="AX26" s="11">
-        <v>2382</v>
+        <v>1752</v>
       </c>
       <c r="AY26" s="11">
-        <v>1752</v>
+        <v>850</v>
       </c>
       <c r="AZ26" s="11">
-        <v>850</v>
+        <v>1244</v>
       </c>
       <c r="BA26" s="11">
-        <v>1244</v>
+        <v>2196</v>
       </c>
       <c r="BB26" s="11">
-        <v>2196</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3458,77 +3458,77 @@
       <c r="AD28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE28" s="11" t="s">
-        <v>60</v>
+      <c r="AE28" s="11">
+        <v>722</v>
       </c>
       <c r="AF28" s="11">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG28" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH28" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI28" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ28" s="11">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK28" s="11">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL28" s="11">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM28" s="11">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN28" s="11">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO28" s="11">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP28" s="11">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ28" s="11">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR28" s="11">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS28" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT28" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU28" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV28" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW28" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX28" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY28" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ28" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA28" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB28" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3615,77 +3615,77 @@
       <c r="AD29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE29" s="15" t="s">
-        <v>60</v>
+      <c r="AE29" s="15">
+        <v>722</v>
       </c>
       <c r="AF29" s="15">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG29" s="15">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH29" s="15">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI29" s="15">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ29" s="15">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK29" s="15">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL29" s="15">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM29" s="15">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN29" s="15">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO29" s="15">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP29" s="15">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ29" s="15">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR29" s="15">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS29" s="15">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT29" s="15">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU29" s="15">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV29" s="15">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW29" s="15">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX29" s="15">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY29" s="15">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ29" s="15">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA29" s="15">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB29" s="15">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3829,8 +3829,8 @@
       <c r="AD31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AE31" s="17" t="s">
-        <v>60</v>
+      <c r="AE31" s="17">
+        <v>0</v>
       </c>
       <c r="AF31" s="17">
         <v>0</v>
@@ -3909,154 +3909,154 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>7603</v>
+        <v>11032</v>
       </c>
       <c r="F32" s="15">
-        <v>11032</v>
+        <v>12467</v>
       </c>
       <c r="G32" s="15">
-        <v>12467</v>
+        <v>8834</v>
       </c>
       <c r="H32" s="15">
-        <v>8834</v>
+        <v>8609</v>
       </c>
       <c r="I32" s="15">
-        <v>8609</v>
+        <v>14659</v>
       </c>
       <c r="J32" s="15">
-        <v>14659</v>
+        <v>2160</v>
       </c>
       <c r="K32" s="15">
-        <v>2160</v>
+        <v>9079</v>
       </c>
       <c r="L32" s="15">
-        <v>9079</v>
+        <v>9088</v>
       </c>
       <c r="M32" s="15">
-        <v>9088</v>
+        <v>12367</v>
       </c>
       <c r="N32" s="15">
-        <v>12367</v>
+        <v>13878</v>
       </c>
       <c r="O32" s="15">
-        <v>13878</v>
+        <v>13212</v>
       </c>
       <c r="P32" s="15">
-        <v>13212</v>
+        <v>7466</v>
       </c>
       <c r="Q32" s="15">
-        <v>7466</v>
+        <v>10497</v>
       </c>
       <c r="R32" s="15">
-        <v>10497</v>
+        <v>16799</v>
       </c>
       <c r="S32" s="15">
-        <v>16799</v>
+        <v>6910</v>
       </c>
       <c r="T32" s="15">
-        <v>6910</v>
+        <v>9613</v>
       </c>
       <c r="U32" s="15">
-        <v>9613</v>
+        <v>13105</v>
       </c>
       <c r="V32" s="15">
-        <v>13105</v>
+        <v>3012</v>
       </c>
       <c r="W32" s="15">
-        <v>3012</v>
+        <v>11658</v>
       </c>
       <c r="X32" s="15">
-        <v>11658</v>
+        <v>13135</v>
       </c>
       <c r="Y32" s="15">
-        <v>13135</v>
+        <v>13443</v>
       </c>
       <c r="Z32" s="15">
-        <v>13443</v>
+        <v>8911</v>
       </c>
       <c r="AA32" s="15">
-        <v>8911</v>
+        <v>8459</v>
       </c>
       <c r="AB32" s="15">
-        <v>8459</v>
+        <v>9383</v>
       </c>
       <c r="AC32" s="15">
-        <v>9383</v>
+        <v>12213</v>
       </c>
       <c r="AD32" s="15">
-        <v>12213</v>
+        <v>17436</v>
       </c>
       <c r="AE32" s="15">
-        <v>17436</v>
+        <v>6493</v>
       </c>
       <c r="AF32" s="15">
-        <v>6493</v>
+        <v>11077</v>
       </c>
       <c r="AG32" s="15">
-        <v>11077</v>
+        <v>13765</v>
       </c>
       <c r="AH32" s="15">
-        <v>13765</v>
+        <v>4253</v>
       </c>
       <c r="AI32" s="15">
-        <v>4253</v>
+        <v>10522</v>
       </c>
       <c r="AJ32" s="15">
-        <v>10522</v>
+        <v>10590</v>
       </c>
       <c r="AK32" s="15">
-        <v>10590</v>
+        <v>10802</v>
       </c>
       <c r="AL32" s="15">
-        <v>10802</v>
+        <v>9709</v>
       </c>
       <c r="AM32" s="15">
-        <v>9709</v>
+        <v>14059</v>
       </c>
       <c r="AN32" s="15">
-        <v>14059</v>
+        <v>12588</v>
       </c>
       <c r="AO32" s="15">
-        <v>12588</v>
+        <v>13880</v>
       </c>
       <c r="AP32" s="15">
-        <v>13880</v>
+        <v>15805</v>
       </c>
       <c r="AQ32" s="15">
-        <v>15805</v>
+        <v>3392</v>
       </c>
       <c r="AR32" s="15">
-        <v>3392</v>
+        <v>6180</v>
       </c>
       <c r="AS32" s="15">
-        <v>6180</v>
+        <v>10490</v>
       </c>
       <c r="AT32" s="15">
-        <v>10490</v>
+        <v>6973</v>
       </c>
       <c r="AU32" s="15">
-        <v>6973</v>
+        <v>9611</v>
       </c>
       <c r="AV32" s="15">
-        <v>9611</v>
+        <v>6629</v>
       </c>
       <c r="AW32" s="15">
-        <v>6629</v>
+        <v>10638</v>
       </c>
       <c r="AX32" s="15">
-        <v>10638</v>
+        <v>11344</v>
       </c>
       <c r="AY32" s="15">
-        <v>11344</v>
+        <v>9323</v>
       </c>
       <c r="AZ32" s="15">
-        <v>9323</v>
+        <v>8469</v>
       </c>
       <c r="BA32" s="15">
-        <v>8469</v>
+        <v>9621</v>
       </c>
       <c r="BB32" s="15">
-        <v>9622</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4502,154 +4502,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>207476</v>
+        <v>245417</v>
       </c>
       <c r="F39" s="11">
-        <v>245417</v>
+        <v>292592</v>
       </c>
       <c r="G39" s="11">
-        <v>292592</v>
+        <v>133072</v>
       </c>
       <c r="H39" s="11">
-        <v>133072</v>
+        <v>210931</v>
       </c>
       <c r="I39" s="11">
-        <v>210931</v>
+        <v>367879</v>
       </c>
       <c r="J39" s="11">
-        <v>367879</v>
+        <v>72141</v>
       </c>
       <c r="K39" s="11">
-        <v>72141</v>
+        <v>338087</v>
       </c>
       <c r="L39" s="11">
-        <v>338087</v>
+        <v>57812</v>
       </c>
       <c r="M39" s="11">
-        <v>57812</v>
+        <v>219935</v>
       </c>
       <c r="N39" s="11">
-        <v>219935</v>
+        <v>299689</v>
       </c>
       <c r="O39" s="11">
-        <v>299689</v>
+        <v>308897</v>
       </c>
       <c r="P39" s="11">
-        <v>308897</v>
+        <v>269021</v>
       </c>
       <c r="Q39" s="11">
-        <v>269021</v>
+        <v>277453</v>
       </c>
       <c r="R39" s="11">
-        <v>277453</v>
+        <v>431209</v>
       </c>
       <c r="S39" s="11">
-        <v>431209</v>
+        <v>222159</v>
       </c>
       <c r="T39" s="11">
-        <v>222159</v>
+        <v>216370</v>
       </c>
       <c r="U39" s="11">
-        <v>216370</v>
+        <v>275538</v>
       </c>
       <c r="V39" s="11">
-        <v>275538</v>
+        <v>135971</v>
       </c>
       <c r="W39" s="11">
-        <v>135971</v>
+        <v>405988</v>
       </c>
       <c r="X39" s="11">
-        <v>405988</v>
+        <v>365928</v>
       </c>
       <c r="Y39" s="11">
-        <v>365928</v>
+        <v>530198</v>
       </c>
       <c r="Z39" s="11">
-        <v>530198</v>
+        <v>300830</v>
       </c>
       <c r="AA39" s="11">
-        <v>300830</v>
+        <v>529308</v>
       </c>
       <c r="AB39" s="11">
-        <v>529308</v>
+        <v>581230</v>
       </c>
       <c r="AC39" s="11">
-        <v>581230</v>
+        <v>658525</v>
       </c>
       <c r="AD39" s="11">
-        <v>658525</v>
+        <v>639476</v>
       </c>
       <c r="AE39" s="11">
-        <v>639476</v>
+        <v>476606</v>
       </c>
       <c r="AF39" s="11">
-        <v>476606</v>
+        <v>650741</v>
       </c>
       <c r="AG39" s="11">
-        <v>650741</v>
+        <v>655981</v>
       </c>
       <c r="AH39" s="11">
-        <v>655981</v>
+        <v>414079</v>
       </c>
       <c r="AI39" s="11">
-        <v>414079</v>
+        <v>541580</v>
       </c>
       <c r="AJ39" s="11">
-        <v>541580</v>
+        <v>854410</v>
       </c>
       <c r="AK39" s="11">
-        <v>854410</v>
+        <v>690500</v>
       </c>
       <c r="AL39" s="11">
-        <v>690500</v>
+        <v>636390</v>
       </c>
       <c r="AM39" s="11">
-        <v>636390</v>
+        <v>933279</v>
       </c>
       <c r="AN39" s="11">
-        <v>933279</v>
+        <v>931503</v>
       </c>
       <c r="AO39" s="11">
-        <v>931503</v>
+        <v>1119592</v>
       </c>
       <c r="AP39" s="11">
-        <v>1119592</v>
+        <v>1092906</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1092906</v>
+        <v>314066</v>
       </c>
       <c r="AR39" s="11">
-        <v>314066</v>
+        <v>555546</v>
       </c>
       <c r="AS39" s="11">
-        <v>555546</v>
+        <v>931846</v>
       </c>
       <c r="AT39" s="11">
-        <v>931846</v>
+        <v>465181</v>
       </c>
       <c r="AU39" s="11">
-        <v>465181</v>
+        <v>586997</v>
       </c>
       <c r="AV39" s="11">
-        <v>586997</v>
+        <v>339359</v>
       </c>
       <c r="AW39" s="11">
-        <v>339359</v>
+        <v>555212</v>
       </c>
       <c r="AX39" s="11">
-        <v>555212</v>
+        <v>1070743</v>
       </c>
       <c r="AY39" s="11">
-        <v>1070743</v>
+        <v>526539</v>
       </c>
       <c r="AZ39" s="11">
-        <v>526539</v>
+        <v>435277</v>
       </c>
       <c r="BA39" s="11">
-        <v>435277</v>
+        <v>742413</v>
       </c>
       <c r="BB39" s="11">
-        <v>845907</v>
+        <v>563681</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4661,154 +4661,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>177421</v>
+        <v>335341</v>
       </c>
       <c r="F40" s="13">
-        <v>335341</v>
+        <v>379752</v>
       </c>
       <c r="G40" s="13">
-        <v>379752</v>
+        <v>228207</v>
       </c>
       <c r="H40" s="13">
-        <v>228207</v>
+        <v>244593</v>
       </c>
       <c r="I40" s="13">
-        <v>244593</v>
+        <v>451785</v>
       </c>
       <c r="J40" s="13">
-        <v>451785</v>
+        <v>72239</v>
       </c>
       <c r="K40" s="13">
-        <v>72239</v>
+        <v>167670</v>
       </c>
       <c r="L40" s="13">
-        <v>167670</v>
+        <v>385756</v>
       </c>
       <c r="M40" s="13">
-        <v>385756</v>
+        <v>462062</v>
       </c>
       <c r="N40" s="13">
-        <v>462062</v>
+        <v>580165</v>
       </c>
       <c r="O40" s="13">
-        <v>580165</v>
+        <v>503247</v>
       </c>
       <c r="P40" s="13">
-        <v>503247</v>
+        <v>160308</v>
       </c>
       <c r="Q40" s="13">
-        <v>160308</v>
+        <v>281087</v>
       </c>
       <c r="R40" s="13">
-        <v>281087</v>
+        <v>435073</v>
       </c>
       <c r="S40" s="13">
-        <v>435073</v>
+        <v>176918</v>
       </c>
       <c r="T40" s="13">
-        <v>176918</v>
+        <v>346407</v>
       </c>
       <c r="U40" s="13">
-        <v>346407</v>
+        <v>535075</v>
       </c>
       <c r="V40" s="13">
-        <v>535075</v>
+        <v>78738</v>
       </c>
       <c r="W40" s="13">
-        <v>78738</v>
+        <v>346981</v>
       </c>
       <c r="X40" s="13">
-        <v>346981</v>
+        <v>409756</v>
       </c>
       <c r="Y40" s="13">
-        <v>409756</v>
+        <v>474855</v>
       </c>
       <c r="Z40" s="13">
-        <v>474855</v>
+        <v>462286</v>
       </c>
       <c r="AA40" s="13">
-        <v>462286</v>
+        <v>270637</v>
       </c>
       <c r="AB40" s="13">
-        <v>270637</v>
+        <v>400262</v>
       </c>
       <c r="AC40" s="13">
-        <v>400262</v>
+        <v>653440</v>
       </c>
       <c r="AD40" s="13">
-        <v>653440</v>
+        <v>1101063</v>
       </c>
       <c r="AE40" s="13">
-        <v>1101063</v>
+        <v>272693</v>
       </c>
       <c r="AF40" s="13">
-        <v>272693</v>
+        <v>585479</v>
       </c>
       <c r="AG40" s="13">
-        <v>585479</v>
+        <v>842662</v>
       </c>
       <c r="AH40" s="13">
-        <v>842662</v>
+        <v>136451</v>
       </c>
       <c r="AI40" s="13">
-        <v>136451</v>
+        <v>656903</v>
       </c>
       <c r="AJ40" s="13">
-        <v>656903</v>
+        <v>399786</v>
       </c>
       <c r="AK40" s="13">
-        <v>399786</v>
+        <v>838949</v>
       </c>
       <c r="AL40" s="13">
-        <v>838949</v>
+        <v>798539</v>
       </c>
       <c r="AM40" s="13">
-        <v>798539</v>
+        <v>1051164</v>
       </c>
       <c r="AN40" s="13">
-        <v>1051164</v>
+        <v>1026145</v>
       </c>
       <c r="AO40" s="13">
-        <v>1026145</v>
+        <v>1030708</v>
       </c>
       <c r="AP40" s="13">
-        <v>1030708</v>
+        <v>1109659</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1109659</v>
+        <v>116449</v>
       </c>
       <c r="AR40" s="13">
-        <v>116449</v>
+        <v>491857</v>
       </c>
       <c r="AS40" s="13">
-        <v>491857</v>
+        <v>690648</v>
       </c>
       <c r="AT40" s="13">
-        <v>690648</v>
+        <v>516216</v>
       </c>
       <c r="AU40" s="13">
-        <v>516216</v>
+        <v>584647</v>
       </c>
       <c r="AV40" s="13">
-        <v>584647</v>
+        <v>590159</v>
       </c>
       <c r="AW40" s="13">
-        <v>590159</v>
+        <v>670050</v>
       </c>
       <c r="AX40" s="13">
-        <v>839468</v>
+        <v>826353</v>
       </c>
       <c r="AY40" s="13">
-        <v>826353</v>
+        <v>943825</v>
       </c>
       <c r="AZ40" s="13">
-        <v>943825</v>
+        <v>881573</v>
       </c>
       <c r="BA40" s="13">
-        <v>881573</v>
+        <v>845908</v>
       </c>
       <c r="BB40" s="13">
-        <v>742413</v>
+        <v>910134</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4820,154 +4820,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>126978</v>
+        <v>212831</v>
       </c>
       <c r="F41" s="11">
-        <v>212831</v>
+        <v>225665</v>
       </c>
       <c r="G41" s="11">
-        <v>225665</v>
+        <v>260803</v>
       </c>
       <c r="H41" s="11">
-        <v>260803</v>
+        <v>153502</v>
       </c>
       <c r="I41" s="11">
-        <v>153502</v>
+        <v>319496</v>
       </c>
       <c r="J41" s="11">
-        <v>319496</v>
+        <v>2739</v>
       </c>
       <c r="K41" s="11">
-        <v>2739</v>
+        <v>150665</v>
       </c>
       <c r="L41" s="11">
-        <v>150665</v>
+        <v>186450</v>
       </c>
       <c r="M41" s="11">
-        <v>186450</v>
+        <v>385045</v>
       </c>
       <c r="N41" s="11">
-        <v>385045</v>
+        <v>336596</v>
       </c>
       <c r="O41" s="11">
-        <v>336596</v>
+        <v>288015</v>
       </c>
       <c r="P41" s="11">
-        <v>288015</v>
+        <v>173700</v>
       </c>
       <c r="Q41" s="11">
-        <v>173700</v>
+        <v>468445</v>
       </c>
       <c r="R41" s="11">
-        <v>468445</v>
+        <v>517421</v>
       </c>
       <c r="S41" s="11">
-        <v>517421</v>
+        <v>208648</v>
       </c>
       <c r="T41" s="11">
-        <v>208648</v>
+        <v>330834</v>
       </c>
       <c r="U41" s="11">
-        <v>330834</v>
+        <v>356881</v>
       </c>
       <c r="V41" s="11">
-        <v>356881</v>
+        <v>11507</v>
       </c>
       <c r="W41" s="11">
-        <v>11507</v>
+        <v>404418</v>
       </c>
       <c r="X41" s="11">
-        <v>404418</v>
+        <v>340860</v>
       </c>
       <c r="Y41" s="11">
-        <v>340860</v>
+        <v>385627</v>
       </c>
       <c r="Z41" s="11">
-        <v>385627</v>
+        <v>317496</v>
       </c>
       <c r="AA41" s="11">
-        <v>317496</v>
+        <v>229818</v>
       </c>
       <c r="AB41" s="11">
-        <v>229818</v>
+        <v>274023</v>
       </c>
       <c r="AC41" s="11">
-        <v>274023</v>
+        <v>617080</v>
       </c>
       <c r="AD41" s="11">
-        <v>617080</v>
+        <v>978696</v>
       </c>
       <c r="AE41" s="11">
-        <v>978696</v>
+        <v>383315</v>
       </c>
       <c r="AF41" s="11">
-        <v>383315</v>
+        <v>651915</v>
       </c>
       <c r="AG41" s="11">
-        <v>651915</v>
+        <v>855510</v>
       </c>
       <c r="AH41" s="11">
-        <v>855510</v>
+        <v>204053</v>
       </c>
       <c r="AI41" s="11">
-        <v>204053</v>
+        <v>450202</v>
       </c>
       <c r="AJ41" s="11">
-        <v>450202</v>
+        <v>669426</v>
       </c>
       <c r="AK41" s="11">
-        <v>669426</v>
+        <v>780093</v>
       </c>
       <c r="AL41" s="11">
-        <v>780093</v>
+        <v>613291</v>
       </c>
       <c r="AM41" s="11">
-        <v>613291</v>
+        <v>1036461</v>
       </c>
       <c r="AN41" s="11">
-        <v>1036461</v>
+        <v>892684</v>
       </c>
       <c r="AO41" s="11">
-        <v>892684</v>
+        <v>999753</v>
       </c>
       <c r="AP41" s="11">
-        <v>999753</v>
+        <v>895714</v>
       </c>
       <c r="AQ41" s="11">
-        <v>895714</v>
+        <v>346199</v>
       </c>
       <c r="AR41" s="11">
-        <v>346199</v>
+        <v>300889</v>
       </c>
       <c r="AS41" s="11">
-        <v>300889</v>
+        <v>713310</v>
       </c>
       <c r="AT41" s="11">
-        <v>713310</v>
+        <v>412705</v>
       </c>
       <c r="AU41" s="11">
-        <v>412705</v>
+        <v>723501</v>
       </c>
       <c r="AV41" s="11">
-        <v>723501</v>
+        <v>449699</v>
       </c>
       <c r="AW41" s="11">
-        <v>449699</v>
+        <v>1087993</v>
       </c>
       <c r="AX41" s="11">
-        <v>1087993</v>
+        <v>783911</v>
       </c>
       <c r="AY41" s="11">
-        <v>783911</v>
+        <v>388624</v>
       </c>
       <c r="AZ41" s="11">
-        <v>388624</v>
+        <v>623673</v>
       </c>
       <c r="BA41" s="11">
-        <v>623673</v>
+        <v>1186522</v>
       </c>
       <c r="BB41" s="11">
-        <v>1186522</v>
+        <v>613573</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5113,77 +5113,77 @@
       <c r="AD43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE43" s="11" t="s">
-        <v>60</v>
+      <c r="AE43" s="11">
+        <v>13884</v>
       </c>
       <c r="AF43" s="11">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG43" s="11">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH43" s="11">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI43" s="11">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ43" s="11">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK43" s="11">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL43" s="11">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM43" s="11">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN43" s="11">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO43" s="11">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP43" s="11">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ43" s="11">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR43" s="11">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS43" s="11">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT43" s="11">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU43" s="11">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV43" s="11">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW43" s="11">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX43" s="11">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY43" s="11">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ43" s="11">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA43" s="11">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB43" s="11">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5272,77 +5272,77 @@
       <c r="AD44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE44" s="15" t="s">
-        <v>60</v>
+      <c r="AE44" s="15">
+        <v>13884</v>
       </c>
       <c r="AF44" s="15">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG44" s="15">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH44" s="15">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI44" s="15">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ44" s="15">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK44" s="15">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL44" s="15">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM44" s="15">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN44" s="15">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO44" s="15">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP44" s="15">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ44" s="15">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR44" s="15">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS44" s="15">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT44" s="15">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU44" s="15">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV44" s="15">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW44" s="15">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX44" s="15">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY44" s="15">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ44" s="15">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA44" s="15">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB44" s="15">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5488,8 +5488,8 @@
       <c r="AD46" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AE46" s="17" t="s">
-        <v>60</v>
+      <c r="AE46" s="17">
+        <v>0</v>
       </c>
       <c r="AF46" s="17">
         <v>0</v>
@@ -5704,77 +5704,77 @@
       <c r="AD48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE48" s="11" t="s">
-        <v>60</v>
+      <c r="AE48" s="11">
+        <v>0</v>
       </c>
       <c r="AF48" s="11">
-        <v>-31488</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="11">
-        <v>-56009</v>
+        <v>-170103</v>
       </c>
       <c r="AH48" s="11">
-        <v>-82605</v>
+        <v>-11564</v>
       </c>
       <c r="AI48" s="11">
-        <v>-11564</v>
+        <v>-54416</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-54416</v>
+        <v>-103909</v>
       </c>
       <c r="AK48" s="11">
-        <v>-103909</v>
+        <v>-235607</v>
       </c>
       <c r="AL48" s="11">
-        <v>-235607</v>
+        <v>-161691</v>
       </c>
       <c r="AM48" s="11">
-        <v>-161691</v>
+        <v>-119088</v>
       </c>
       <c r="AN48" s="11">
-        <v>-119088</v>
+        <v>-115277</v>
       </c>
       <c r="AO48" s="11">
-        <v>-115277</v>
+        <v>-112079</v>
       </c>
       <c r="AP48" s="11">
-        <v>-112079</v>
+        <v>-204882</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-204882</v>
+        <v>-36995</v>
       </c>
       <c r="AR48" s="11">
-        <v>-36995</v>
+        <v>-45946</v>
       </c>
       <c r="AS48" s="11">
-        <v>-45946</v>
+        <v>-46192</v>
       </c>
       <c r="AT48" s="11">
-        <v>-46192</v>
+        <v>-16286</v>
       </c>
       <c r="AU48" s="11">
-        <v>-16286</v>
+        <v>-37502</v>
       </c>
       <c r="AV48" s="11">
-        <v>-37502</v>
+        <v>-16386</v>
       </c>
       <c r="AW48" s="11">
-        <v>-16386</v>
+        <v>-40513</v>
       </c>
       <c r="AX48" s="11">
-        <v>-40513</v>
+        <v>-35307</v>
       </c>
       <c r="AY48" s="11">
-        <v>-35307</v>
+        <v>-28490</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-28490</v>
+        <v>-37223</v>
       </c>
       <c r="BA48" s="11">
-        <v>-37223</v>
+        <v>-53821</v>
       </c>
       <c r="BB48" s="11">
-        <v>-53821</v>
+        <v>-25696</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5784,154 +5784,154 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>511875</v>
+        <v>793589</v>
       </c>
       <c r="F49" s="15">
-        <v>793589</v>
+        <v>898009</v>
       </c>
       <c r="G49" s="15">
-        <v>898009</v>
+        <v>622082</v>
       </c>
       <c r="H49" s="15">
-        <v>622082</v>
+        <v>609026</v>
       </c>
       <c r="I49" s="15">
-        <v>609026</v>
+        <v>1139160</v>
       </c>
       <c r="J49" s="15">
-        <v>1139160</v>
+        <v>147119</v>
       </c>
       <c r="K49" s="15">
-        <v>147119</v>
+        <v>656422</v>
       </c>
       <c r="L49" s="15">
-        <v>656422</v>
+        <v>630018</v>
       </c>
       <c r="M49" s="15">
-        <v>630018</v>
+        <v>1067042</v>
       </c>
       <c r="N49" s="15">
-        <v>1067042</v>
+        <v>1216450</v>
       </c>
       <c r="O49" s="15">
-        <v>1216450</v>
+        <v>1100159</v>
       </c>
       <c r="P49" s="15">
-        <v>1100159</v>
+        <v>603029</v>
       </c>
       <c r="Q49" s="15">
-        <v>603029</v>
+        <v>1026985</v>
       </c>
       <c r="R49" s="15">
-        <v>1026985</v>
+        <v>1383703</v>
       </c>
       <c r="S49" s="15">
-        <v>1383703</v>
+        <v>607725</v>
       </c>
       <c r="T49" s="15">
-        <v>607725</v>
+        <v>893611</v>
       </c>
       <c r="U49" s="15">
-        <v>893611</v>
+        <v>1167494</v>
       </c>
       <c r="V49" s="15">
-        <v>1167494</v>
+        <v>226216</v>
       </c>
       <c r="W49" s="15">
-        <v>226216</v>
+        <v>1157387</v>
       </c>
       <c r="X49" s="15">
-        <v>1157387</v>
+        <v>1116544</v>
       </c>
       <c r="Y49" s="15">
-        <v>1116544</v>
+        <v>1390680</v>
       </c>
       <c r="Z49" s="15">
-        <v>1390680</v>
+        <v>1080612</v>
       </c>
       <c r="AA49" s="15">
-        <v>1080612</v>
+        <v>1029763</v>
       </c>
       <c r="AB49" s="15">
-        <v>1029763</v>
+        <v>1255515</v>
       </c>
       <c r="AC49" s="15">
-        <v>1255515</v>
+        <v>1929045</v>
       </c>
       <c r="AD49" s="15">
-        <v>1929045</v>
+        <v>2719235</v>
       </c>
       <c r="AE49" s="15">
-        <v>2719235</v>
+        <v>1146498</v>
       </c>
       <c r="AF49" s="15">
-        <v>1115010</v>
+        <v>1900667</v>
       </c>
       <c r="AG49" s="15">
-        <v>1844658</v>
+        <v>2207948</v>
       </c>
       <c r="AH49" s="15">
-        <v>2295446</v>
+        <v>749262</v>
       </c>
       <c r="AI49" s="15">
-        <v>749262</v>
+        <v>1613692</v>
       </c>
       <c r="AJ49" s="15">
-        <v>1613692</v>
+        <v>1833734</v>
       </c>
       <c r="AK49" s="15">
-        <v>1833734</v>
+        <v>2084927</v>
       </c>
       <c r="AL49" s="15">
-        <v>2084927</v>
+        <v>1899594</v>
       </c>
       <c r="AM49" s="15">
-        <v>1899594</v>
+        <v>2917059</v>
       </c>
       <c r="AN49" s="15">
-        <v>2917059</v>
+        <v>2744607</v>
       </c>
       <c r="AO49" s="15">
-        <v>2744607</v>
+        <v>3040704</v>
       </c>
       <c r="AP49" s="15">
-        <v>3040704</v>
+        <v>2917357</v>
       </c>
       <c r="AQ49" s="15">
-        <v>2917357</v>
+        <v>754233</v>
       </c>
       <c r="AR49" s="15">
-        <v>754233</v>
+        <v>1307811</v>
       </c>
       <c r="AS49" s="15">
-        <v>1307811</v>
+        <v>2295082</v>
       </c>
       <c r="AT49" s="15">
-        <v>2295082</v>
+        <v>1380521</v>
       </c>
       <c r="AU49" s="15">
-        <v>1380521</v>
+        <v>1865037</v>
       </c>
       <c r="AV49" s="15">
-        <v>1865037</v>
+        <v>1370626</v>
       </c>
       <c r="AW49" s="15">
-        <v>1370626</v>
+        <v>2281198</v>
       </c>
       <c r="AX49" s="15">
-        <v>2450616</v>
+        <v>2651117</v>
       </c>
       <c r="AY49" s="15">
-        <v>2651117</v>
+        <v>1837684</v>
       </c>
       <c r="AZ49" s="15">
-        <v>1837684</v>
+        <v>1912722</v>
       </c>
       <c r="BA49" s="15">
-        <v>1912722</v>
+        <v>2731261</v>
       </c>
       <c r="BB49" s="15">
-        <v>2731260</v>
+        <v>2108249</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6377,154 +6377,154 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>68677921</v>
+        <v>80201634</v>
       </c>
       <c r="F56" s="11">
-        <v>80201634</v>
+        <v>76755509</v>
       </c>
       <c r="G56" s="11">
-        <v>76755509</v>
+        <v>51142198</v>
       </c>
       <c r="H56" s="11">
-        <v>51142198</v>
+        <v>69225796</v>
       </c>
       <c r="I56" s="11">
-        <v>69225796</v>
+        <v>73693710</v>
       </c>
       <c r="J56" s="11">
-        <v>73693710</v>
+        <v>78756550</v>
       </c>
       <c r="K56" s="11">
-        <v>78756550</v>
+        <v>75634676</v>
       </c>
       <c r="L56" s="11">
-        <v>75634676</v>
+        <v>33631181</v>
       </c>
       <c r="M56" s="11">
-        <v>33631181</v>
+        <v>71107339</v>
       </c>
       <c r="N56" s="11">
-        <v>71107339</v>
+        <v>83177630</v>
       </c>
       <c r="O56" s="11">
-        <v>83177630</v>
+        <v>79880269</v>
       </c>
       <c r="P56" s="11">
-        <v>79880269</v>
+        <v>79733551</v>
       </c>
       <c r="Q56" s="11">
-        <v>79733551</v>
+        <v>89414438</v>
       </c>
       <c r="R56" s="11">
-        <v>89414438</v>
+        <v>87430860</v>
       </c>
       <c r="S56" s="11">
-        <v>87430860</v>
+        <v>76160096</v>
       </c>
       <c r="T56" s="11">
-        <v>76160096</v>
+        <v>86134554</v>
       </c>
       <c r="U56" s="11">
-        <v>86134554</v>
+        <v>86565504</v>
       </c>
       <c r="V56" s="11">
-        <v>86565504</v>
+        <v>122496396</v>
       </c>
       <c r="W56" s="11">
-        <v>122496396</v>
+        <v>117780099</v>
       </c>
       <c r="X56" s="11">
-        <v>117780099</v>
+        <v>89666258</v>
       </c>
       <c r="Y56" s="11">
-        <v>89666258</v>
+        <v>117769436</v>
       </c>
       <c r="Z56" s="11">
-        <v>117769436</v>
+        <v>133405765</v>
       </c>
       <c r="AA56" s="11">
-        <v>133405765</v>
+        <v>136208955</v>
       </c>
       <c r="AB56" s="11">
-        <v>136208955</v>
+        <v>151204475</v>
       </c>
       <c r="AC56" s="11">
-        <v>151204475</v>
+        <v>157466523</v>
       </c>
       <c r="AD56" s="11">
-        <v>157466523</v>
+        <v>159988992</v>
       </c>
       <c r="AE56" s="11">
-        <v>159988992</v>
+        <v>246308010</v>
       </c>
       <c r="AF56" s="11">
-        <v>246308010</v>
+        <v>233073424</v>
       </c>
       <c r="AG56" s="11">
-        <v>233073424</v>
+        <v>215712266</v>
       </c>
       <c r="AH56" s="11">
-        <v>215712266</v>
+        <v>248995189</v>
       </c>
       <c r="AI56" s="11">
-        <v>248995189</v>
+        <v>223978495</v>
       </c>
       <c r="AJ56" s="11">
-        <v>223978495</v>
+        <v>240543356</v>
       </c>
       <c r="AK56" s="11">
-        <v>240543356</v>
+        <v>269726563</v>
       </c>
       <c r="AL56" s="11">
-        <v>269726563</v>
+        <v>276330873</v>
       </c>
       <c r="AM56" s="11">
-        <v>276330873</v>
+        <v>286986162</v>
       </c>
       <c r="AN56" s="11">
-        <v>286986162</v>
+        <v>290278280</v>
       </c>
       <c r="AO56" s="11">
-        <v>290278280</v>
+        <v>286267451</v>
       </c>
       <c r="AP56" s="11">
-        <v>286267451</v>
+        <v>257093860</v>
       </c>
       <c r="AQ56" s="11">
-        <v>257093860</v>
+        <v>290801852</v>
       </c>
       <c r="AR56" s="11">
-        <v>290801852</v>
+        <v>317818078</v>
       </c>
       <c r="AS56" s="11">
-        <v>317818078</v>
+        <v>282463171</v>
       </c>
       <c r="AT56" s="11">
-        <v>282463171</v>
+        <v>333224212</v>
       </c>
       <c r="AU56" s="11">
-        <v>333224212</v>
+        <v>343675059</v>
       </c>
       <c r="AV56" s="11">
-        <v>343675059</v>
+        <v>403998810</v>
       </c>
       <c r="AW56" s="11">
-        <v>403998810</v>
+        <v>383169082</v>
       </c>
       <c r="AX56" s="11">
-        <v>383169082</v>
+        <v>415016667</v>
       </c>
       <c r="AY56" s="11">
-        <v>415016667</v>
+        <v>372902975</v>
       </c>
       <c r="AZ56" s="11">
-        <v>372902975</v>
+        <v>370764055</v>
       </c>
       <c r="BA56" s="11">
-        <v>370764055</v>
+        <v>1083814599</v>
       </c>
       <c r="BB56" s="11">
-        <v>161432634</v>
+        <v>128284251</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -6536,154 +6536,154 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>49879393</v>
+        <v>53161224</v>
       </c>
       <c r="F57" s="13">
-        <v>53161224</v>
+        <v>54577752</v>
       </c>
       <c r="G57" s="13">
-        <v>54577752</v>
+        <v>54115959</v>
       </c>
       <c r="H57" s="13">
-        <v>54115959</v>
+        <v>55919753</v>
       </c>
       <c r="I57" s="13">
-        <v>55919753</v>
+        <v>62905180</v>
       </c>
       <c r="J57" s="13">
-        <v>62905180</v>
+        <v>59018791</v>
       </c>
       <c r="K57" s="13">
-        <v>59018791</v>
+        <v>49285714</v>
       </c>
       <c r="L57" s="13">
-        <v>49285714</v>
+        <v>63771863</v>
       </c>
       <c r="M57" s="13">
-        <v>63771863</v>
+        <v>67860479</v>
       </c>
       <c r="N57" s="13">
-        <v>67860479</v>
+        <v>71116082</v>
       </c>
       <c r="O57" s="13">
-        <v>71116082</v>
+        <v>67037032</v>
       </c>
       <c r="P57" s="13">
-        <v>67037032</v>
+        <v>53276171</v>
       </c>
       <c r="Q57" s="13">
-        <v>53276171</v>
+        <v>62201151</v>
       </c>
       <c r="R57" s="13">
-        <v>62201151</v>
+        <v>50187219</v>
       </c>
       <c r="S57" s="13">
-        <v>50187219</v>
+        <v>64828875</v>
       </c>
       <c r="T57" s="13">
-        <v>64828875</v>
+        <v>68324852</v>
       </c>
       <c r="U57" s="13">
-        <v>68324852</v>
+        <v>69907891</v>
       </c>
       <c r="V57" s="13">
-        <v>69907891</v>
+        <v>43026230</v>
       </c>
       <c r="W57" s="13">
-        <v>43026230</v>
+        <v>61282409</v>
       </c>
       <c r="X57" s="13">
-        <v>61282409</v>
+        <v>60623761</v>
       </c>
       <c r="Y57" s="13">
-        <v>60623761</v>
+        <v>70852731</v>
       </c>
       <c r="Z57" s="13">
-        <v>70852731</v>
+        <v>89486256</v>
       </c>
       <c r="AA57" s="13">
-        <v>89486256</v>
+        <v>77993372</v>
       </c>
       <c r="AB57" s="13">
-        <v>77993372</v>
+        <v>93870075</v>
       </c>
       <c r="AC57" s="13">
-        <v>93870075</v>
+        <v>111775573</v>
       </c>
       <c r="AD57" s="13">
-        <v>111775573</v>
+        <v>112296073</v>
       </c>
       <c r="AE57" s="13">
-        <v>112296073</v>
+        <v>107190645</v>
       </c>
       <c r="AF57" s="13">
-        <v>107190645</v>
+        <v>107545738</v>
       </c>
       <c r="AG57" s="13">
-        <v>107545738</v>
+        <v>120122880</v>
       </c>
       <c r="AH57" s="13">
-        <v>120122880</v>
+        <v>82647486</v>
       </c>
       <c r="AI57" s="13">
-        <v>82647486</v>
+        <v>112176059</v>
       </c>
       <c r="AJ57" s="13">
-        <v>112176059</v>
+        <v>90367541</v>
       </c>
       <c r="AK57" s="13">
-        <v>90367541</v>
+        <v>146362352</v>
       </c>
       <c r="AL57" s="13">
-        <v>146362352</v>
+        <v>153447156</v>
       </c>
       <c r="AM57" s="13">
-        <v>153447156</v>
+        <v>141342477</v>
       </c>
       <c r="AN57" s="13">
-        <v>141342477</v>
+        <v>155641590</v>
       </c>
       <c r="AO57" s="13">
-        <v>155641590</v>
+        <v>145027156</v>
       </c>
       <c r="AP57" s="13">
-        <v>145027156</v>
+        <v>135771320</v>
       </c>
       <c r="AQ57" s="13">
-        <v>135771320</v>
+        <v>139627098</v>
       </c>
       <c r="AR57" s="13">
-        <v>139627098</v>
+        <v>142278565</v>
       </c>
       <c r="AS57" s="13">
-        <v>142278565</v>
+        <v>135288541</v>
       </c>
       <c r="AT57" s="13">
-        <v>135288541</v>
+        <v>118046193</v>
       </c>
       <c r="AU57" s="13">
-        <v>118046193</v>
+        <v>102014832</v>
       </c>
       <c r="AV57" s="13">
-        <v>122888411</v>
+        <v>129591348</v>
       </c>
       <c r="AW57" s="13">
-        <v>129591348</v>
+        <v>102095078</v>
       </c>
       <c r="AX57" s="13">
-        <v>127909188</v>
+        <v>120529901</v>
       </c>
       <c r="AY57" s="13">
-        <v>120529901</v>
+        <v>137724354</v>
       </c>
       <c r="AZ57" s="13">
-        <v>137724354</v>
+        <v>152574074</v>
       </c>
       <c r="BA57" s="13">
-        <v>152574074</v>
+        <v>108269295</v>
       </c>
       <c r="BB57" s="13">
-        <v>393019058</v>
+        <v>257828329</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -6695,154 +6695,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>123880976</v>
+        <v>127903245</v>
       </c>
       <c r="F58" s="11">
-        <v>127903245</v>
+        <v>132978786</v>
       </c>
       <c r="G58" s="11">
-        <v>132978786</v>
+        <v>129430769</v>
       </c>
       <c r="H58" s="11">
-        <v>129430769</v>
+        <v>129210438</v>
       </c>
       <c r="I58" s="11">
-        <v>129210438</v>
+        <v>128569819</v>
       </c>
       <c r="J58" s="11">
-        <v>128569819</v>
+        <v>136950000</v>
       </c>
       <c r="K58" s="11">
-        <v>136950000</v>
+        <v>124826015</v>
       </c>
       <c r="L58" s="11">
-        <v>124826015</v>
+        <v>141250000</v>
       </c>
       <c r="M58" s="11">
-        <v>141250000</v>
+        <v>156204868</v>
       </c>
       <c r="N58" s="11">
-        <v>156204868</v>
+        <v>158996693</v>
       </c>
       <c r="O58" s="11">
-        <v>158996693</v>
+        <v>156700218</v>
       </c>
       <c r="P58" s="11">
-        <v>156700218</v>
+        <v>160387812</v>
       </c>
       <c r="Q58" s="11">
-        <v>160387812</v>
+        <v>162937391</v>
       </c>
       <c r="R58" s="11">
-        <v>162937391</v>
+        <v>161795184</v>
       </c>
       <c r="S58" s="11">
-        <v>161795184</v>
+        <v>165069620</v>
       </c>
       <c r="T58" s="11">
-        <v>165069620</v>
+        <v>162892171</v>
       </c>
       <c r="U58" s="11">
-        <v>162892171</v>
+        <v>157354938</v>
       </c>
       <c r="V58" s="11">
-        <v>157354938</v>
+        <v>159819444</v>
       </c>
       <c r="W58" s="11">
-        <v>159819444</v>
+        <v>158657513</v>
       </c>
       <c r="X58" s="11">
-        <v>158657513</v>
+        <v>148522876</v>
       </c>
       <c r="Y58" s="11">
-        <v>148522876</v>
+        <v>172231800</v>
       </c>
       <c r="Z58" s="11">
-        <v>172231800</v>
+        <v>213084564</v>
       </c>
       <c r="AA58" s="11">
-        <v>213084564</v>
+        <v>208357208</v>
       </c>
       <c r="AB58" s="11">
-        <v>208357208</v>
+        <v>214920000</v>
       </c>
       <c r="AC58" s="11">
-        <v>214920000</v>
+        <v>282416476</v>
       </c>
       <c r="AD58" s="11">
-        <v>282416476</v>
+        <v>269316456</v>
       </c>
       <c r="AE58" s="11">
-        <v>269316456</v>
+        <v>296683437</v>
       </c>
       <c r="AF58" s="11">
-        <v>296683437</v>
+        <v>297135369</v>
       </c>
       <c r="AG58" s="11">
-        <v>297135369</v>
+        <v>297775844</v>
       </c>
       <c r="AH58" s="11">
-        <v>297775844</v>
+        <v>297020378</v>
       </c>
       <c r="AI58" s="11">
-        <v>297020378</v>
+        <v>300937166</v>
       </c>
       <c r="AJ58" s="11">
-        <v>300937166</v>
+        <v>324806405</v>
       </c>
       <c r="AK58" s="11">
-        <v>324806405</v>
+        <v>369887624</v>
       </c>
       <c r="AL58" s="11">
-        <v>369887624</v>
+        <v>360971748</v>
       </c>
       <c r="AM58" s="11">
-        <v>360971748</v>
+        <v>370826834</v>
       </c>
       <c r="AN58" s="11">
-        <v>370826834</v>
+        <v>366755957</v>
       </c>
       <c r="AO58" s="11">
-        <v>366755957</v>
+        <v>362360638</v>
       </c>
       <c r="AP58" s="11">
-        <v>362360638</v>
+        <v>361612434</v>
       </c>
       <c r="AQ58" s="11">
-        <v>361612434</v>
+        <v>364804004</v>
       </c>
       <c r="AR58" s="11">
-        <v>364804004</v>
+        <v>368285190</v>
       </c>
       <c r="AS58" s="11">
-        <v>368285190</v>
+        <v>370166061</v>
       </c>
       <c r="AT58" s="11">
-        <v>370166061</v>
+        <v>366523091</v>
       </c>
       <c r="AU58" s="11">
-        <v>366523091</v>
+        <v>369510215</v>
       </c>
       <c r="AV58" s="11">
-        <v>369510215</v>
+        <v>445687810</v>
       </c>
       <c r="AW58" s="11">
-        <v>445687810</v>
+        <v>456756087</v>
       </c>
       <c r="AX58" s="11">
-        <v>456756087</v>
+        <v>447437785</v>
       </c>
       <c r="AY58" s="11">
-        <v>447437785</v>
+        <v>457204706</v>
       </c>
       <c r="AZ58" s="11">
-        <v>457204706</v>
+        <v>501344855</v>
       </c>
       <c r="BA58" s="11">
-        <v>501344855</v>
+        <v>540310565</v>
       </c>
       <c r="BB58" s="11">
-        <v>540310565</v>
+        <v>545398222</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -6988,77 +6988,77 @@
       <c r="AD60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE60" s="11" t="s">
-        <v>60</v>
+      <c r="AE60" s="11">
+        <v>19229917</v>
       </c>
       <c r="AF60" s="11">
-        <v>19229917</v>
+        <v>19369397</v>
       </c>
       <c r="AG60" s="11">
-        <v>19369397</v>
+        <v>28586124</v>
       </c>
       <c r="AH60" s="11">
-        <v>28586124</v>
+        <v>24773810</v>
       </c>
       <c r="AI60" s="11">
-        <v>24773810</v>
+        <v>25828457</v>
       </c>
       <c r="AJ60" s="11">
-        <v>25828457</v>
+        <v>25354430</v>
       </c>
       <c r="AK60" s="11">
-        <v>25354430</v>
+        <v>27411471</v>
       </c>
       <c r="AL60" s="11">
-        <v>27411471</v>
+        <v>25974155</v>
       </c>
       <c r="AM60" s="11">
-        <v>25974155</v>
+        <v>26509565</v>
       </c>
       <c r="AN60" s="11">
-        <v>26509565</v>
+        <v>27136364</v>
       </c>
       <c r="AO60" s="11">
-        <v>27136364</v>
+        <v>26504854</v>
       </c>
       <c r="AP60" s="11">
-        <v>26504854</v>
+        <v>26504425</v>
       </c>
       <c r="AQ60" s="11">
-        <v>26504425</v>
+        <v>27436673</v>
       </c>
       <c r="AR60" s="11">
-        <v>27436673</v>
+        <v>34588608</v>
       </c>
       <c r="AS60" s="11">
-        <v>34588608</v>
+        <v>34402516</v>
       </c>
       <c r="AT60" s="11">
-        <v>34402516</v>
+        <v>34679487</v>
       </c>
       <c r="AU60" s="11">
-        <v>34679487</v>
+        <v>34551402</v>
       </c>
       <c r="AV60" s="11">
-        <v>34551402</v>
+        <v>34491150</v>
       </c>
       <c r="AW60" s="11">
-        <v>34491150</v>
+        <v>34655738</v>
       </c>
       <c r="AX60" s="11">
-        <v>34655738</v>
+        <v>34724359</v>
       </c>
       <c r="AY60" s="11">
-        <v>34724359</v>
+        <v>34548077</v>
       </c>
       <c r="AZ60" s="11">
-        <v>34548077</v>
+        <v>34512821</v>
       </c>
       <c r="BA60" s="11">
-        <v>34512821</v>
+        <v>34474747</v>
       </c>
       <c r="BB60" s="11">
-        <v>34474747</v>
+        <v>215541667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shepaksa/product/monthly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33A2C6-3A41-4405-8AA8-820B5F1FA137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپاکسا-پاکسان‌</t>
@@ -37,9 +36,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 10 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 11 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +181,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -253,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +445,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -458,7 +457,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -505,23 +504,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,23 +539,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,17 +690,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +755,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +812,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +869,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +924,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +981,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1038,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1093,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1305,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1362,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1406,157 +1371,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3078</v>
+        <v>2994</v>
       </c>
       <c r="F11" s="11">
-        <v>2994</v>
+        <v>3800</v>
       </c>
       <c r="G11" s="11">
-        <v>3800</v>
+        <v>2801</v>
       </c>
       <c r="H11" s="11">
-        <v>2801</v>
+        <v>2770</v>
       </c>
       <c r="I11" s="11">
-        <v>2770</v>
+        <v>4603</v>
       </c>
       <c r="J11" s="11">
-        <v>4603</v>
+        <v>1170</v>
       </c>
       <c r="K11" s="11">
-        <v>1170</v>
+        <v>4413</v>
       </c>
       <c r="L11" s="11">
-        <v>4413</v>
+        <v>1764</v>
       </c>
       <c r="M11" s="11">
-        <v>1764</v>
+        <v>3522</v>
       </c>
       <c r="N11" s="11">
-        <v>3522</v>
+        <v>3374</v>
       </c>
       <c r="O11" s="11">
-        <v>3374</v>
+        <v>3606</v>
       </c>
       <c r="P11" s="11">
-        <v>3606</v>
+        <v>3729</v>
       </c>
       <c r="Q11" s="11">
-        <v>3729</v>
+        <v>3007</v>
       </c>
       <c r="R11" s="11">
-        <v>3007</v>
+        <v>4682</v>
       </c>
       <c r="S11" s="11">
-        <v>4682</v>
+        <v>3252</v>
       </c>
       <c r="T11" s="11">
-        <v>3252</v>
+        <v>2091</v>
       </c>
       <c r="U11" s="11">
-        <v>2091</v>
+        <v>3230</v>
       </c>
       <c r="V11" s="11">
-        <v>3230</v>
+        <v>1394</v>
       </c>
       <c r="W11" s="11">
-        <v>1394</v>
+        <v>3281</v>
       </c>
       <c r="X11" s="11">
-        <v>3281</v>
+        <v>3857</v>
       </c>
       <c r="Y11" s="11">
-        <v>3857</v>
+        <v>4685</v>
       </c>
       <c r="Z11" s="11">
-        <v>4685</v>
+        <v>2018</v>
       </c>
       <c r="AA11" s="11">
-        <v>2018</v>
+        <v>4065</v>
       </c>
       <c r="AB11" s="11">
-        <v>4065</v>
+        <v>3828</v>
       </c>
       <c r="AC11" s="11">
-        <v>3828</v>
+        <v>4104</v>
       </c>
       <c r="AD11" s="11">
-        <v>4104</v>
+        <v>5137</v>
       </c>
       <c r="AE11" s="11">
-        <v>5137</v>
+        <v>1587</v>
       </c>
       <c r="AF11" s="11">
-        <v>1587</v>
+        <v>2560</v>
       </c>
       <c r="AG11" s="11">
-        <v>2560</v>
+        <v>2549</v>
       </c>
       <c r="AH11" s="11">
-        <v>2549</v>
+        <v>1822</v>
       </c>
       <c r="AI11" s="11">
-        <v>1822</v>
+        <v>2160</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2160</v>
+        <v>3535</v>
       </c>
       <c r="AK11" s="11">
-        <v>3535</v>
+        <v>2717</v>
       </c>
       <c r="AL11" s="11">
-        <v>2717</v>
+        <v>2341</v>
       </c>
       <c r="AM11" s="11">
-        <v>2341</v>
+        <v>3156</v>
       </c>
       <c r="AN11" s="11">
-        <v>3156</v>
+        <v>3084</v>
       </c>
       <c r="AO11" s="11">
-        <v>3084</v>
+        <v>4125</v>
       </c>
       <c r="AP11" s="11">
-        <v>4125</v>
+        <v>5623</v>
       </c>
       <c r="AQ11" s="11">
-        <v>5623</v>
+        <v>795</v>
       </c>
       <c r="AR11" s="11">
-        <v>795</v>
+        <v>1366</v>
       </c>
       <c r="AS11" s="11">
-        <v>1366</v>
+        <v>2679</v>
       </c>
       <c r="AT11" s="11">
-        <v>2679</v>
+        <v>1456</v>
       </c>
       <c r="AU11" s="11">
-        <v>1456</v>
+        <v>1610</v>
       </c>
       <c r="AV11" s="11">
-        <v>1610</v>
+        <v>1214</v>
       </c>
       <c r="AW11" s="11">
-        <v>1214</v>
+        <v>1324</v>
       </c>
       <c r="AX11" s="11">
-        <v>1324</v>
+        <v>2525</v>
       </c>
       <c r="AY11" s="11">
-        <v>2525</v>
+        <v>1419</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1419</v>
+        <v>1101</v>
       </c>
       <c r="BA11" s="11">
-        <v>1101</v>
+        <v>2154</v>
       </c>
       <c r="BB11" s="11">
-        <v>5800</v>
+        <v>1385</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,157 +1530,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5082</v>
+        <v>6251</v>
       </c>
       <c r="F12" s="13">
-        <v>6251</v>
+        <v>7022</v>
       </c>
       <c r="G12" s="13">
-        <v>7022</v>
+        <v>4585</v>
       </c>
       <c r="H12" s="13">
-        <v>4585</v>
+        <v>3601</v>
       </c>
       <c r="I12" s="13">
-        <v>3601</v>
+        <v>6973</v>
       </c>
       <c r="J12" s="13">
-        <v>6973</v>
+        <v>1809</v>
       </c>
       <c r="K12" s="13">
-        <v>1809</v>
+        <v>3745</v>
       </c>
       <c r="L12" s="13">
-        <v>3745</v>
+        <v>5653</v>
       </c>
       <c r="M12" s="13">
-        <v>5653</v>
+        <v>8783</v>
       </c>
       <c r="N12" s="13">
-        <v>8783</v>
+        <v>6879</v>
       </c>
       <c r="O12" s="13">
-        <v>6879</v>
+        <v>7133</v>
       </c>
       <c r="P12" s="13">
-        <v>7133</v>
+        <v>3913</v>
       </c>
       <c r="Q12" s="13">
-        <v>3913</v>
+        <v>5465</v>
       </c>
       <c r="R12" s="13">
-        <v>5465</v>
+        <v>6974</v>
       </c>
       <c r="S12" s="13">
-        <v>6974</v>
+        <v>5070</v>
       </c>
       <c r="T12" s="13">
-        <v>5070</v>
+        <v>5120</v>
       </c>
       <c r="U12" s="13">
-        <v>5120</v>
+        <v>5960</v>
       </c>
       <c r="V12" s="13">
-        <v>5960</v>
+        <v>2979</v>
       </c>
       <c r="W12" s="13">
-        <v>2979</v>
+        <v>6456</v>
       </c>
       <c r="X12" s="13">
-        <v>6456</v>
+        <v>5139</v>
       </c>
       <c r="Y12" s="13">
-        <v>5139</v>
+        <v>7714</v>
       </c>
       <c r="Z12" s="13">
-        <v>7714</v>
+        <v>3558</v>
       </c>
       <c r="AA12" s="13">
-        <v>3558</v>
+        <v>4138</v>
       </c>
       <c r="AB12" s="13">
-        <v>4138</v>
+        <v>3976</v>
       </c>
       <c r="AC12" s="13">
-        <v>3976</v>
+        <v>6814</v>
       </c>
       <c r="AD12" s="13">
-        <v>6814</v>
+        <v>8093</v>
       </c>
       <c r="AE12" s="13">
-        <v>8093</v>
+        <v>4723</v>
       </c>
       <c r="AF12" s="13">
-        <v>4723</v>
+        <v>4742</v>
       </c>
       <c r="AG12" s="13">
-        <v>4742</v>
+        <v>5846</v>
       </c>
       <c r="AH12" s="13">
-        <v>5846</v>
+        <v>3613</v>
       </c>
       <c r="AI12" s="13">
-        <v>3613</v>
+        <v>4217</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4217</v>
+        <v>5232</v>
       </c>
       <c r="AK12" s="13">
-        <v>5232</v>
+        <v>6749</v>
       </c>
       <c r="AL12" s="13">
-        <v>6749</v>
+        <v>5262</v>
       </c>
       <c r="AM12" s="13">
-        <v>5262</v>
+        <v>6788</v>
       </c>
       <c r="AN12" s="13">
-        <v>6788</v>
+        <v>6186</v>
       </c>
       <c r="AO12" s="13">
-        <v>6186</v>
+        <v>7465</v>
       </c>
       <c r="AP12" s="13">
-        <v>7465</v>
+        <v>7585</v>
       </c>
       <c r="AQ12" s="13">
-        <v>7585</v>
+        <v>2177</v>
       </c>
       <c r="AR12" s="13">
-        <v>2177</v>
+        <v>2510</v>
       </c>
       <c r="AS12" s="13">
-        <v>2510</v>
+        <v>5890</v>
       </c>
       <c r="AT12" s="13">
-        <v>5890</v>
+        <v>3302</v>
       </c>
       <c r="AU12" s="13">
-        <v>3302</v>
+        <v>4031</v>
       </c>
       <c r="AV12" s="13">
-        <v>4031</v>
+        <v>5701</v>
       </c>
       <c r="AW12" s="13">
-        <v>5701</v>
+        <v>6793</v>
       </c>
       <c r="AX12" s="13">
-        <v>6793</v>
+        <v>6969</v>
       </c>
       <c r="AY12" s="13">
-        <v>6969</v>
+        <v>6369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6369</v>
+        <v>5801</v>
       </c>
       <c r="BA12" s="13">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="BB12" s="13">
-        <v>2157</v>
+        <v>5113</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1724,157 +1689,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1224</v>
+        <v>1688</v>
       </c>
       <c r="F13" s="11">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="G13" s="11">
-        <v>1678</v>
+        <v>1826</v>
       </c>
       <c r="H13" s="11">
-        <v>1826</v>
+        <v>1304</v>
       </c>
       <c r="I13" s="11">
-        <v>1304</v>
+        <v>1944</v>
       </c>
       <c r="J13" s="11">
-        <v>1944</v>
+        <v>129</v>
       </c>
       <c r="K13" s="11">
-        <v>129</v>
+        <v>2013</v>
       </c>
       <c r="L13" s="11">
-        <v>2013</v>
+        <v>906</v>
       </c>
       <c r="M13" s="11">
-        <v>906</v>
+        <v>2356</v>
       </c>
       <c r="N13" s="11">
-        <v>2356</v>
+        <v>1874</v>
       </c>
       <c r="O13" s="11">
-        <v>1874</v>
+        <v>2262</v>
       </c>
       <c r="P13" s="11">
-        <v>2262</v>
+        <v>1702</v>
       </c>
       <c r="Q13" s="11">
-        <v>1702</v>
+        <v>2060</v>
       </c>
       <c r="R13" s="11">
-        <v>2060</v>
+        <v>3134</v>
       </c>
       <c r="S13" s="11">
-        <v>3134</v>
+        <v>1835</v>
       </c>
       <c r="T13" s="11">
-        <v>1835</v>
+        <v>1738</v>
       </c>
       <c r="U13" s="11">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="V13" s="11">
-        <v>1742</v>
+        <v>1077</v>
       </c>
       <c r="W13" s="11">
-        <v>1077</v>
+        <v>2050</v>
       </c>
       <c r="X13" s="11">
-        <v>2050</v>
+        <v>2009</v>
       </c>
       <c r="Y13" s="11">
-        <v>2009</v>
+        <v>2329</v>
       </c>
       <c r="Z13" s="11">
-        <v>2329</v>
+        <v>1365</v>
       </c>
       <c r="AA13" s="11">
-        <v>1365</v>
+        <v>1019</v>
       </c>
       <c r="AB13" s="11">
-        <v>1019</v>
+        <v>1537</v>
       </c>
       <c r="AC13" s="11">
-        <v>1537</v>
+        <v>2306</v>
       </c>
       <c r="AD13" s="11">
-        <v>2306</v>
+        <v>3049</v>
       </c>
       <c r="AE13" s="11">
-        <v>3049</v>
+        <v>2136</v>
       </c>
       <c r="AF13" s="11">
-        <v>2136</v>
+        <v>2369</v>
       </c>
       <c r="AG13" s="11">
-        <v>2369</v>
+        <v>1960</v>
       </c>
       <c r="AH13" s="11">
-        <v>1960</v>
+        <v>1436</v>
       </c>
       <c r="AI13" s="11">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="AK13" s="11">
-        <v>1577</v>
+        <v>2504</v>
       </c>
       <c r="AL13" s="11">
-        <v>2504</v>
+        <v>1691</v>
       </c>
       <c r="AM13" s="11">
-        <v>1691</v>
+        <v>2505</v>
       </c>
       <c r="AN13" s="11">
-        <v>2505</v>
+        <v>2456</v>
       </c>
       <c r="AO13" s="11">
-        <v>2456</v>
+        <v>2964</v>
       </c>
       <c r="AP13" s="11">
-        <v>2964</v>
+        <v>3066</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3066</v>
+        <v>798</v>
       </c>
       <c r="AR13" s="11">
-        <v>798</v>
+        <v>1082</v>
       </c>
       <c r="AS13" s="11">
-        <v>1082</v>
+        <v>1757</v>
       </c>
       <c r="AT13" s="11">
-        <v>1757</v>
+        <v>1184</v>
       </c>
       <c r="AU13" s="11">
-        <v>1184</v>
+        <v>1311</v>
       </c>
       <c r="AV13" s="11">
-        <v>1311</v>
+        <v>1878</v>
       </c>
       <c r="AW13" s="11">
-        <v>1878</v>
+        <v>2432</v>
       </c>
       <c r="AX13" s="11">
-        <v>2432</v>
+        <v>1443</v>
       </c>
       <c r="AY13" s="11">
-        <v>1443</v>
+        <v>851</v>
       </c>
       <c r="AZ13" s="11">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="BA13" s="11">
-        <v>874</v>
+        <v>2430</v>
       </c>
       <c r="BB13" s="11">
-        <v>2430</v>
+        <v>2193</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
@@ -1931,7 +1896,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2017,80 +1982,80 @@
       <c r="AD15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>60</v>
+      <c r="AE15" s="11">
+        <v>723</v>
       </c>
       <c r="AF15" s="11">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="AG15" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH15" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI15" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ15" s="11">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="AK15" s="11">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="AL15" s="11">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="AM15" s="11">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="AN15" s="11">
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="AO15" s="11">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AP15" s="11">
-        <v>160</v>
+        <v>636</v>
       </c>
       <c r="AQ15" s="11">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="AR15" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AS15" s="11">
         <v>159</v>
       </c>
       <c r="AT15" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AU15" s="11">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AV15" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW15" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX15" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY15" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ15" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA15" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB15" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>61</v>
       </c>
@@ -2174,8 +2139,8 @@
       <c r="AD16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE16" s="15" t="s">
-        <v>60</v>
+      <c r="AE16" s="15">
+        <v>0</v>
       </c>
       <c r="AF16" s="15">
         <v>0</v>
@@ -2247,164 +2212,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
-        <v>9384</v>
+        <v>10933</v>
       </c>
       <c r="F17" s="17">
-        <v>10933</v>
+        <v>12500</v>
       </c>
       <c r="G17" s="17">
-        <v>12500</v>
+        <v>9212</v>
       </c>
       <c r="H17" s="17">
-        <v>9212</v>
+        <v>7675</v>
       </c>
       <c r="I17" s="17">
-        <v>7675</v>
+        <v>13520</v>
       </c>
       <c r="J17" s="17">
-        <v>13520</v>
+        <v>3108</v>
       </c>
       <c r="K17" s="17">
-        <v>3108</v>
+        <v>10171</v>
       </c>
       <c r="L17" s="17">
-        <v>10171</v>
+        <v>8323</v>
       </c>
       <c r="M17" s="17">
-        <v>8323</v>
+        <v>14661</v>
       </c>
       <c r="N17" s="17">
-        <v>14661</v>
+        <v>12127</v>
       </c>
       <c r="O17" s="17">
-        <v>12127</v>
+        <v>13001</v>
       </c>
       <c r="P17" s="17">
-        <v>13001</v>
+        <v>9344</v>
       </c>
       <c r="Q17" s="17">
-        <v>9344</v>
+        <v>10532</v>
       </c>
       <c r="R17" s="17">
-        <v>10532</v>
+        <v>14790</v>
       </c>
       <c r="S17" s="17">
-        <v>14790</v>
+        <v>10157</v>
       </c>
       <c r="T17" s="17">
-        <v>10157</v>
+        <v>8949</v>
       </c>
       <c r="U17" s="17">
-        <v>8949</v>
+        <v>10932</v>
       </c>
       <c r="V17" s="17">
-        <v>10932</v>
+        <v>5450</v>
       </c>
       <c r="W17" s="17">
-        <v>5450</v>
+        <v>11787</v>
       </c>
       <c r="X17" s="17">
-        <v>11787</v>
+        <v>11005</v>
       </c>
       <c r="Y17" s="17">
-        <v>11005</v>
+        <v>14728</v>
       </c>
       <c r="Z17" s="17">
-        <v>14728</v>
+        <v>6941</v>
       </c>
       <c r="AA17" s="17">
-        <v>6941</v>
+        <v>9222</v>
       </c>
       <c r="AB17" s="17">
-        <v>9222</v>
+        <v>9341</v>
       </c>
       <c r="AC17" s="17">
-        <v>9341</v>
+        <v>13224</v>
       </c>
       <c r="AD17" s="17">
-        <v>13224</v>
+        <v>16279</v>
       </c>
       <c r="AE17" s="17">
-        <v>16279</v>
+        <v>9169</v>
       </c>
       <c r="AF17" s="17">
-        <v>9169</v>
+        <v>10318</v>
       </c>
       <c r="AG17" s="17">
-        <v>10318</v>
+        <v>11191</v>
       </c>
       <c r="AH17" s="17">
-        <v>11191</v>
+        <v>7123</v>
       </c>
       <c r="AI17" s="17">
-        <v>7123</v>
+        <v>8591</v>
       </c>
       <c r="AJ17" s="17">
-        <v>8591</v>
+        <v>10907</v>
       </c>
       <c r="AK17" s="17">
-        <v>10907</v>
+        <v>12452</v>
       </c>
       <c r="AL17" s="17">
-        <v>12452</v>
+        <v>9850</v>
       </c>
       <c r="AM17" s="17">
-        <v>9850</v>
+        <v>13024</v>
       </c>
       <c r="AN17" s="17">
-        <v>13024</v>
+        <v>12146</v>
       </c>
       <c r="AO17" s="17">
-        <v>12146</v>
+        <v>14714</v>
       </c>
       <c r="AP17" s="17">
-        <v>14714</v>
+        <v>16910</v>
       </c>
       <c r="AQ17" s="17">
-        <v>16910</v>
+        <v>4299</v>
       </c>
       <c r="AR17" s="17">
-        <v>4299</v>
+        <v>5117</v>
       </c>
       <c r="AS17" s="17">
-        <v>5117</v>
+        <v>10485</v>
       </c>
       <c r="AT17" s="17">
-        <v>10485</v>
+        <v>6019</v>
       </c>
       <c r="AU17" s="17">
-        <v>6019</v>
+        <v>7166</v>
       </c>
       <c r="AV17" s="17">
-        <v>7166</v>
+        <v>9019</v>
       </c>
       <c r="AW17" s="17">
-        <v>9019</v>
+        <v>10793</v>
       </c>
       <c r="AX17" s="17">
-        <v>10793</v>
+        <v>11093</v>
       </c>
       <c r="AY17" s="17">
-        <v>11093</v>
+        <v>8847</v>
       </c>
       <c r="AZ17" s="17">
-        <v>8847</v>
+        <v>8049</v>
       </c>
       <c r="BA17" s="17">
-        <v>8049</v>
+        <v>10683</v>
       </c>
       <c r="BB17" s="17">
-        <v>10684</v>
+        <v>8907</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2424,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2479,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2534,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
@@ -2726,7 +2691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2746,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
@@ -2838,7 +2803,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2847,157 +2812,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>3021</v>
+        <v>3060</v>
       </c>
       <c r="F24" s="11">
-        <v>3060</v>
+        <v>3812</v>
       </c>
       <c r="G24" s="11">
-        <v>3812</v>
+        <v>2602</v>
       </c>
       <c r="H24" s="11">
-        <v>2602</v>
+        <v>3047</v>
       </c>
       <c r="I24" s="11">
-        <v>3047</v>
+        <v>4992</v>
       </c>
       <c r="J24" s="11">
-        <v>4992</v>
+        <v>916</v>
       </c>
       <c r="K24" s="11">
-        <v>916</v>
+        <v>4470</v>
       </c>
       <c r="L24" s="11">
-        <v>4470</v>
+        <v>1719</v>
       </c>
       <c r="M24" s="11">
-        <v>1719</v>
+        <v>3093</v>
       </c>
       <c r="N24" s="11">
-        <v>3093</v>
+        <v>3603</v>
       </c>
       <c r="O24" s="11">
-        <v>3603</v>
+        <v>3867</v>
       </c>
       <c r="P24" s="11">
-        <v>3867</v>
+        <v>3374</v>
       </c>
       <c r="Q24" s="11">
-        <v>3374</v>
+        <v>3103</v>
       </c>
       <c r="R24" s="11">
-        <v>3103</v>
+        <v>4932</v>
       </c>
       <c r="S24" s="11">
-        <v>4932</v>
+        <v>2917</v>
       </c>
       <c r="T24" s="11">
-        <v>2917</v>
+        <v>2512</v>
       </c>
       <c r="U24" s="11">
-        <v>2512</v>
+        <v>3183</v>
       </c>
       <c r="V24" s="11">
-        <v>3183</v>
+        <v>1110</v>
       </c>
       <c r="W24" s="11">
-        <v>1110</v>
+        <v>3447</v>
       </c>
       <c r="X24" s="11">
-        <v>3447</v>
+        <v>4081</v>
       </c>
       <c r="Y24" s="11">
-        <v>4081</v>
+        <v>4502</v>
       </c>
       <c r="Z24" s="11">
-        <v>4502</v>
+        <v>2255</v>
       </c>
       <c r="AA24" s="11">
-        <v>2255</v>
+        <v>3886</v>
       </c>
       <c r="AB24" s="11">
-        <v>3886</v>
+        <v>3844</v>
       </c>
       <c r="AC24" s="11">
-        <v>3844</v>
+        <v>4182</v>
       </c>
       <c r="AD24" s="11">
-        <v>4182</v>
+        <v>3997</v>
       </c>
       <c r="AE24" s="11">
-        <v>3997</v>
+        <v>1935</v>
       </c>
       <c r="AF24" s="11">
-        <v>1935</v>
+        <v>2792</v>
       </c>
       <c r="AG24" s="11">
-        <v>2792</v>
+        <v>3041</v>
       </c>
       <c r="AH24" s="11">
-        <v>3041</v>
+        <v>1663</v>
       </c>
       <c r="AI24" s="11">
-        <v>1663</v>
+        <v>2418</v>
       </c>
       <c r="AJ24" s="11">
-        <v>2418</v>
+        <v>3552</v>
       </c>
       <c r="AK24" s="11">
-        <v>3552</v>
+        <v>2560</v>
       </c>
       <c r="AL24" s="11">
-        <v>2560</v>
+        <v>2303</v>
       </c>
       <c r="AM24" s="11">
-        <v>2303</v>
+        <v>3252</v>
       </c>
       <c r="AN24" s="11">
-        <v>3252</v>
+        <v>3209</v>
       </c>
       <c r="AO24" s="11">
-        <v>3209</v>
+        <v>3911</v>
       </c>
       <c r="AP24" s="11">
-        <v>3911</v>
+        <v>4251</v>
       </c>
       <c r="AQ24" s="11">
-        <v>4251</v>
+        <v>1080</v>
       </c>
       <c r="AR24" s="11">
-        <v>1080</v>
+        <v>1748</v>
       </c>
       <c r="AS24" s="11">
-        <v>1748</v>
+        <v>3299</v>
       </c>
       <c r="AT24" s="11">
-        <v>3299</v>
+        <v>1396</v>
       </c>
       <c r="AU24" s="11">
-        <v>1396</v>
+        <v>1708</v>
       </c>
       <c r="AV24" s="11">
-        <v>1708</v>
+        <v>840</v>
       </c>
       <c r="AW24" s="11">
-        <v>840</v>
+        <v>1449</v>
       </c>
       <c r="AX24" s="11">
-        <v>1449</v>
+        <v>2580</v>
       </c>
       <c r="AY24" s="11">
-        <v>2580</v>
+        <v>1412</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1412</v>
+        <v>1174</v>
       </c>
       <c r="BA24" s="11">
-        <v>1174</v>
+        <v>-685</v>
       </c>
       <c r="BB24" s="11">
-        <v>5240</v>
+        <v>4394</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -3006,157 +2971,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>3557</v>
+        <v>6308</v>
       </c>
       <c r="F25" s="13">
-        <v>6308</v>
+        <v>6958</v>
       </c>
       <c r="G25" s="13">
-        <v>6958</v>
+        <v>4217</v>
       </c>
       <c r="H25" s="13">
-        <v>4217</v>
+        <v>4374</v>
       </c>
       <c r="I25" s="13">
-        <v>4374</v>
+        <v>7182</v>
       </c>
       <c r="J25" s="13">
-        <v>7182</v>
+        <v>1224</v>
       </c>
       <c r="K25" s="13">
-        <v>1224</v>
+        <v>3402</v>
       </c>
       <c r="L25" s="13">
-        <v>3402</v>
+        <v>6049</v>
       </c>
       <c r="M25" s="13">
-        <v>6049</v>
+        <v>6809</v>
       </c>
       <c r="N25" s="13">
-        <v>6809</v>
+        <v>8158</v>
       </c>
       <c r="O25" s="13">
-        <v>8158</v>
+        <v>7507</v>
       </c>
       <c r="P25" s="13">
-        <v>7507</v>
+        <v>3009</v>
       </c>
       <c r="Q25" s="13">
-        <v>3009</v>
+        <v>4519</v>
       </c>
       <c r="R25" s="13">
-        <v>4519</v>
+        <v>8669</v>
       </c>
       <c r="S25" s="13">
-        <v>8669</v>
+        <v>2729</v>
       </c>
       <c r="T25" s="13">
-        <v>2729</v>
+        <v>5070</v>
       </c>
       <c r="U25" s="13">
-        <v>5070</v>
+        <v>7654</v>
       </c>
       <c r="V25" s="13">
-        <v>7654</v>
+        <v>1830</v>
       </c>
       <c r="W25" s="13">
-        <v>1830</v>
+        <v>5662</v>
       </c>
       <c r="X25" s="13">
-        <v>5662</v>
+        <v>6759</v>
       </c>
       <c r="Y25" s="13">
-        <v>6759</v>
+        <v>6702</v>
       </c>
       <c r="Z25" s="13">
-        <v>6702</v>
+        <v>5166</v>
       </c>
       <c r="AA25" s="13">
-        <v>5166</v>
+        <v>3470</v>
       </c>
       <c r="AB25" s="13">
-        <v>3470</v>
+        <v>4264</v>
       </c>
       <c r="AC25" s="13">
-        <v>4264</v>
+        <v>5846</v>
       </c>
       <c r="AD25" s="13">
-        <v>5846</v>
+        <v>9805</v>
       </c>
       <c r="AE25" s="13">
-        <v>9805</v>
+        <v>2544</v>
       </c>
       <c r="AF25" s="13">
-        <v>2544</v>
+        <v>5444</v>
       </c>
       <c r="AG25" s="13">
-        <v>5444</v>
+        <v>7015</v>
       </c>
       <c r="AH25" s="13">
-        <v>7015</v>
+        <v>1651</v>
       </c>
       <c r="AI25" s="13">
-        <v>1651</v>
+        <v>5856</v>
       </c>
       <c r="AJ25" s="13">
-        <v>5856</v>
+        <v>4424</v>
       </c>
       <c r="AK25" s="13">
-        <v>4424</v>
+        <v>5732</v>
       </c>
       <c r="AL25" s="13">
-        <v>5732</v>
+        <v>5204</v>
       </c>
       <c r="AM25" s="13">
-        <v>5204</v>
+        <v>7437</v>
       </c>
       <c r="AN25" s="13">
-        <v>7437</v>
+        <v>6593</v>
       </c>
       <c r="AO25" s="13">
-        <v>6593</v>
+        <v>7107</v>
       </c>
       <c r="AP25" s="13">
-        <v>7107</v>
+        <v>8173</v>
       </c>
       <c r="AQ25" s="13">
-        <v>8173</v>
+        <v>834</v>
       </c>
       <c r="AR25" s="13">
-        <v>834</v>
+        <v>3457</v>
       </c>
       <c r="AS25" s="13">
-        <v>3457</v>
+        <v>5105</v>
       </c>
       <c r="AT25" s="13">
-        <v>5105</v>
+        <v>4373</v>
       </c>
       <c r="AU25" s="13">
-        <v>4373</v>
+        <v>5731</v>
       </c>
       <c r="AV25" s="13">
-        <v>5731</v>
+        <v>4554</v>
       </c>
       <c r="AW25" s="13">
-        <v>4554</v>
+        <v>6563</v>
       </c>
       <c r="AX25" s="13">
-        <v>6563</v>
+        <v>6856</v>
       </c>
       <c r="AY25" s="13">
-        <v>6856</v>
+        <v>6853</v>
       </c>
       <c r="AZ25" s="13">
-        <v>6853</v>
+        <v>5778</v>
       </c>
       <c r="BA25" s="13">
-        <v>5778</v>
+        <v>7813</v>
       </c>
       <c r="BB25" s="13">
-        <v>1889</v>
+        <v>3530</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3165,157 +3130,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1025</v>
+        <v>1664</v>
       </c>
       <c r="F26" s="11">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="G26" s="11">
-        <v>1697</v>
+        <v>2015</v>
       </c>
       <c r="H26" s="11">
-        <v>2015</v>
+        <v>1188</v>
       </c>
       <c r="I26" s="11">
-        <v>1188</v>
+        <v>2485</v>
       </c>
       <c r="J26" s="11">
-        <v>2485</v>
+        <v>20</v>
       </c>
       <c r="K26" s="11">
-        <v>20</v>
+        <v>1207</v>
       </c>
       <c r="L26" s="11">
-        <v>1207</v>
+        <v>1320</v>
       </c>
       <c r="M26" s="11">
-        <v>1320</v>
+        <v>2465</v>
       </c>
       <c r="N26" s="11">
-        <v>2465</v>
+        <v>2117</v>
       </c>
       <c r="O26" s="11">
-        <v>2117</v>
+        <v>1838</v>
       </c>
       <c r="P26" s="11">
-        <v>1838</v>
+        <v>1083</v>
       </c>
       <c r="Q26" s="11">
-        <v>1083</v>
+        <v>2875</v>
       </c>
       <c r="R26" s="11">
-        <v>2875</v>
+        <v>3198</v>
       </c>
       <c r="S26" s="11">
-        <v>3198</v>
+        <v>1264</v>
       </c>
       <c r="T26" s="11">
-        <v>1264</v>
+        <v>2031</v>
       </c>
       <c r="U26" s="11">
-        <v>2031</v>
+        <v>2268</v>
       </c>
       <c r="V26" s="11">
-        <v>2268</v>
+        <v>72</v>
       </c>
       <c r="W26" s="11">
-        <v>72</v>
+        <v>2549</v>
       </c>
       <c r="X26" s="11">
-        <v>2549</v>
+        <v>2295</v>
       </c>
       <c r="Y26" s="11">
-        <v>2295</v>
+        <v>2239</v>
       </c>
       <c r="Z26" s="11">
-        <v>2239</v>
+        <v>1490</v>
       </c>
       <c r="AA26" s="11">
-        <v>1490</v>
+        <v>1103</v>
       </c>
       <c r="AB26" s="11">
-        <v>1103</v>
+        <v>1275</v>
       </c>
       <c r="AC26" s="11">
-        <v>1275</v>
+        <v>2185</v>
       </c>
       <c r="AD26" s="11">
-        <v>2185</v>
+        <v>3634</v>
       </c>
       <c r="AE26" s="11">
-        <v>3634</v>
+        <v>1292</v>
       </c>
       <c r="AF26" s="11">
-        <v>1292</v>
+        <v>2194</v>
       </c>
       <c r="AG26" s="11">
-        <v>2194</v>
+        <v>2873</v>
       </c>
       <c r="AH26" s="11">
-        <v>2873</v>
+        <v>687</v>
       </c>
       <c r="AI26" s="11">
-        <v>687</v>
+        <v>1496</v>
       </c>
       <c r="AJ26" s="11">
-        <v>1496</v>
+        <v>2061</v>
       </c>
       <c r="AK26" s="11">
-        <v>2061</v>
+        <v>2109</v>
       </c>
       <c r="AL26" s="11">
-        <v>2109</v>
+        <v>1699</v>
       </c>
       <c r="AM26" s="11">
-        <v>1699</v>
+        <v>2795</v>
       </c>
       <c r="AN26" s="11">
-        <v>2795</v>
+        <v>2434</v>
       </c>
       <c r="AO26" s="11">
-        <v>2434</v>
+        <v>2759</v>
       </c>
       <c r="AP26" s="11">
-        <v>2759</v>
+        <v>2477</v>
       </c>
       <c r="AQ26" s="11">
-        <v>2477</v>
+        <v>949</v>
       </c>
       <c r="AR26" s="11">
-        <v>949</v>
+        <v>817</v>
       </c>
       <c r="AS26" s="11">
-        <v>817</v>
+        <v>1927</v>
       </c>
       <c r="AT26" s="11">
-        <v>1927</v>
+        <v>1126</v>
       </c>
       <c r="AU26" s="11">
-        <v>1126</v>
+        <v>1958</v>
       </c>
       <c r="AV26" s="11">
-        <v>1958</v>
+        <v>1009</v>
       </c>
       <c r="AW26" s="11">
-        <v>1009</v>
+        <v>2382</v>
       </c>
       <c r="AX26" s="11">
-        <v>2382</v>
+        <v>1752</v>
       </c>
       <c r="AY26" s="11">
-        <v>1752</v>
+        <v>850</v>
       </c>
       <c r="AZ26" s="11">
-        <v>850</v>
+        <v>1244</v>
       </c>
       <c r="BA26" s="11">
-        <v>1244</v>
+        <v>2196</v>
       </c>
       <c r="BB26" s="11">
-        <v>2196</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>59</v>
       </c>
@@ -3372,7 +3337,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3458,80 +3423,80 @@
       <c r="AD28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE28" s="11" t="s">
-        <v>60</v>
+      <c r="AE28" s="11">
+        <v>722</v>
       </c>
       <c r="AF28" s="11">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG28" s="11">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH28" s="11">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI28" s="11">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ28" s="11">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK28" s="11">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL28" s="11">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM28" s="11">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN28" s="11">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO28" s="11">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP28" s="11">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ28" s="11">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR28" s="11">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS28" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT28" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU28" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV28" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW28" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX28" s="11">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY28" s="11">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ28" s="11">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA28" s="11">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB28" s="11">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>61</v>
       </c>
@@ -3615,80 +3580,80 @@
       <c r="AD29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE29" s="15" t="s">
-        <v>60</v>
+      <c r="AE29" s="15">
+        <v>722</v>
       </c>
       <c r="AF29" s="15">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="AG29" s="15">
-        <v>647</v>
+        <v>836</v>
       </c>
       <c r="AH29" s="15">
-        <v>836</v>
+        <v>252</v>
       </c>
       <c r="AI29" s="15">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="AJ29" s="15">
-        <v>752</v>
+        <v>553</v>
       </c>
       <c r="AK29" s="15">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="AL29" s="15">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="AM29" s="15">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="AN29" s="15">
-        <v>575</v>
+        <v>352</v>
       </c>
       <c r="AO29" s="15">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="AP29" s="15">
-        <v>103</v>
+        <v>904</v>
       </c>
       <c r="AQ29" s="15">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="AR29" s="15">
-        <v>529</v>
+        <v>158</v>
       </c>
       <c r="AS29" s="15">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT29" s="15">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AU29" s="15">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AV29" s="15">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AW29" s="15">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AX29" s="15">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AY29" s="15">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="AZ29" s="15">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="BA29" s="15">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="BB29" s="15">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>64</v>
       </c>
@@ -3745,7 +3710,7 @@
       <c r="BA30" s="19"/>
       <c r="BB30" s="19"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>65</v>
       </c>
@@ -3829,8 +3794,8 @@
       <c r="AD31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AE31" s="17" t="s">
-        <v>60</v>
+      <c r="AE31" s="17">
+        <v>0</v>
       </c>
       <c r="AF31" s="17">
         <v>0</v>
@@ -3902,164 +3867,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>7603</v>
+        <v>11032</v>
       </c>
       <c r="F32" s="15">
-        <v>11032</v>
+        <v>12467</v>
       </c>
       <c r="G32" s="15">
-        <v>12467</v>
+        <v>8834</v>
       </c>
       <c r="H32" s="15">
-        <v>8834</v>
+        <v>8609</v>
       </c>
       <c r="I32" s="15">
-        <v>8609</v>
+        <v>14659</v>
       </c>
       <c r="J32" s="15">
-        <v>14659</v>
+        <v>2160</v>
       </c>
       <c r="K32" s="15">
-        <v>2160</v>
+        <v>9079</v>
       </c>
       <c r="L32" s="15">
-        <v>9079</v>
+        <v>9088</v>
       </c>
       <c r="M32" s="15">
-        <v>9088</v>
+        <v>12367</v>
       </c>
       <c r="N32" s="15">
-        <v>12367</v>
+        <v>13878</v>
       </c>
       <c r="O32" s="15">
-        <v>13878</v>
+        <v>13212</v>
       </c>
       <c r="P32" s="15">
-        <v>13212</v>
+        <v>7466</v>
       </c>
       <c r="Q32" s="15">
-        <v>7466</v>
+        <v>10497</v>
       </c>
       <c r="R32" s="15">
-        <v>10497</v>
+        <v>16799</v>
       </c>
       <c r="S32" s="15">
-        <v>16799</v>
+        <v>6910</v>
       </c>
       <c r="T32" s="15">
-        <v>6910</v>
+        <v>9613</v>
       </c>
       <c r="U32" s="15">
-        <v>9613</v>
+        <v>13105</v>
       </c>
       <c r="V32" s="15">
-        <v>13105</v>
+        <v>3012</v>
       </c>
       <c r="W32" s="15">
-        <v>3012</v>
+        <v>11658</v>
       </c>
       <c r="X32" s="15">
-        <v>11658</v>
+        <v>13135</v>
       </c>
       <c r="Y32" s="15">
-        <v>13135</v>
+        <v>13443</v>
       </c>
       <c r="Z32" s="15">
-        <v>13443</v>
+        <v>8911</v>
       </c>
       <c r="AA32" s="15">
-        <v>8911</v>
+        <v>8459</v>
       </c>
       <c r="AB32" s="15">
-        <v>8459</v>
+        <v>9383</v>
       </c>
       <c r="AC32" s="15">
-        <v>9383</v>
+        <v>12213</v>
       </c>
       <c r="AD32" s="15">
-        <v>12213</v>
+        <v>17436</v>
       </c>
       <c r="AE32" s="15">
-        <v>17436</v>
+        <v>6493</v>
       </c>
       <c r="AF32" s="15">
-        <v>6493</v>
+        <v>11077</v>
       </c>
       <c r="AG32" s="15">
-        <v>11077</v>
+        <v>13765</v>
       </c>
       <c r="AH32" s="15">
-        <v>13765</v>
+        <v>4253</v>
       </c>
       <c r="AI32" s="15">
-        <v>4253</v>
+        <v>10522</v>
       </c>
       <c r="AJ32" s="15">
-        <v>10522</v>
+        <v>10590</v>
       </c>
       <c r="AK32" s="15">
-        <v>10590</v>
+        <v>10802</v>
       </c>
       <c r="AL32" s="15">
-        <v>10802</v>
+        <v>9709</v>
       </c>
       <c r="AM32" s="15">
-        <v>9709</v>
+        <v>14059</v>
       </c>
       <c r="AN32" s="15">
-        <v>14059</v>
+        <v>12588</v>
       </c>
       <c r="AO32" s="15">
-        <v>12588</v>
+        <v>13880</v>
       </c>
       <c r="AP32" s="15">
-        <v>13880</v>
+        <v>15805</v>
       </c>
       <c r="AQ32" s="15">
-        <v>15805</v>
+        <v>3392</v>
       </c>
       <c r="AR32" s="15">
-        <v>3392</v>
+        <v>6180</v>
       </c>
       <c r="AS32" s="15">
-        <v>6180</v>
+        <v>10490</v>
       </c>
       <c r="AT32" s="15">
-        <v>10490</v>
+        <v>6973</v>
       </c>
       <c r="AU32" s="15">
-        <v>6973</v>
+        <v>9611</v>
       </c>
       <c r="AV32" s="15">
-        <v>9611</v>
+        <v>6629</v>
       </c>
       <c r="AW32" s="15">
-        <v>6629</v>
+        <v>10638</v>
       </c>
       <c r="AX32" s="15">
-        <v>10638</v>
+        <v>11344</v>
       </c>
       <c r="AY32" s="15">
-        <v>11344</v>
+        <v>9323</v>
       </c>
       <c r="AZ32" s="15">
-        <v>9323</v>
+        <v>8469</v>
       </c>
       <c r="BA32" s="15">
-        <v>8469</v>
+        <v>9621</v>
       </c>
       <c r="BB32" s="15">
-        <v>9622</v>
+        <v>9265</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4114,7 +4079,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4169,7 +4134,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4224,7 +4189,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4436,7 +4401,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>66</v>
       </c>
@@ -4493,7 +4458,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4502,157 +4467,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>207476</v>
+        <v>245417</v>
       </c>
       <c r="F39" s="11">
-        <v>245417</v>
+        <v>292592</v>
       </c>
       <c r="G39" s="11">
-        <v>292592</v>
+        <v>133072</v>
       </c>
       <c r="H39" s="11">
-        <v>133072</v>
+        <v>210931</v>
       </c>
       <c r="I39" s="11">
-        <v>210931</v>
+        <v>367879</v>
       </c>
       <c r="J39" s="11">
-        <v>367879</v>
+        <v>72141</v>
       </c>
       <c r="K39" s="11">
-        <v>72141</v>
+        <v>338087</v>
       </c>
       <c r="L39" s="11">
-        <v>338087</v>
+        <v>57812</v>
       </c>
       <c r="M39" s="11">
-        <v>57812</v>
+        <v>219935</v>
       </c>
       <c r="N39" s="11">
-        <v>219935</v>
+        <v>299689</v>
       </c>
       <c r="O39" s="11">
-        <v>299689</v>
+        <v>308897</v>
       </c>
       <c r="P39" s="11">
-        <v>308897</v>
+        <v>269021</v>
       </c>
       <c r="Q39" s="11">
-        <v>269021</v>
+        <v>277453</v>
       </c>
       <c r="R39" s="11">
-        <v>277453</v>
+        <v>431209</v>
       </c>
       <c r="S39" s="11">
-        <v>431209</v>
+        <v>222159</v>
       </c>
       <c r="T39" s="11">
-        <v>222159</v>
+        <v>216370</v>
       </c>
       <c r="U39" s="11">
-        <v>216370</v>
+        <v>275538</v>
       </c>
       <c r="V39" s="11">
-        <v>275538</v>
+        <v>135971</v>
       </c>
       <c r="W39" s="11">
-        <v>135971</v>
+        <v>405988</v>
       </c>
       <c r="X39" s="11">
-        <v>405988</v>
+        <v>365928</v>
       </c>
       <c r="Y39" s="11">
-        <v>365928</v>
+        <v>530198</v>
       </c>
       <c r="Z39" s="11">
-        <v>530198</v>
+        <v>300830</v>
       </c>
       <c r="AA39" s="11">
-        <v>300830</v>
+        <v>529308</v>
       </c>
       <c r="AB39" s="11">
-        <v>529308</v>
+        <v>581230</v>
       </c>
       <c r="AC39" s="11">
-        <v>581230</v>
+        <v>658525</v>
       </c>
       <c r="AD39" s="11">
-        <v>658525</v>
+        <v>639476</v>
       </c>
       <c r="AE39" s="11">
-        <v>639476</v>
+        <v>476606</v>
       </c>
       <c r="AF39" s="11">
-        <v>476606</v>
+        <v>650741</v>
       </c>
       <c r="AG39" s="11">
-        <v>650741</v>
+        <v>655981</v>
       </c>
       <c r="AH39" s="11">
-        <v>655981</v>
+        <v>414079</v>
       </c>
       <c r="AI39" s="11">
-        <v>414079</v>
+        <v>541580</v>
       </c>
       <c r="AJ39" s="11">
-        <v>541580</v>
+        <v>854410</v>
       </c>
       <c r="AK39" s="11">
-        <v>854410</v>
+        <v>690500</v>
       </c>
       <c r="AL39" s="11">
-        <v>690500</v>
+        <v>636390</v>
       </c>
       <c r="AM39" s="11">
-        <v>636390</v>
+        <v>933279</v>
       </c>
       <c r="AN39" s="11">
-        <v>933279</v>
+        <v>931503</v>
       </c>
       <c r="AO39" s="11">
-        <v>931503</v>
+        <v>1119592</v>
       </c>
       <c r="AP39" s="11">
-        <v>1119592</v>
+        <v>1092906</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1092906</v>
+        <v>314066</v>
       </c>
       <c r="AR39" s="11">
-        <v>314066</v>
+        <v>555546</v>
       </c>
       <c r="AS39" s="11">
-        <v>555546</v>
+        <v>931846</v>
       </c>
       <c r="AT39" s="11">
-        <v>931846</v>
+        <v>465181</v>
       </c>
       <c r="AU39" s="11">
-        <v>465181</v>
+        <v>586997</v>
       </c>
       <c r="AV39" s="11">
-        <v>586997</v>
+        <v>339359</v>
       </c>
       <c r="AW39" s="11">
-        <v>339359</v>
+        <v>555212</v>
       </c>
       <c r="AX39" s="11">
-        <v>555212</v>
+        <v>1070743</v>
       </c>
       <c r="AY39" s="11">
-        <v>1070743</v>
+        <v>526539</v>
       </c>
       <c r="AZ39" s="11">
-        <v>526539</v>
+        <v>435277</v>
       </c>
       <c r="BA39" s="11">
-        <v>435277</v>
+        <v>742413</v>
       </c>
       <c r="BB39" s="11">
-        <v>845907</v>
+        <v>563681</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -4661,157 +4626,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>177421</v>
+        <v>335341</v>
       </c>
       <c r="F40" s="13">
-        <v>335341</v>
+        <v>379752</v>
       </c>
       <c r="G40" s="13">
-        <v>379752</v>
+        <v>228207</v>
       </c>
       <c r="H40" s="13">
-        <v>228207</v>
+        <v>244593</v>
       </c>
       <c r="I40" s="13">
-        <v>244593</v>
+        <v>451785</v>
       </c>
       <c r="J40" s="13">
-        <v>451785</v>
+        <v>72239</v>
       </c>
       <c r="K40" s="13">
-        <v>72239</v>
+        <v>167670</v>
       </c>
       <c r="L40" s="13">
-        <v>167670</v>
+        <v>385756</v>
       </c>
       <c r="M40" s="13">
-        <v>385756</v>
+        <v>462062</v>
       </c>
       <c r="N40" s="13">
-        <v>462062</v>
+        <v>580165</v>
       </c>
       <c r="O40" s="13">
-        <v>580165</v>
+        <v>503247</v>
       </c>
       <c r="P40" s="13">
-        <v>503247</v>
+        <v>160308</v>
       </c>
       <c r="Q40" s="13">
-        <v>160308</v>
+        <v>281087</v>
       </c>
       <c r="R40" s="13">
-        <v>281087</v>
+        <v>435073</v>
       </c>
       <c r="S40" s="13">
-        <v>435073</v>
+        <v>176918</v>
       </c>
       <c r="T40" s="13">
-        <v>176918</v>
+        <v>346407</v>
       </c>
       <c r="U40" s="13">
-        <v>346407</v>
+        <v>535075</v>
       </c>
       <c r="V40" s="13">
-        <v>535075</v>
+        <v>78738</v>
       </c>
       <c r="W40" s="13">
-        <v>78738</v>
+        <v>346981</v>
       </c>
       <c r="X40" s="13">
-        <v>346981</v>
+        <v>409756</v>
       </c>
       <c r="Y40" s="13">
-        <v>409756</v>
+        <v>474855</v>
       </c>
       <c r="Z40" s="13">
-        <v>474855</v>
+        <v>462286</v>
       </c>
       <c r="AA40" s="13">
-        <v>462286</v>
+        <v>270637</v>
       </c>
       <c r="AB40" s="13">
-        <v>270637</v>
+        <v>400262</v>
       </c>
       <c r="AC40" s="13">
-        <v>400262</v>
+        <v>653440</v>
       </c>
       <c r="AD40" s="13">
-        <v>653440</v>
+        <v>1101063</v>
       </c>
       <c r="AE40" s="13">
-        <v>1101063</v>
+        <v>272693</v>
       </c>
       <c r="AF40" s="13">
-        <v>272693</v>
+        <v>585479</v>
       </c>
       <c r="AG40" s="13">
-        <v>585479</v>
+        <v>842662</v>
       </c>
       <c r="AH40" s="13">
-        <v>842662</v>
+        <v>136451</v>
       </c>
       <c r="AI40" s="13">
-        <v>136451</v>
+        <v>656903</v>
       </c>
       <c r="AJ40" s="13">
-        <v>656903</v>
+        <v>399786</v>
       </c>
       <c r="AK40" s="13">
-        <v>399786</v>
+        <v>838949</v>
       </c>
       <c r="AL40" s="13">
-        <v>838949</v>
+        <v>798539</v>
       </c>
       <c r="AM40" s="13">
-        <v>798539</v>
+        <v>1051164</v>
       </c>
       <c r="AN40" s="13">
-        <v>1051164</v>
+        <v>1026145</v>
       </c>
       <c r="AO40" s="13">
-        <v>1026145</v>
+        <v>1030708</v>
       </c>
       <c r="AP40" s="13">
-        <v>1030708</v>
+        <v>1109659</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1109659</v>
+        <v>116449</v>
       </c>
       <c r="AR40" s="13">
-        <v>116449</v>
+        <v>491857</v>
       </c>
       <c r="AS40" s="13">
-        <v>491857</v>
+        <v>690648</v>
       </c>
       <c r="AT40" s="13">
-        <v>690648</v>
+        <v>516216</v>
       </c>
       <c r="AU40" s="13">
-        <v>516216</v>
+        <v>584647</v>
       </c>
       <c r="AV40" s="13">
-        <v>584647</v>
+        <v>590159</v>
       </c>
       <c r="AW40" s="13">
-        <v>590159</v>
+        <v>670050</v>
       </c>
       <c r="AX40" s="13">
-        <v>839468</v>
+        <v>826353</v>
       </c>
       <c r="AY40" s="13">
-        <v>826353</v>
+        <v>943825</v>
       </c>
       <c r="AZ40" s="13">
-        <v>943825</v>
+        <v>881573</v>
       </c>
       <c r="BA40" s="13">
-        <v>881573</v>
+        <v>845908</v>
       </c>
       <c r="BB40" s="13">
-        <v>742413</v>
+        <v>910134</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>58</v>
       </c>
@@ -4820,157 +4785,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>126978</v>
+        <v>212831</v>
       </c>
       <c r="F41" s="11">
-        <v>212831</v>
+        <v>225665</v>
       </c>
       <c r="G41" s="11">
-        <v>225665</v>
+        <v>260803</v>
       </c>
       <c r="H41" s="11">
-        <v>260803</v>
+        <v>153502</v>
       </c>
       <c r="I41" s="11">
-        <v>153502</v>
+        <v>319496</v>
       </c>
       <c r="J41" s="11">
-        <v>319496</v>
+        <v>2739</v>
       </c>
       <c r="K41" s="11">
-        <v>2739</v>
+        <v>150665</v>
       </c>
       <c r="L41" s="11">
-        <v>150665</v>
+        <v>186450</v>
       </c>
       <c r="M41" s="11">
-        <v>186450</v>
+        <v>385045</v>
       </c>
       <c r="N41" s="11">
-        <v>385045</v>
+        <v>336596</v>
       </c>
       <c r="O41" s="11">
-        <v>336596</v>
+        <v>288015</v>
       </c>
       <c r="P41" s="11">
-        <v>288015</v>
+        <v>173700</v>
       </c>
       <c r="Q41" s="11">
-        <v>173700</v>
+        <v>468445</v>
       </c>
       <c r="R41" s="11">
-        <v>468445</v>
+        <v>517421</v>
       </c>
       <c r="S41" s="11">
-        <v>517421</v>
+        <v>208648</v>
       </c>
       <c r="T41" s="11">
-        <v>208648</v>
+        <v>330834</v>
       </c>
       <c r="U41" s="11">
-        <v>330834</v>
+        <v>356881</v>
       </c>
       <c r="V41" s="11">
-        <v>356881</v>
+        <v>11507</v>
       </c>
       <c r="W41" s="11">
-        <v>11507</v>
+        <v>404418</v>
       </c>
       <c r="X41" s="11">
-        <v>404418</v>
+        <v>340860</v>
       </c>
       <c r="Y41" s="11">
-        <v>340860</v>
+        <v>385627</v>
       </c>
       <c r="Z41" s="11">
-        <v>385627</v>
+        <v>317496</v>
       </c>
       <c r="AA41" s="11">
-        <v>317496</v>
+        <v>229818</v>
       </c>
       <c r="AB41" s="11">
-        <v>229818</v>
+        <v>274023</v>
       </c>
       <c r="AC41" s="11">
-        <v>274023</v>
+        <v>617080</v>
       </c>
       <c r="AD41" s="11">
-        <v>617080</v>
+        <v>978696</v>
       </c>
       <c r="AE41" s="11">
-        <v>978696</v>
+        <v>383315</v>
       </c>
       <c r="AF41" s="11">
-        <v>383315</v>
+        <v>651915</v>
       </c>
       <c r="AG41" s="11">
-        <v>651915</v>
+        <v>855510</v>
       </c>
       <c r="AH41" s="11">
-        <v>855510</v>
+        <v>204053</v>
       </c>
       <c r="AI41" s="11">
-        <v>204053</v>
+        <v>450202</v>
       </c>
       <c r="AJ41" s="11">
-        <v>450202</v>
+        <v>669426</v>
       </c>
       <c r="AK41" s="11">
-        <v>669426</v>
+        <v>780093</v>
       </c>
       <c r="AL41" s="11">
-        <v>780093</v>
+        <v>613291</v>
       </c>
       <c r="AM41" s="11">
-        <v>613291</v>
+        <v>1036461</v>
       </c>
       <c r="AN41" s="11">
-        <v>1036461</v>
+        <v>892684</v>
       </c>
       <c r="AO41" s="11">
-        <v>892684</v>
+        <v>999753</v>
       </c>
       <c r="AP41" s="11">
-        <v>999753</v>
+        <v>895714</v>
       </c>
       <c r="AQ41" s="11">
-        <v>895714</v>
+        <v>346199</v>
       </c>
       <c r="AR41" s="11">
-        <v>346199</v>
+        <v>300889</v>
       </c>
       <c r="AS41" s="11">
-        <v>300889</v>
+        <v>713310</v>
       </c>
       <c r="AT41" s="11">
-        <v>713310</v>
+        <v>412705</v>
       </c>
       <c r="AU41" s="11">
-        <v>412705</v>
+        <v>723501</v>
       </c>
       <c r="AV41" s="11">
-        <v>723501</v>
+        <v>449699</v>
       </c>
       <c r="AW41" s="11">
-        <v>449699</v>
+        <v>1087993</v>
       </c>
       <c r="AX41" s="11">
-        <v>1087993</v>
+        <v>783911</v>
       </c>
       <c r="AY41" s="11">
-        <v>783911</v>
+        <v>388624</v>
       </c>
       <c r="AZ41" s="11">
-        <v>388624</v>
+        <v>623673</v>
       </c>
       <c r="BA41" s="11">
-        <v>623673</v>
+        <v>1186522</v>
       </c>
       <c r="BB41" s="11">
-        <v>1186522</v>
+        <v>613573</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>68</v>
       </c>
@@ -5027,7 +4992,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
@@ -5113,80 +5078,80 @@
       <c r="AD43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE43" s="11" t="s">
-        <v>60</v>
+      <c r="AE43" s="11">
+        <v>13884</v>
       </c>
       <c r="AF43" s="11">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG43" s="11">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH43" s="11">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI43" s="11">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ43" s="11">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK43" s="11">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL43" s="11">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM43" s="11">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN43" s="11">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO43" s="11">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP43" s="11">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ43" s="11">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR43" s="11">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS43" s="11">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT43" s="11">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU43" s="11">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV43" s="11">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW43" s="11">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX43" s="11">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY43" s="11">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ43" s="11">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA43" s="11">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB43" s="11">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>61</v>
       </c>
@@ -5272,80 +5237,80 @@
       <c r="AD44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE44" s="15" t="s">
-        <v>60</v>
+      <c r="AE44" s="15">
+        <v>13884</v>
       </c>
       <c r="AF44" s="15">
-        <v>13884</v>
+        <v>12532</v>
       </c>
       <c r="AG44" s="15">
-        <v>12532</v>
+        <v>23898</v>
       </c>
       <c r="AH44" s="15">
-        <v>23898</v>
+        <v>6243</v>
       </c>
       <c r="AI44" s="15">
-        <v>6243</v>
+        <v>19423</v>
       </c>
       <c r="AJ44" s="15">
-        <v>19423</v>
+        <v>14021</v>
       </c>
       <c r="AK44" s="15">
-        <v>14021</v>
+        <v>10992</v>
       </c>
       <c r="AL44" s="15">
-        <v>10992</v>
+        <v>13065</v>
       </c>
       <c r="AM44" s="15">
-        <v>13065</v>
+        <v>15243</v>
       </c>
       <c r="AN44" s="15">
-        <v>15243</v>
+        <v>9552</v>
       </c>
       <c r="AO44" s="15">
-        <v>9552</v>
+        <v>2730</v>
       </c>
       <c r="AP44" s="15">
-        <v>2730</v>
+        <v>23960</v>
       </c>
       <c r="AQ44" s="15">
-        <v>23960</v>
+        <v>14514</v>
       </c>
       <c r="AR44" s="15">
-        <v>14514</v>
+        <v>5465</v>
       </c>
       <c r="AS44" s="15">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="AT44" s="15">
-        <v>5470</v>
+        <v>2705</v>
       </c>
       <c r="AU44" s="15">
-        <v>2705</v>
+        <v>7394</v>
       </c>
       <c r="AV44" s="15">
-        <v>7394</v>
+        <v>7795</v>
       </c>
       <c r="AW44" s="15">
-        <v>7795</v>
+        <v>8456</v>
       </c>
       <c r="AX44" s="15">
-        <v>8456</v>
+        <v>5417</v>
       </c>
       <c r="AY44" s="15">
-        <v>5417</v>
+        <v>7186</v>
       </c>
       <c r="AZ44" s="15">
-        <v>7186</v>
+        <v>9422</v>
       </c>
       <c r="BA44" s="15">
-        <v>9422</v>
+        <v>10239</v>
       </c>
       <c r="BB44" s="15">
-        <v>10239</v>
+        <v>46557</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>69</v>
       </c>
@@ -5402,7 +5367,7 @@
       <c r="BA45" s="19"/>
       <c r="BB45" s="19"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>65</v>
       </c>
@@ -5488,8 +5453,8 @@
       <c r="AD46" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AE46" s="17" t="s">
-        <v>60</v>
+      <c r="AE46" s="17">
+        <v>0</v>
       </c>
       <c r="AF46" s="17">
         <v>0</v>
@@ -5561,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
@@ -5618,7 +5583,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>71</v>
       </c>
@@ -5704,237 +5669,237 @@
       <c r="AD48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE48" s="11" t="s">
-        <v>60</v>
+      <c r="AE48" s="11">
+        <v>0</v>
       </c>
       <c r="AF48" s="11">
-        <v>-31488</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="11">
-        <v>-56009</v>
+        <v>-170103</v>
       </c>
       <c r="AH48" s="11">
-        <v>-82605</v>
+        <v>-11564</v>
       </c>
       <c r="AI48" s="11">
-        <v>-11564</v>
+        <v>-54416</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-54416</v>
+        <v>-103909</v>
       </c>
       <c r="AK48" s="11">
-        <v>-103909</v>
+        <v>-235607</v>
       </c>
       <c r="AL48" s="11">
-        <v>-235607</v>
+        <v>-161691</v>
       </c>
       <c r="AM48" s="11">
-        <v>-161691</v>
+        <v>-119088</v>
       </c>
       <c r="AN48" s="11">
-        <v>-119088</v>
+        <v>-115277</v>
       </c>
       <c r="AO48" s="11">
-        <v>-115277</v>
+        <v>-112079</v>
       </c>
       <c r="AP48" s="11">
-        <v>-112079</v>
+        <v>-204882</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-204882</v>
+        <v>-36995</v>
       </c>
       <c r="AR48" s="11">
-        <v>-36995</v>
+        <v>-45946</v>
       </c>
       <c r="AS48" s="11">
-        <v>-45946</v>
+        <v>-46192</v>
       </c>
       <c r="AT48" s="11">
-        <v>-46192</v>
+        <v>-16286</v>
       </c>
       <c r="AU48" s="11">
-        <v>-16286</v>
+        <v>-37502</v>
       </c>
       <c r="AV48" s="11">
-        <v>-37502</v>
+        <v>-16386</v>
       </c>
       <c r="AW48" s="11">
-        <v>-16386</v>
+        <v>-40513</v>
       </c>
       <c r="AX48" s="11">
-        <v>-40513</v>
+        <v>-35307</v>
       </c>
       <c r="AY48" s="11">
-        <v>-35307</v>
+        <v>-28490</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-28490</v>
+        <v>-37223</v>
       </c>
       <c r="BA48" s="11">
-        <v>-37223</v>
+        <v>-53821</v>
       </c>
       <c r="BB48" s="11">
-        <v>-53821</v>
+        <v>-25696</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>511875</v>
+        <v>793589</v>
       </c>
       <c r="F49" s="15">
-        <v>793589</v>
+        <v>898009</v>
       </c>
       <c r="G49" s="15">
-        <v>898009</v>
+        <v>622082</v>
       </c>
       <c r="H49" s="15">
-        <v>622082</v>
+        <v>609026</v>
       </c>
       <c r="I49" s="15">
-        <v>609026</v>
+        <v>1139160</v>
       </c>
       <c r="J49" s="15">
-        <v>1139160</v>
+        <v>147119</v>
       </c>
       <c r="K49" s="15">
-        <v>147119</v>
+        <v>656422</v>
       </c>
       <c r="L49" s="15">
-        <v>656422</v>
+        <v>630018</v>
       </c>
       <c r="M49" s="15">
-        <v>630018</v>
+        <v>1067042</v>
       </c>
       <c r="N49" s="15">
-        <v>1067042</v>
+        <v>1216450</v>
       </c>
       <c r="O49" s="15">
-        <v>1216450</v>
+        <v>1100159</v>
       </c>
       <c r="P49" s="15">
-        <v>1100159</v>
+        <v>603029</v>
       </c>
       <c r="Q49" s="15">
-        <v>603029</v>
+        <v>1026985</v>
       </c>
       <c r="R49" s="15">
-        <v>1026985</v>
+        <v>1383703</v>
       </c>
       <c r="S49" s="15">
-        <v>1383703</v>
+        <v>607725</v>
       </c>
       <c r="T49" s="15">
-        <v>607725</v>
+        <v>893611</v>
       </c>
       <c r="U49" s="15">
-        <v>893611</v>
+        <v>1167494</v>
       </c>
       <c r="V49" s="15">
-        <v>1167494</v>
+        <v>226216</v>
       </c>
       <c r="W49" s="15">
-        <v>226216</v>
+        <v>1157387</v>
       </c>
       <c r="X49" s="15">
-        <v>1157387</v>
+        <v>1116544</v>
       </c>
       <c r="Y49" s="15">
-        <v>1116544</v>
+        <v>1390680</v>
       </c>
       <c r="Z49" s="15">
-        <v>1390680</v>
+        <v>1080612</v>
       </c>
       <c r="AA49" s="15">
-        <v>1080612</v>
+        <v>1029763</v>
       </c>
       <c r="AB49" s="15">
-        <v>1029763</v>
+        <v>1255515</v>
       </c>
       <c r="AC49" s="15">
-        <v>1255515</v>
+        <v>1929045</v>
       </c>
       <c r="AD49" s="15">
-        <v>1929045</v>
+        <v>2719235</v>
       </c>
       <c r="AE49" s="15">
-        <v>2719235</v>
+        <v>1146498</v>
       </c>
       <c r="AF49" s="15">
-        <v>1115010</v>
+        <v>1900667</v>
       </c>
       <c r="AG49" s="15">
-        <v>1844658</v>
+        <v>2207948</v>
       </c>
       <c r="AH49" s="15">
-        <v>2295446</v>
+        <v>749262</v>
       </c>
       <c r="AI49" s="15">
-        <v>749262</v>
+        <v>1613692</v>
       </c>
       <c r="AJ49" s="15">
-        <v>1613692</v>
+        <v>1833734</v>
       </c>
       <c r="AK49" s="15">
-        <v>1833734</v>
+        <v>2084927</v>
       </c>
       <c r="AL49" s="15">
-        <v>2084927</v>
+        <v>1899594</v>
       </c>
       <c r="AM49" s="15">
-        <v>1899594</v>
+        <v>2917059</v>
       </c>
       <c r="AN49" s="15">
-        <v>2917059</v>
+        <v>2744607</v>
       </c>
       <c r="AO49" s="15">
-        <v>2744607</v>
+        <v>3040704</v>
       </c>
       <c r="AP49" s="15">
-        <v>3040704</v>
+        <v>2917357</v>
       </c>
       <c r="AQ49" s="15">
-        <v>2917357</v>
+        <v>754233</v>
       </c>
       <c r="AR49" s="15">
-        <v>754233</v>
+        <v>1307811</v>
       </c>
       <c r="AS49" s="15">
-        <v>1307811</v>
+        <v>2295082</v>
       </c>
       <c r="AT49" s="15">
-        <v>2295082</v>
+        <v>1380521</v>
       </c>
       <c r="AU49" s="15">
-        <v>1380521</v>
+        <v>1865037</v>
       </c>
       <c r="AV49" s="15">
-        <v>1865037</v>
+        <v>1370626</v>
       </c>
       <c r="AW49" s="15">
-        <v>1370626</v>
+        <v>2281198</v>
       </c>
       <c r="AX49" s="15">
-        <v>2450616</v>
+        <v>2651117</v>
       </c>
       <c r="AY49" s="15">
-        <v>2651117</v>
+        <v>1837684</v>
       </c>
       <c r="AZ49" s="15">
-        <v>1837684</v>
+        <v>1912722</v>
       </c>
       <c r="BA49" s="15">
-        <v>1912722</v>
+        <v>2731261</v>
       </c>
       <c r="BB49" s="15">
-        <v>2731260</v>
+        <v>2108249</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5989,7 +5954,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6044,7 +6009,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6099,7 +6064,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
@@ -6256,7 +6221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6311,7 +6276,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>73</v>
       </c>
@@ -6368,7 +6333,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -6377,157 +6342,157 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>68677921</v>
+        <v>80201634</v>
       </c>
       <c r="F56" s="11">
-        <v>80201634</v>
+        <v>76755509</v>
       </c>
       <c r="G56" s="11">
-        <v>76755509</v>
+        <v>51142198</v>
       </c>
       <c r="H56" s="11">
-        <v>51142198</v>
+        <v>69225796</v>
       </c>
       <c r="I56" s="11">
-        <v>69225796</v>
+        <v>73693710</v>
       </c>
       <c r="J56" s="11">
-        <v>73693710</v>
+        <v>78756550</v>
       </c>
       <c r="K56" s="11">
-        <v>78756550</v>
+        <v>75634676</v>
       </c>
       <c r="L56" s="11">
-        <v>75634676</v>
+        <v>33631181</v>
       </c>
       <c r="M56" s="11">
-        <v>33631181</v>
+        <v>71107339</v>
       </c>
       <c r="N56" s="11">
-        <v>71107339</v>
+        <v>83177630</v>
       </c>
       <c r="O56" s="11">
-        <v>83177630</v>
+        <v>79880269</v>
       </c>
       <c r="P56" s="11">
-        <v>79880269</v>
+        <v>79733551</v>
       </c>
       <c r="Q56" s="11">
-        <v>79733551</v>
+        <v>89414438</v>
       </c>
       <c r="R56" s="11">
-        <v>89414438</v>
+        <v>87430860</v>
       </c>
       <c r="S56" s="11">
-        <v>87430860</v>
+        <v>76160096</v>
       </c>
       <c r="T56" s="11">
-        <v>76160096</v>
+        <v>86134554</v>
       </c>
       <c r="U56" s="11">
-        <v>86134554</v>
+        <v>86565504</v>
       </c>
       <c r="V56" s="11">
-        <v>86565504</v>
+        <v>122496396</v>
       </c>
       <c r="W56" s="11">
-        <v>122496396</v>
+        <v>117780099</v>
       </c>
       <c r="X56" s="11">
-        <v>117780099</v>
+        <v>89666258</v>
       </c>
       <c r="Y56" s="11">
-        <v>89666258</v>
+        <v>117769436</v>
       </c>
       <c r="Z56" s="11">
-        <v>117769436</v>
+        <v>133405765</v>
       </c>
       <c r="AA56" s="11">
-        <v>133405765</v>
+        <v>136208955</v>
       </c>
       <c r="AB56" s="11">
-        <v>136208955</v>
+        <v>151204475</v>
       </c>
       <c r="AC56" s="11">
-        <v>151204475</v>
+        <v>157466523</v>
       </c>
       <c r="AD56" s="11">
-        <v>157466523</v>
+        <v>159988992</v>
       </c>
       <c r="AE56" s="11">
-        <v>159988992</v>
+        <v>246308010</v>
       </c>
       <c r="AF56" s="11">
-        <v>246308010</v>
+        <v>233073424</v>
       </c>
       <c r="AG56" s="11">
-        <v>233073424</v>
+        <v>215712266</v>
       </c>
       <c r="AH56" s="11">
-        <v>215712266</v>
+        <v>248995189</v>
       </c>
       <c r="AI56" s="11">
-        <v>248995189</v>
+        <v>223978495</v>
       </c>
       <c r="AJ56" s="11">
-        <v>223978495</v>
+        <v>240543356</v>
       </c>
       <c r="AK56" s="11">
-        <v>240543356</v>
+        <v>269726563</v>
       </c>
       <c r="AL56" s="11">
-        <v>269726563</v>
+        <v>276330873</v>
       </c>
       <c r="AM56" s="11">
-        <v>276330873</v>
+        <v>286986162</v>
       </c>
       <c r="AN56" s="11">
-        <v>286986162</v>
+        <v>290278280</v>
       </c>
       <c r="AO56" s="11">
-        <v>290278280</v>
+        <v>286267451</v>
       </c>
       <c r="AP56" s="11">
-        <v>286267451</v>
+        <v>257093860</v>
       </c>
       <c r="AQ56" s="11">
-        <v>257093860</v>
+        <v>290801852</v>
       </c>
       <c r="AR56" s="11">
-        <v>290801852</v>
+        <v>317818078</v>
       </c>
       <c r="AS56" s="11">
-        <v>317818078</v>
+        <v>282463171</v>
       </c>
       <c r="AT56" s="11">
-        <v>282463171</v>
+        <v>333224212</v>
       </c>
       <c r="AU56" s="11">
-        <v>333224212</v>
+        <v>343675059</v>
       </c>
       <c r="AV56" s="11">
-        <v>343675059</v>
+        <v>403998810</v>
       </c>
       <c r="AW56" s="11">
-        <v>403998810</v>
+        <v>383169082</v>
       </c>
       <c r="AX56" s="11">
-        <v>383169082</v>
+        <v>415016667</v>
       </c>
       <c r="AY56" s="11">
-        <v>415016667</v>
+        <v>372902975</v>
       </c>
       <c r="AZ56" s="11">
-        <v>372902975</v>
+        <v>370764055</v>
       </c>
       <c r="BA56" s="11">
-        <v>370764055</v>
+        <v>1083814599</v>
       </c>
       <c r="BB56" s="11">
-        <v>161432634</v>
+        <v>128284251</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
@@ -6536,157 +6501,157 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>49879393</v>
+        <v>53161224</v>
       </c>
       <c r="F57" s="13">
-        <v>53161224</v>
+        <v>54577752</v>
       </c>
       <c r="G57" s="13">
-        <v>54577752</v>
+        <v>54115959</v>
       </c>
       <c r="H57" s="13">
-        <v>54115959</v>
+        <v>55919753</v>
       </c>
       <c r="I57" s="13">
-        <v>55919753</v>
+        <v>62905180</v>
       </c>
       <c r="J57" s="13">
-        <v>62905180</v>
+        <v>59018791</v>
       </c>
       <c r="K57" s="13">
-        <v>59018791</v>
+        <v>49285714</v>
       </c>
       <c r="L57" s="13">
-        <v>49285714</v>
+        <v>63771863</v>
       </c>
       <c r="M57" s="13">
-        <v>63771863</v>
+        <v>67860479</v>
       </c>
       <c r="N57" s="13">
-        <v>67860479</v>
+        <v>71116082</v>
       </c>
       <c r="O57" s="13">
-        <v>71116082</v>
+        <v>67037032</v>
       </c>
       <c r="P57" s="13">
-        <v>67037032</v>
+        <v>53276171</v>
       </c>
       <c r="Q57" s="13">
-        <v>53276171</v>
+        <v>62201151</v>
       </c>
       <c r="R57" s="13">
-        <v>62201151</v>
+        <v>50187219</v>
       </c>
       <c r="S57" s="13">
-        <v>50187219</v>
+        <v>64828875</v>
       </c>
       <c r="T57" s="13">
-        <v>64828875</v>
+        <v>68324852</v>
       </c>
       <c r="U57" s="13">
-        <v>68324852</v>
+        <v>69907891</v>
       </c>
       <c r="V57" s="13">
-        <v>69907891</v>
+        <v>43026230</v>
       </c>
       <c r="W57" s="13">
-        <v>43026230</v>
+        <v>61282409</v>
       </c>
       <c r="X57" s="13">
-        <v>61282409</v>
+        <v>60623761</v>
       </c>
       <c r="Y57" s="13">
-        <v>60623761</v>
+        <v>70852731</v>
       </c>
       <c r="Z57" s="13">
-        <v>70852731</v>
+        <v>89486256</v>
       </c>
       <c r="AA57" s="13">
-        <v>89486256</v>
+        <v>77993372</v>
       </c>
       <c r="AB57" s="13">
-        <v>77993372</v>
+        <v>93870075</v>
       </c>
       <c r="AC57" s="13">
-        <v>93870075</v>
+        <v>111775573</v>
       </c>
       <c r="AD57" s="13">
-        <v>111775573</v>
+        <v>112296073</v>
       </c>
       <c r="AE57" s="13">
-        <v>112296073</v>
+        <v>107190645</v>
       </c>
       <c r="AF57" s="13">
-        <v>107190645</v>
+        <v>107545738</v>
       </c>
       <c r="AG57" s="13">
-        <v>107545738</v>
+        <v>120122880</v>
       </c>
       <c r="AH57" s="13">
-        <v>120122880</v>
+        <v>82647486</v>
       </c>
       <c r="AI57" s="13">
-        <v>82647486</v>
+        <v>112176059</v>
       </c>
       <c r="AJ57" s="13">
-        <v>112176059</v>
+        <v>90367541</v>
       </c>
       <c r="AK57" s="13">
-        <v>90367541</v>
+        <v>146362352</v>
       </c>
       <c r="AL57" s="13">
-        <v>146362352</v>
+        <v>153447156</v>
       </c>
       <c r="AM57" s="13">
-        <v>153447156</v>
+        <v>141342477</v>
       </c>
       <c r="AN57" s="13">
-        <v>141342477</v>
+        <v>155641590</v>
       </c>
       <c r="AO57" s="13">
-        <v>155641590</v>
+        <v>145027156</v>
       </c>
       <c r="AP57" s="13">
-        <v>145027156</v>
+        <v>135771320</v>
       </c>
       <c r="AQ57" s="13">
-        <v>135771320</v>
+        <v>139627098</v>
       </c>
       <c r="AR57" s="13">
-        <v>139627098</v>
+        <v>142278565</v>
       </c>
       <c r="AS57" s="13">
-        <v>142278565</v>
+        <v>135288541</v>
       </c>
       <c r="AT57" s="13">
-        <v>135288541</v>
+        <v>118046193</v>
       </c>
       <c r="AU57" s="13">
-        <v>118046193</v>
+        <v>102014832</v>
       </c>
       <c r="AV57" s="13">
-        <v>122888411</v>
+        <v>129591348</v>
       </c>
       <c r="AW57" s="13">
-        <v>129591348</v>
+        <v>102095078</v>
       </c>
       <c r="AX57" s="13">
-        <v>127909188</v>
+        <v>120529901</v>
       </c>
       <c r="AY57" s="13">
-        <v>120529901</v>
+        <v>137724354</v>
       </c>
       <c r="AZ57" s="13">
-        <v>137724354</v>
+        <v>152574074</v>
       </c>
       <c r="BA57" s="13">
-        <v>152574074</v>
+        <v>108269295</v>
       </c>
       <c r="BB57" s="13">
-        <v>393019058</v>
+        <v>257828329</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
@@ -6695,157 +6660,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>123880976</v>
+        <v>127903245</v>
       </c>
       <c r="F58" s="11">
-        <v>127903245</v>
+        <v>132978786</v>
       </c>
       <c r="G58" s="11">
-        <v>132978786</v>
+        <v>129430769</v>
       </c>
       <c r="H58" s="11">
-        <v>129430769</v>
+        <v>129210438</v>
       </c>
       <c r="I58" s="11">
-        <v>129210438</v>
+        <v>128569819</v>
       </c>
       <c r="J58" s="11">
-        <v>128569819</v>
+        <v>136950000</v>
       </c>
       <c r="K58" s="11">
-        <v>136950000</v>
+        <v>124826015</v>
       </c>
       <c r="L58" s="11">
-        <v>124826015</v>
+        <v>141250000</v>
       </c>
       <c r="M58" s="11">
-        <v>141250000</v>
+        <v>156204868</v>
       </c>
       <c r="N58" s="11">
-        <v>156204868</v>
+        <v>158996693</v>
       </c>
       <c r="O58" s="11">
-        <v>158996693</v>
+        <v>156700218</v>
       </c>
       <c r="P58" s="11">
-        <v>156700218</v>
+        <v>160387812</v>
       </c>
       <c r="Q58" s="11">
-        <v>160387812</v>
+        <v>162937391</v>
       </c>
       <c r="R58" s="11">
-        <v>162937391</v>
+        <v>161795184</v>
       </c>
       <c r="S58" s="11">
-        <v>161795184</v>
+        <v>165069620</v>
       </c>
       <c r="T58" s="11">
-        <v>165069620</v>
+        <v>162892171</v>
       </c>
       <c r="U58" s="11">
-        <v>162892171</v>
+        <v>157354938</v>
       </c>
       <c r="V58" s="11">
-        <v>157354938</v>
+        <v>159819444</v>
       </c>
       <c r="W58" s="11">
-        <v>159819444</v>
+        <v>158657513</v>
       </c>
       <c r="X58" s="11">
-        <v>158657513</v>
+        <v>148522876</v>
       </c>
       <c r="Y58" s="11">
-        <v>148522876</v>
+        <v>172231800</v>
       </c>
       <c r="Z58" s="11">
-        <v>172231800</v>
+        <v>213084564</v>
       </c>
       <c r="AA58" s="11">
-        <v>213084564</v>
+        <v>208357208</v>
       </c>
       <c r="AB58" s="11">
-        <v>208357208</v>
+        <v>214920000</v>
       </c>
       <c r="AC58" s="11">
-        <v>214920000</v>
+        <v>282416476</v>
       </c>
       <c r="AD58" s="11">
-        <v>282416476</v>
+        <v>269316456</v>
       </c>
       <c r="AE58" s="11">
-        <v>269316456</v>
+        <v>296683437</v>
       </c>
       <c r="AF58" s="11">
-        <v>296683437</v>
+        <v>297135369</v>
       </c>
       <c r="AG58" s="11">
-        <v>297135369</v>
+        <v>297775844</v>
       </c>
       <c r="AH58" s="11">
-        <v>297775844</v>
+        <v>297020378</v>
       </c>
       <c r="AI58" s="11">
-        <v>297020378</v>
+        <v>300937166</v>
       </c>
       <c r="AJ58" s="11">
-        <v>300937166</v>
+        <v>324806405</v>
       </c>
       <c r="AK58" s="11">
-        <v>324806405</v>
+        <v>369887624</v>
       </c>
       <c r="AL58" s="11">
-        <v>369887624</v>
+        <v>360971748</v>
       </c>
       <c r="AM58" s="11">
-        <v>360971748</v>
+        <v>370826834</v>
       </c>
       <c r="AN58" s="11">
-        <v>370826834</v>
+        <v>366755957</v>
       </c>
       <c r="AO58" s="11">
-        <v>366755957</v>
+        <v>362360638</v>
       </c>
       <c r="AP58" s="11">
-        <v>362360638</v>
+        <v>361612434</v>
       </c>
       <c r="AQ58" s="11">
-        <v>361612434</v>
+        <v>364804004</v>
       </c>
       <c r="AR58" s="11">
-        <v>364804004</v>
+        <v>368285190</v>
       </c>
       <c r="AS58" s="11">
-        <v>368285190</v>
+        <v>370166061</v>
       </c>
       <c r="AT58" s="11">
-        <v>370166061</v>
+        <v>366523091</v>
       </c>
       <c r="AU58" s="11">
-        <v>366523091</v>
+        <v>369510215</v>
       </c>
       <c r="AV58" s="11">
-        <v>369510215</v>
+        <v>445687810</v>
       </c>
       <c r="AW58" s="11">
-        <v>445687810</v>
+        <v>456756087</v>
       </c>
       <c r="AX58" s="11">
-        <v>456756087</v>
+        <v>447437785</v>
       </c>
       <c r="AY58" s="11">
-        <v>447437785</v>
+        <v>457204706</v>
       </c>
       <c r="AZ58" s="11">
-        <v>457204706</v>
+        <v>501344855</v>
       </c>
       <c r="BA58" s="11">
-        <v>501344855</v>
+        <v>540310565</v>
       </c>
       <c r="BB58" s="11">
-        <v>540310565</v>
+        <v>545398222</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>75</v>
       </c>
@@ -6902,7 +6867,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
@@ -6988,77 +6953,77 @@
       <c r="AD60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE60" s="11" t="s">
-        <v>60</v>
+      <c r="AE60" s="11">
+        <v>19229917</v>
       </c>
       <c r="AF60" s="11">
-        <v>19229917</v>
+        <v>19369397</v>
       </c>
       <c r="AG60" s="11">
-        <v>19369397</v>
+        <v>28586124</v>
       </c>
       <c r="AH60" s="11">
-        <v>28586124</v>
+        <v>24773810</v>
       </c>
       <c r="AI60" s="11">
-        <v>24773810</v>
+        <v>25828457</v>
       </c>
       <c r="AJ60" s="11">
-        <v>25828457</v>
+        <v>25354430</v>
       </c>
       <c r="AK60" s="11">
-        <v>25354430</v>
+        <v>27411471</v>
       </c>
       <c r="AL60" s="11">
-        <v>27411471</v>
+        <v>25974155</v>
       </c>
       <c r="AM60" s="11">
-        <v>25974155</v>
+        <v>26509565</v>
       </c>
       <c r="AN60" s="11">
-        <v>26509565</v>
+        <v>27136364</v>
       </c>
       <c r="AO60" s="11">
-        <v>27136364</v>
+        <v>26504854</v>
       </c>
       <c r="AP60" s="11">
-        <v>26504854</v>
+        <v>26504425</v>
       </c>
       <c r="AQ60" s="11">
-        <v>26504425</v>
+        <v>27436673</v>
       </c>
       <c r="AR60" s="11">
-        <v>27436673</v>
+        <v>34588608</v>
       </c>
       <c r="AS60" s="11">
-        <v>34588608</v>
+        <v>34402516</v>
       </c>
       <c r="AT60" s="11">
-        <v>34402516</v>
+        <v>34679487</v>
       </c>
       <c r="AU60" s="11">
-        <v>34679487</v>
+        <v>34551402</v>
       </c>
       <c r="AV60" s="11">
-        <v>34551402</v>
+        <v>34491150</v>
       </c>
       <c r="AW60" s="11">
-        <v>34491150</v>
+        <v>34655738</v>
       </c>
       <c r="AX60" s="11">
-        <v>34655738</v>
+        <v>34724359</v>
       </c>
       <c r="AY60" s="11">
-        <v>34724359</v>
+        <v>34548077</v>
       </c>
       <c r="AZ60" s="11">
-        <v>34548077</v>
+        <v>34512821</v>
       </c>
       <c r="BA60" s="11">
-        <v>34512821</v>
+        <v>34474747</v>
       </c>
       <c r="BB60" s="11">
-        <v>34474747</v>
+        <v>215541667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shepaksa/product/monthly.xlsx
+++ b/database/industries/shoyande/shepaksa/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shoyande\shepaksa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D983D-08BC-4749-835B-47D3D508E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 1 منتهی به 1397/10</t>
   </si>
   <si>
@@ -184,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +446,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1371,154 +1406,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2994</v>
+        <v>2801</v>
       </c>
       <c r="F11" s="11">
-        <v>3800</v>
+        <v>2770</v>
       </c>
       <c r="G11" s="11">
-        <v>2801</v>
+        <v>4603</v>
       </c>
       <c r="H11" s="11">
-        <v>2770</v>
+        <v>1170</v>
       </c>
       <c r="I11" s="11">
-        <v>4603</v>
+        <v>4413</v>
       </c>
       <c r="J11" s="11">
-        <v>1170</v>
+        <v>1764</v>
       </c>
       <c r="K11" s="11">
-        <v>4413</v>
+        <v>3522</v>
       </c>
       <c r="L11" s="11">
-        <v>1764</v>
+        <v>3374</v>
       </c>
       <c r="M11" s="11">
-        <v>3522</v>
+        <v>3606</v>
       </c>
       <c r="N11" s="11">
-        <v>3374</v>
+        <v>3729</v>
       </c>
       <c r="O11" s="11">
-        <v>3606</v>
+        <v>3007</v>
       </c>
       <c r="P11" s="11">
-        <v>3729</v>
+        <v>4682</v>
       </c>
       <c r="Q11" s="11">
-        <v>3007</v>
+        <v>3252</v>
       </c>
       <c r="R11" s="11">
-        <v>4682</v>
+        <v>2091</v>
       </c>
       <c r="S11" s="11">
-        <v>3252</v>
+        <v>3230</v>
       </c>
       <c r="T11" s="11">
-        <v>2091</v>
+        <v>1394</v>
       </c>
       <c r="U11" s="11">
-        <v>3230</v>
+        <v>3281</v>
       </c>
       <c r="V11" s="11">
-        <v>1394</v>
+        <v>3857</v>
       </c>
       <c r="W11" s="11">
-        <v>3281</v>
+        <v>4685</v>
       </c>
       <c r="X11" s="11">
-        <v>3857</v>
+        <v>2018</v>
       </c>
       <c r="Y11" s="11">
-        <v>4685</v>
+        <v>4065</v>
       </c>
       <c r="Z11" s="11">
-        <v>2018</v>
+        <v>3828</v>
       </c>
       <c r="AA11" s="11">
-        <v>4065</v>
+        <v>4104</v>
       </c>
       <c r="AB11" s="11">
-        <v>3828</v>
+        <v>5137</v>
       </c>
       <c r="AC11" s="11">
-        <v>4104</v>
+        <v>1587</v>
       </c>
       <c r="AD11" s="11">
-        <v>5137</v>
+        <v>2560</v>
       </c>
       <c r="AE11" s="11">
-        <v>1587</v>
+        <v>2549</v>
       </c>
       <c r="AF11" s="11">
-        <v>2560</v>
+        <v>1822</v>
       </c>
       <c r="AG11" s="11">
-        <v>2549</v>
+        <v>2160</v>
       </c>
       <c r="AH11" s="11">
-        <v>1822</v>
+        <v>3535</v>
       </c>
       <c r="AI11" s="11">
-        <v>2160</v>
+        <v>2717</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3535</v>
+        <v>2341</v>
       </c>
       <c r="AK11" s="11">
-        <v>2717</v>
+        <v>3156</v>
       </c>
       <c r="AL11" s="11">
-        <v>2341</v>
+        <v>3084</v>
       </c>
       <c r="AM11" s="11">
-        <v>3156</v>
+        <v>4125</v>
       </c>
       <c r="AN11" s="11">
-        <v>3084</v>
+        <v>5623</v>
       </c>
       <c r="AO11" s="11">
-        <v>4125</v>
+        <v>795</v>
       </c>
       <c r="AP11" s="11">
-        <v>5623</v>
+        <v>1366</v>
       </c>
       <c r="AQ11" s="11">
-        <v>795</v>
+        <v>2679</v>
       </c>
       <c r="AR11" s="11">
-        <v>1366</v>
+        <v>1456</v>
       </c>
       <c r="AS11" s="11">
-        <v>2679</v>
+        <v>1610</v>
       </c>
       <c r="AT11" s="11">
-        <v>1456</v>
+        <v>1214</v>
       </c>
       <c r="AU11" s="11">
-        <v>1610</v>
+        <v>1324</v>
       </c>
       <c r="AV11" s="11">
-        <v>1214</v>
+        <v>2525</v>
       </c>
       <c r="AW11" s="11">
-        <v>1324</v>
+        <v>1419</v>
       </c>
       <c r="AX11" s="11">
-        <v>2525</v>
+        <v>1101</v>
       </c>
       <c r="AY11" s="11">
-        <v>1419</v>
+        <v>5800</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1101</v>
+        <v>1385</v>
       </c>
       <c r="BA11" s="11">
-        <v>2154</v>
+        <v>912</v>
       </c>
       <c r="BB11" s="11">
-        <v>1385</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1530,154 +1565,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>6251</v>
+        <v>4585</v>
       </c>
       <c r="F12" s="13">
-        <v>7022</v>
+        <v>3601</v>
       </c>
       <c r="G12" s="13">
-        <v>4585</v>
+        <v>6973</v>
       </c>
       <c r="H12" s="13">
-        <v>3601</v>
+        <v>1809</v>
       </c>
       <c r="I12" s="13">
-        <v>6973</v>
+        <v>3745</v>
       </c>
       <c r="J12" s="13">
-        <v>1809</v>
+        <v>5653</v>
       </c>
       <c r="K12" s="13">
-        <v>3745</v>
+        <v>8783</v>
       </c>
       <c r="L12" s="13">
-        <v>5653</v>
+        <v>6879</v>
       </c>
       <c r="M12" s="13">
-        <v>8783</v>
+        <v>7133</v>
       </c>
       <c r="N12" s="13">
-        <v>6879</v>
+        <v>3913</v>
       </c>
       <c r="O12" s="13">
-        <v>7133</v>
+        <v>5465</v>
       </c>
       <c r="P12" s="13">
-        <v>3913</v>
+        <v>6974</v>
       </c>
       <c r="Q12" s="13">
-        <v>5465</v>
+        <v>5070</v>
       </c>
       <c r="R12" s="13">
-        <v>6974</v>
+        <v>5120</v>
       </c>
       <c r="S12" s="13">
-        <v>5070</v>
+        <v>5960</v>
       </c>
       <c r="T12" s="13">
-        <v>5120</v>
+        <v>2979</v>
       </c>
       <c r="U12" s="13">
-        <v>5960</v>
+        <v>6456</v>
       </c>
       <c r="V12" s="13">
-        <v>2979</v>
+        <v>5139</v>
       </c>
       <c r="W12" s="13">
-        <v>6456</v>
+        <v>7714</v>
       </c>
       <c r="X12" s="13">
-        <v>5139</v>
+        <v>3558</v>
       </c>
       <c r="Y12" s="13">
-        <v>7714</v>
+        <v>4138</v>
       </c>
       <c r="Z12" s="13">
-        <v>3558</v>
+        <v>3976</v>
       </c>
       <c r="AA12" s="13">
-        <v>4138</v>
+        <v>6814</v>
       </c>
       <c r="AB12" s="13">
-        <v>3976</v>
+        <v>8093</v>
       </c>
       <c r="AC12" s="13">
-        <v>6814</v>
+        <v>4723</v>
       </c>
       <c r="AD12" s="13">
-        <v>8093</v>
+        <v>4742</v>
       </c>
       <c r="AE12" s="13">
-        <v>4723</v>
+        <v>5846</v>
       </c>
       <c r="AF12" s="13">
-        <v>4742</v>
+        <v>3613</v>
       </c>
       <c r="AG12" s="13">
-        <v>5846</v>
+        <v>4217</v>
       </c>
       <c r="AH12" s="13">
-        <v>3613</v>
+        <v>5232</v>
       </c>
       <c r="AI12" s="13">
-        <v>4217</v>
+        <v>6749</v>
       </c>
       <c r="AJ12" s="13">
-        <v>5232</v>
+        <v>5262</v>
       </c>
       <c r="AK12" s="13">
-        <v>6749</v>
+        <v>6788</v>
       </c>
       <c r="AL12" s="13">
-        <v>5262</v>
+        <v>6186</v>
       </c>
       <c r="AM12" s="13">
-        <v>6788</v>
+        <v>7465</v>
       </c>
       <c r="AN12" s="13">
-        <v>6186</v>
+        <v>7585</v>
       </c>
       <c r="AO12" s="13">
-        <v>7465</v>
+        <v>2177</v>
       </c>
       <c r="AP12" s="13">
-        <v>7585</v>
+        <v>2510</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2177</v>
+        <v>5890</v>
       </c>
       <c r="AR12" s="13">
-        <v>2510</v>
+        <v>3302</v>
       </c>
       <c r="AS12" s="13">
-        <v>5890</v>
+        <v>4031</v>
       </c>
       <c r="AT12" s="13">
-        <v>3302</v>
+        <v>5701</v>
       </c>
       <c r="AU12" s="13">
-        <v>4031</v>
+        <v>6793</v>
       </c>
       <c r="AV12" s="13">
-        <v>5701</v>
+        <v>6969</v>
       </c>
       <c r="AW12" s="13">
-        <v>6793</v>
+        <v>6369</v>
       </c>
       <c r="AX12" s="13">
-        <v>6969</v>
+        <v>5801</v>
       </c>
       <c r="AY12" s="13">
-        <v>6369</v>
+        <v>2157</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5801</v>
+        <v>5113</v>
       </c>
       <c r="BA12" s="13">
-        <v>5802</v>
+        <v>2690</v>
       </c>
       <c r="BB12" s="13">
-        <v>5113</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1689,154 +1724,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1688</v>
+        <v>1826</v>
       </c>
       <c r="F13" s="11">
-        <v>1678</v>
+        <v>1304</v>
       </c>
       <c r="G13" s="11">
-        <v>1826</v>
+        <v>1944</v>
       </c>
       <c r="H13" s="11">
-        <v>1304</v>
+        <v>129</v>
       </c>
       <c r="I13" s="11">
-        <v>1944</v>
+        <v>2013</v>
       </c>
       <c r="J13" s="11">
-        <v>129</v>
+        <v>906</v>
       </c>
       <c r="K13" s="11">
-        <v>2013</v>
+        <v>2356</v>
       </c>
       <c r="L13" s="11">
-        <v>906</v>
+        <v>1874</v>
       </c>
       <c r="M13" s="11">
-        <v>2356</v>
+        <v>2262</v>
       </c>
       <c r="N13" s="11">
-        <v>1874</v>
+        <v>1702</v>
       </c>
       <c r="O13" s="11">
-        <v>2262</v>
+        <v>2060</v>
       </c>
       <c r="P13" s="11">
-        <v>1702</v>
+        <v>3134</v>
       </c>
       <c r="Q13" s="11">
-        <v>2060</v>
+        <v>1835</v>
       </c>
       <c r="R13" s="11">
-        <v>3134</v>
+        <v>1738</v>
       </c>
       <c r="S13" s="11">
-        <v>1835</v>
+        <v>1742</v>
       </c>
       <c r="T13" s="11">
-        <v>1738</v>
+        <v>1077</v>
       </c>
       <c r="U13" s="11">
-        <v>1742</v>
+        <v>2050</v>
       </c>
       <c r="V13" s="11">
-        <v>1077</v>
+        <v>2009</v>
       </c>
       <c r="W13" s="11">
-        <v>2050</v>
+        <v>2329</v>
       </c>
       <c r="X13" s="11">
-        <v>2009</v>
+        <v>1365</v>
       </c>
       <c r="Y13" s="11">
-        <v>2329</v>
+        <v>1019</v>
       </c>
       <c r="Z13" s="11">
-        <v>1365</v>
+        <v>1537</v>
       </c>
       <c r="AA13" s="11">
-        <v>1019</v>
+        <v>2306</v>
       </c>
       <c r="AB13" s="11">
-        <v>1537</v>
+        <v>3049</v>
       </c>
       <c r="AC13" s="11">
-        <v>2306</v>
+        <v>2136</v>
       </c>
       <c r="AD13" s="11">
-        <v>3049</v>
+        <v>2369</v>
       </c>
       <c r="AE13" s="11">
-        <v>2136</v>
+        <v>1960</v>
       </c>
       <c r="AF13" s="11">
-        <v>2369</v>
+        <v>1436</v>
       </c>
       <c r="AG13" s="11">
-        <v>1960</v>
+        <v>1462</v>
       </c>
       <c r="AH13" s="11">
-        <v>1436</v>
+        <v>1577</v>
       </c>
       <c r="AI13" s="11">
-        <v>1462</v>
+        <v>2504</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1577</v>
+        <v>1691</v>
       </c>
       <c r="AK13" s="11">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="AL13" s="11">
-        <v>1691</v>
+        <v>2456</v>
       </c>
       <c r="AM13" s="11">
-        <v>2505</v>
+        <v>2964</v>
       </c>
       <c r="AN13" s="11">
-        <v>2456</v>
+        <v>3066</v>
       </c>
       <c r="AO13" s="11">
-        <v>2964</v>
+        <v>798</v>
       </c>
       <c r="AP13" s="11">
-        <v>3066</v>
+        <v>1082</v>
       </c>
       <c r="AQ13" s="11">
-        <v>798</v>
+        <v>1757</v>
       </c>
       <c r="AR13" s="11">
-        <v>1082</v>
+        <v>1184</v>
       </c>
       <c r="AS13" s="11">
-        <v>1757</v>
+        <v>1311</v>
       </c>
       <c r="AT13" s="11">
-        <v>1184</v>
+        <v>1878</v>
       </c>
       <c r="AU13" s="11">
-        <v>1311</v>
+        <v>2432</v>
       </c>
       <c r="AV13" s="11">
-        <v>1878</v>
+        <v>1443</v>
       </c>
       <c r="AW13" s="11">
-        <v>2432</v>
+        <v>851</v>
       </c>
       <c r="AX13" s="11">
-        <v>1443</v>
+        <v>874</v>
       </c>
       <c r="AY13" s="11">
-        <v>851</v>
+        <v>2430</v>
       </c>
       <c r="AZ13" s="11">
-        <v>874</v>
+        <v>2193</v>
       </c>
       <c r="BA13" s="11">
-        <v>2430</v>
+        <v>872</v>
       </c>
       <c r="BB13" s="11">
-        <v>2193</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1976,83 +2011,83 @@
       <c r="AB15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>60</v>
+      <c r="AC15" s="11">
+        <v>723</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>647</v>
       </c>
       <c r="AE15" s="11">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="AF15" s="11">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG15" s="11">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH15" s="11">
-        <v>252</v>
+        <v>563</v>
       </c>
       <c r="AI15" s="11">
-        <v>752</v>
+        <v>482</v>
       </c>
       <c r="AJ15" s="11">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AK15" s="11">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="AL15" s="11">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="AM15" s="11">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="AN15" s="11">
-        <v>420</v>
+        <v>636</v>
       </c>
       <c r="AO15" s="11">
-        <v>160</v>
+        <v>529</v>
       </c>
       <c r="AP15" s="11">
-        <v>636</v>
+        <v>159</v>
       </c>
       <c r="AQ15" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR15" s="11">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AS15" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT15" s="11">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AU15" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV15" s="11">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW15" s="11">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX15" s="11">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY15" s="11">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ15" s="11">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA15" s="11">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB15" s="11">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2133,11 +2168,11 @@
       <c r="AB16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AC16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD16" s="15" t="s">
-        <v>60</v>
+      <c r="AC16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>0</v>
       </c>
       <c r="AE16" s="15">
         <v>0</v>
@@ -2219,154 +2254,154 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
-        <v>10933</v>
+        <v>9212</v>
       </c>
       <c r="F17" s="17">
-        <v>12500</v>
+        <v>7675</v>
       </c>
       <c r="G17" s="17">
-        <v>9212</v>
+        <v>13520</v>
       </c>
       <c r="H17" s="17">
-        <v>7675</v>
+        <v>3108</v>
       </c>
       <c r="I17" s="17">
-        <v>13520</v>
+        <v>10171</v>
       </c>
       <c r="J17" s="17">
-        <v>3108</v>
+        <v>8323</v>
       </c>
       <c r="K17" s="17">
-        <v>10171</v>
+        <v>14661</v>
       </c>
       <c r="L17" s="17">
-        <v>8323</v>
+        <v>12127</v>
       </c>
       <c r="M17" s="17">
-        <v>14661</v>
+        <v>13001</v>
       </c>
       <c r="N17" s="17">
-        <v>12127</v>
+        <v>9344</v>
       </c>
       <c r="O17" s="17">
-        <v>13001</v>
+        <v>10532</v>
       </c>
       <c r="P17" s="17">
-        <v>9344</v>
+        <v>14790</v>
       </c>
       <c r="Q17" s="17">
-        <v>10532</v>
+        <v>10157</v>
       </c>
       <c r="R17" s="17">
-        <v>14790</v>
+        <v>8949</v>
       </c>
       <c r="S17" s="17">
-        <v>10157</v>
+        <v>10932</v>
       </c>
       <c r="T17" s="17">
-        <v>8949</v>
+        <v>5450</v>
       </c>
       <c r="U17" s="17">
-        <v>10932</v>
+        <v>11787</v>
       </c>
       <c r="V17" s="17">
-        <v>5450</v>
+        <v>11005</v>
       </c>
       <c r="W17" s="17">
-        <v>11787</v>
+        <v>14728</v>
       </c>
       <c r="X17" s="17">
-        <v>11005</v>
+        <v>6941</v>
       </c>
       <c r="Y17" s="17">
-        <v>14728</v>
+        <v>9222</v>
       </c>
       <c r="Z17" s="17">
-        <v>6941</v>
+        <v>9341</v>
       </c>
       <c r="AA17" s="17">
-        <v>9222</v>
+        <v>13224</v>
       </c>
       <c r="AB17" s="17">
-        <v>9341</v>
+        <v>16279</v>
       </c>
       <c r="AC17" s="17">
-        <v>13224</v>
+        <v>9169</v>
       </c>
       <c r="AD17" s="17">
-        <v>16279</v>
+        <v>10318</v>
       </c>
       <c r="AE17" s="17">
-        <v>9169</v>
+        <v>11191</v>
       </c>
       <c r="AF17" s="17">
-        <v>10318</v>
+        <v>7123</v>
       </c>
       <c r="AG17" s="17">
-        <v>11191</v>
+        <v>8591</v>
       </c>
       <c r="AH17" s="17">
-        <v>7123</v>
+        <v>10907</v>
       </c>
       <c r="AI17" s="17">
-        <v>8591</v>
+        <v>12452</v>
       </c>
       <c r="AJ17" s="17">
-        <v>10907</v>
+        <v>9850</v>
       </c>
       <c r="AK17" s="17">
-        <v>12452</v>
+        <v>13024</v>
       </c>
       <c r="AL17" s="17">
-        <v>9850</v>
+        <v>12146</v>
       </c>
       <c r="AM17" s="17">
-        <v>13024</v>
+        <v>14714</v>
       </c>
       <c r="AN17" s="17">
-        <v>12146</v>
+        <v>16910</v>
       </c>
       <c r="AO17" s="17">
-        <v>14714</v>
+        <v>4299</v>
       </c>
       <c r="AP17" s="17">
-        <v>16910</v>
+        <v>5117</v>
       </c>
       <c r="AQ17" s="17">
-        <v>4299</v>
+        <v>10485</v>
       </c>
       <c r="AR17" s="17">
-        <v>5117</v>
+        <v>6019</v>
       </c>
       <c r="AS17" s="17">
-        <v>10485</v>
+        <v>7166</v>
       </c>
       <c r="AT17" s="17">
-        <v>6019</v>
+        <v>9019</v>
       </c>
       <c r="AU17" s="17">
-        <v>7166</v>
+        <v>10793</v>
       </c>
       <c r="AV17" s="17">
-        <v>9019</v>
+        <v>11093</v>
       </c>
       <c r="AW17" s="17">
-        <v>10793</v>
+        <v>8847</v>
       </c>
       <c r="AX17" s="17">
-        <v>11093</v>
+        <v>8049</v>
       </c>
       <c r="AY17" s="17">
-        <v>8847</v>
+        <v>10684</v>
       </c>
       <c r="AZ17" s="17">
-        <v>8049</v>
+        <v>8907</v>
       </c>
       <c r="BA17" s="17">
-        <v>10683</v>
+        <v>4847</v>
       </c>
       <c r="BB17" s="17">
-        <v>8907</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
@@ -2812,154 +2847,154 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>3060</v>
+        <v>2602</v>
       </c>
       <c r="F24" s="11">
-        <v>3812</v>
+        <v>3047</v>
       </c>
       <c r="G24" s="11">
-        <v>2602</v>
+        <v>4992</v>
       </c>
       <c r="H24" s="11">
-        <v>3047</v>
+        <v>916</v>
       </c>
       <c r="I24" s="11">
-        <v>4992</v>
+        <v>4470</v>
       </c>
       <c r="J24" s="11">
-        <v>916</v>
+        <v>1719</v>
       </c>
       <c r="K24" s="11">
-        <v>4470</v>
+        <v>3093</v>
       </c>
       <c r="L24" s="11">
-        <v>1719</v>
+        <v>3603</v>
       </c>
       <c r="M24" s="11">
-        <v>3093</v>
+        <v>3867</v>
       </c>
       <c r="N24" s="11">
-        <v>3603</v>
+        <v>3374</v>
       </c>
       <c r="O24" s="11">
-        <v>3867</v>
+        <v>3103</v>
       </c>
       <c r="P24" s="11">
-        <v>3374</v>
+        <v>4932</v>
       </c>
       <c r="Q24" s="11">
-        <v>3103</v>
+        <v>2917</v>
       </c>
       <c r="R24" s="11">
-        <v>4932</v>
+        <v>2512</v>
       </c>
       <c r="S24" s="11">
-        <v>2917</v>
+        <v>3183</v>
       </c>
       <c r="T24" s="11">
-        <v>2512</v>
+        <v>1110</v>
       </c>
       <c r="U24" s="11">
-        <v>3183</v>
+        <v>3447</v>
       </c>
       <c r="V24" s="11">
-        <v>1110</v>
+        <v>4081</v>
       </c>
       <c r="W24" s="11">
-        <v>3447</v>
+        <v>4502</v>
       </c>
       <c r="X24" s="11">
-        <v>4081</v>
+        <v>2255</v>
       </c>
       <c r="Y24" s="11">
-        <v>4502</v>
+        <v>3886</v>
       </c>
       <c r="Z24" s="11">
-        <v>2255</v>
+        <v>3844</v>
       </c>
       <c r="AA24" s="11">
-        <v>3886</v>
+        <v>4182</v>
       </c>
       <c r="AB24" s="11">
-        <v>3844</v>
+        <v>3997</v>
       </c>
       <c r="AC24" s="11">
-        <v>4182</v>
+        <v>1935</v>
       </c>
       <c r="AD24" s="11">
-        <v>3997</v>
+        <v>2792</v>
       </c>
       <c r="AE24" s="11">
-        <v>1935</v>
+        <v>3041</v>
       </c>
       <c r="AF24" s="11">
-        <v>2792</v>
+        <v>1663</v>
       </c>
       <c r="AG24" s="11">
-        <v>3041</v>
+        <v>2418</v>
       </c>
       <c r="AH24" s="11">
-        <v>1663</v>
+        <v>3552</v>
       </c>
       <c r="AI24" s="11">
-        <v>2418</v>
+        <v>2560</v>
       </c>
       <c r="AJ24" s="11">
-        <v>3552</v>
+        <v>2303</v>
       </c>
       <c r="AK24" s="11">
-        <v>2560</v>
+        <v>3252</v>
       </c>
       <c r="AL24" s="11">
-        <v>2303</v>
+        <v>3209</v>
       </c>
       <c r="AM24" s="11">
-        <v>3252</v>
+        <v>3911</v>
       </c>
       <c r="AN24" s="11">
-        <v>3209</v>
+        <v>4251</v>
       </c>
       <c r="AO24" s="11">
-        <v>3911</v>
+        <v>1080</v>
       </c>
       <c r="AP24" s="11">
-        <v>4251</v>
+        <v>1748</v>
       </c>
       <c r="AQ24" s="11">
-        <v>1080</v>
+        <v>3299</v>
       </c>
       <c r="AR24" s="11">
-        <v>1748</v>
+        <v>1396</v>
       </c>
       <c r="AS24" s="11">
-        <v>3299</v>
+        <v>1708</v>
       </c>
       <c r="AT24" s="11">
-        <v>1396</v>
+        <v>840</v>
       </c>
       <c r="AU24" s="11">
-        <v>1708</v>
+        <v>1449</v>
       </c>
       <c r="AV24" s="11">
-        <v>840</v>
+        <v>2580</v>
       </c>
       <c r="AW24" s="11">
-        <v>1449</v>
+        <v>1412</v>
       </c>
       <c r="AX24" s="11">
-        <v>2580</v>
+        <v>1174</v>
       </c>
       <c r="AY24" s="11">
-        <v>1412</v>
+        <v>5240</v>
       </c>
       <c r="AZ24" s="11">
-        <v>1174</v>
+        <v>4394</v>
       </c>
       <c r="BA24" s="11">
-        <v>-685</v>
+        <v>912</v>
       </c>
       <c r="BB24" s="11">
-        <v>4394</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
@@ -2971,154 +3006,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>6308</v>
+        <v>4217</v>
       </c>
       <c r="F25" s="13">
-        <v>6958</v>
+        <v>4374</v>
       </c>
       <c r="G25" s="13">
-        <v>4217</v>
+        <v>7182</v>
       </c>
       <c r="H25" s="13">
-        <v>4374</v>
+        <v>1224</v>
       </c>
       <c r="I25" s="13">
-        <v>7182</v>
+        <v>3402</v>
       </c>
       <c r="J25" s="13">
-        <v>1224</v>
+        <v>6049</v>
       </c>
       <c r="K25" s="13">
-        <v>3402</v>
+        <v>6809</v>
       </c>
       <c r="L25" s="13">
-        <v>6049</v>
+        <v>8158</v>
       </c>
       <c r="M25" s="13">
-        <v>6809</v>
+        <v>7507</v>
       </c>
       <c r="N25" s="13">
-        <v>8158</v>
+        <v>3009</v>
       </c>
       <c r="O25" s="13">
-        <v>7507</v>
+        <v>4519</v>
       </c>
       <c r="P25" s="13">
-        <v>3009</v>
+        <v>8669</v>
       </c>
       <c r="Q25" s="13">
-        <v>4519</v>
+        <v>2729</v>
       </c>
       <c r="R25" s="13">
-        <v>8669</v>
+        <v>5070</v>
       </c>
       <c r="S25" s="13">
-        <v>2729</v>
+        <v>7654</v>
       </c>
       <c r="T25" s="13">
-        <v>5070</v>
+        <v>1830</v>
       </c>
       <c r="U25" s="13">
-        <v>7654</v>
+        <v>5662</v>
       </c>
       <c r="V25" s="13">
-        <v>1830</v>
+        <v>6759</v>
       </c>
       <c r="W25" s="13">
-        <v>5662</v>
+        <v>6702</v>
       </c>
       <c r="X25" s="13">
-        <v>6759</v>
+        <v>5166</v>
       </c>
       <c r="Y25" s="13">
-        <v>6702</v>
+        <v>3470</v>
       </c>
       <c r="Z25" s="13">
-        <v>5166</v>
+        <v>4264</v>
       </c>
       <c r="AA25" s="13">
-        <v>3470</v>
+        <v>5846</v>
       </c>
       <c r="AB25" s="13">
-        <v>4264</v>
+        <v>9805</v>
       </c>
       <c r="AC25" s="13">
-        <v>5846</v>
+        <v>2544</v>
       </c>
       <c r="AD25" s="13">
-        <v>9805</v>
+        <v>5444</v>
       </c>
       <c r="AE25" s="13">
-        <v>2544</v>
+        <v>7015</v>
       </c>
       <c r="AF25" s="13">
-        <v>5444</v>
+        <v>1651</v>
       </c>
       <c r="AG25" s="13">
-        <v>7015</v>
+        <v>5856</v>
       </c>
       <c r="AH25" s="13">
-        <v>1651</v>
+        <v>4424</v>
       </c>
       <c r="AI25" s="13">
-        <v>5856</v>
+        <v>5732</v>
       </c>
       <c r="AJ25" s="13">
-        <v>4424</v>
+        <v>5204</v>
       </c>
       <c r="AK25" s="13">
-        <v>5732</v>
+        <v>7437</v>
       </c>
       <c r="AL25" s="13">
-        <v>5204</v>
+        <v>6593</v>
       </c>
       <c r="AM25" s="13">
-        <v>7437</v>
+        <v>7107</v>
       </c>
       <c r="AN25" s="13">
-        <v>6593</v>
+        <v>8173</v>
       </c>
       <c r="AO25" s="13">
-        <v>7107</v>
+        <v>834</v>
       </c>
       <c r="AP25" s="13">
-        <v>8173</v>
+        <v>3457</v>
       </c>
       <c r="AQ25" s="13">
-        <v>834</v>
+        <v>5105</v>
       </c>
       <c r="AR25" s="13">
-        <v>3457</v>
+        <v>4373</v>
       </c>
       <c r="AS25" s="13">
-        <v>5105</v>
+        <v>5731</v>
       </c>
       <c r="AT25" s="13">
-        <v>4373</v>
+        <v>4554</v>
       </c>
       <c r="AU25" s="13">
-        <v>5731</v>
+        <v>6563</v>
       </c>
       <c r="AV25" s="13">
-        <v>4554</v>
+        <v>6856</v>
       </c>
       <c r="AW25" s="13">
-        <v>6563</v>
+        <v>6853</v>
       </c>
       <c r="AX25" s="13">
-        <v>6856</v>
+        <v>5778</v>
       </c>
       <c r="AY25" s="13">
-        <v>6853</v>
+        <v>1889</v>
       </c>
       <c r="AZ25" s="13">
-        <v>5778</v>
+        <v>3530</v>
       </c>
       <c r="BA25" s="13">
-        <v>7813</v>
+        <v>3961</v>
       </c>
       <c r="BB25" s="13">
-        <v>3530</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
@@ -3130,154 +3165,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1664</v>
+        <v>2015</v>
       </c>
       <c r="F26" s="11">
-        <v>1697</v>
+        <v>1188</v>
       </c>
       <c r="G26" s="11">
-        <v>2015</v>
+        <v>2485</v>
       </c>
       <c r="H26" s="11">
-        <v>1188</v>
+        <v>20</v>
       </c>
       <c r="I26" s="11">
-        <v>2485</v>
+        <v>1207</v>
       </c>
       <c r="J26" s="11">
-        <v>20</v>
+        <v>1320</v>
       </c>
       <c r="K26" s="11">
-        <v>1207</v>
+        <v>2465</v>
       </c>
       <c r="L26" s="11">
-        <v>1320</v>
+        <v>2117</v>
       </c>
       <c r="M26" s="11">
-        <v>2465</v>
+        <v>1838</v>
       </c>
       <c r="N26" s="11">
-        <v>2117</v>
+        <v>1083</v>
       </c>
       <c r="O26" s="11">
-        <v>1838</v>
+        <v>2875</v>
       </c>
       <c r="P26" s="11">
-        <v>1083</v>
+        <v>3198</v>
       </c>
       <c r="Q26" s="11">
-        <v>2875</v>
+        <v>1264</v>
       </c>
       <c r="R26" s="11">
-        <v>3198</v>
+        <v>2031</v>
       </c>
       <c r="S26" s="11">
-        <v>1264</v>
+        <v>2268</v>
       </c>
       <c r="T26" s="11">
-        <v>2031</v>
+        <v>72</v>
       </c>
       <c r="U26" s="11">
-        <v>2268</v>
+        <v>2549</v>
       </c>
       <c r="V26" s="11">
-        <v>72</v>
+        <v>2295</v>
       </c>
       <c r="W26" s="11">
-        <v>2549</v>
+        <v>2239</v>
       </c>
       <c r="X26" s="11">
-        <v>2295</v>
+        <v>1490</v>
       </c>
       <c r="Y26" s="11">
-        <v>2239</v>
+        <v>1103</v>
       </c>
       <c r="Z26" s="11">
-        <v>1490</v>
+        <v>1275</v>
       </c>
       <c r="AA26" s="11">
-        <v>1103</v>
+        <v>2185</v>
       </c>
       <c r="AB26" s="11">
-        <v>1275</v>
+        <v>3634</v>
       </c>
       <c r="AC26" s="11">
-        <v>2185</v>
+        <v>1292</v>
       </c>
       <c r="AD26" s="11">
-        <v>3634</v>
+        <v>2194</v>
       </c>
       <c r="AE26" s="11">
-        <v>1292</v>
+        <v>2873</v>
       </c>
       <c r="AF26" s="11">
-        <v>2194</v>
+        <v>687</v>
       </c>
       <c r="AG26" s="11">
-        <v>2873</v>
+        <v>1496</v>
       </c>
       <c r="AH26" s="11">
-        <v>687</v>
+        <v>2061</v>
       </c>
       <c r="AI26" s="11">
-        <v>1496</v>
+        <v>2109</v>
       </c>
       <c r="AJ26" s="11">
-        <v>2061</v>
+        <v>1699</v>
       </c>
       <c r="AK26" s="11">
-        <v>2109</v>
+        <v>2795</v>
       </c>
       <c r="AL26" s="11">
-        <v>1699</v>
+        <v>2434</v>
       </c>
       <c r="AM26" s="11">
-        <v>2795</v>
+        <v>2759</v>
       </c>
       <c r="AN26" s="11">
-        <v>2434</v>
+        <v>2477</v>
       </c>
       <c r="AO26" s="11">
-        <v>2759</v>
+        <v>949</v>
       </c>
       <c r="AP26" s="11">
-        <v>2477</v>
+        <v>817</v>
       </c>
       <c r="AQ26" s="11">
-        <v>949</v>
+        <v>1927</v>
       </c>
       <c r="AR26" s="11">
-        <v>817</v>
+        <v>1126</v>
       </c>
       <c r="AS26" s="11">
-        <v>1927</v>
+        <v>1958</v>
       </c>
       <c r="AT26" s="11">
-        <v>1126</v>
+        <v>1009</v>
       </c>
       <c r="AU26" s="11">
-        <v>1958</v>
+        <v>2382</v>
       </c>
       <c r="AV26" s="11">
-        <v>1009</v>
+        <v>1752</v>
       </c>
       <c r="AW26" s="11">
-        <v>2382</v>
+        <v>850</v>
       </c>
       <c r="AX26" s="11">
-        <v>1752</v>
+        <v>1244</v>
       </c>
       <c r="AY26" s="11">
-        <v>850</v>
+        <v>2196</v>
       </c>
       <c r="AZ26" s="11">
-        <v>1244</v>
+        <v>1125</v>
       </c>
       <c r="BA26" s="11">
-        <v>2196</v>
+        <v>1353</v>
       </c>
       <c r="BB26" s="11">
-        <v>1125</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -3417,83 +3452,83 @@
       <c r="AB28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>60</v>
+      <c r="AC28" s="11">
+        <v>722</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>647</v>
       </c>
       <c r="AE28" s="11">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="AF28" s="11">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG28" s="11">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH28" s="11">
-        <v>252</v>
+        <v>553</v>
       </c>
       <c r="AI28" s="11">
-        <v>752</v>
+        <v>401</v>
       </c>
       <c r="AJ28" s="11">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="AK28" s="11">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="AL28" s="11">
-        <v>503</v>
+        <v>352</v>
       </c>
       <c r="AM28" s="11">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="AN28" s="11">
-        <v>352</v>
+        <v>904</v>
       </c>
       <c r="AO28" s="11">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="AP28" s="11">
-        <v>904</v>
+        <v>158</v>
       </c>
       <c r="AQ28" s="11">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR28" s="11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AS28" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT28" s="11">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AU28" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV28" s="11">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW28" s="11">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX28" s="11">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY28" s="11">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ28" s="11">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA28" s="11">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB28" s="11">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
@@ -3574,83 +3609,83 @@
       <c r="AB29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AC29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>60</v>
+      <c r="AC29" s="15">
+        <v>722</v>
+      </c>
+      <c r="AD29" s="15">
+        <v>647</v>
       </c>
       <c r="AE29" s="15">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="AF29" s="15">
-        <v>647</v>
+        <v>252</v>
       </c>
       <c r="AG29" s="15">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AH29" s="15">
-        <v>252</v>
+        <v>553</v>
       </c>
       <c r="AI29" s="15">
-        <v>752</v>
+        <v>401</v>
       </c>
       <c r="AJ29" s="15">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="AK29" s="15">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="AL29" s="15">
-        <v>503</v>
+        <v>352</v>
       </c>
       <c r="AM29" s="15">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="AN29" s="15">
-        <v>352</v>
+        <v>904</v>
       </c>
       <c r="AO29" s="15">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="AP29" s="15">
-        <v>904</v>
+        <v>158</v>
       </c>
       <c r="AQ29" s="15">
-        <v>529</v>
+        <v>159</v>
       </c>
       <c r="AR29" s="15">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AS29" s="15">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AT29" s="15">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AU29" s="15">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AV29" s="15">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="AW29" s="15">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AX29" s="15">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="AY29" s="15">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="AZ29" s="15">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="BA29" s="15">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="BB29" s="15">
-        <v>216</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
@@ -3788,11 +3823,11 @@
       <c r="AB31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AC31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD31" s="17" t="s">
-        <v>60</v>
+      <c r="AC31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>0</v>
       </c>
       <c r="AE31" s="17">
         <v>0</v>
@@ -3874,154 +3909,154 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>11032</v>
+        <v>8834</v>
       </c>
       <c r="F32" s="15">
-        <v>12467</v>
+        <v>8609</v>
       </c>
       <c r="G32" s="15">
-        <v>8834</v>
+        <v>14659</v>
       </c>
       <c r="H32" s="15">
-        <v>8609</v>
+        <v>2160</v>
       </c>
       <c r="I32" s="15">
-        <v>14659</v>
+        <v>9079</v>
       </c>
       <c r="J32" s="15">
-        <v>2160</v>
+        <v>9088</v>
       </c>
       <c r="K32" s="15">
-        <v>9079</v>
+        <v>12367</v>
       </c>
       <c r="L32" s="15">
-        <v>9088</v>
+        <v>13878</v>
       </c>
       <c r="M32" s="15">
-        <v>12367</v>
+        <v>13212</v>
       </c>
       <c r="N32" s="15">
-        <v>13878</v>
+        <v>7466</v>
       </c>
       <c r="O32" s="15">
-        <v>13212</v>
+        <v>10497</v>
       </c>
       <c r="P32" s="15">
-        <v>7466</v>
+        <v>16799</v>
       </c>
       <c r="Q32" s="15">
-        <v>10497</v>
+        <v>6910</v>
       </c>
       <c r="R32" s="15">
-        <v>16799</v>
+        <v>9613</v>
       </c>
       <c r="S32" s="15">
-        <v>6910</v>
+        <v>13105</v>
       </c>
       <c r="T32" s="15">
-        <v>9613</v>
+        <v>3012</v>
       </c>
       <c r="U32" s="15">
-        <v>13105</v>
+        <v>11658</v>
       </c>
       <c r="V32" s="15">
-        <v>3012</v>
+        <v>13135</v>
       </c>
       <c r="W32" s="15">
-        <v>11658</v>
+        <v>13443</v>
       </c>
       <c r="X32" s="15">
-        <v>13135</v>
+        <v>8911</v>
       </c>
       <c r="Y32" s="15">
-        <v>13443</v>
+        <v>8459</v>
       </c>
       <c r="Z32" s="15">
-        <v>8911</v>
+        <v>9383</v>
       </c>
       <c r="AA32" s="15">
-        <v>8459</v>
+        <v>12213</v>
       </c>
       <c r="AB32" s="15">
-        <v>9383</v>
+        <v>17436</v>
       </c>
       <c r="AC32" s="15">
-        <v>12213</v>
+        <v>6493</v>
       </c>
       <c r="AD32" s="15">
-        <v>17436</v>
+        <v>11077</v>
       </c>
       <c r="AE32" s="15">
-        <v>6493</v>
+        <v>13765</v>
       </c>
       <c r="AF32" s="15">
-        <v>11077</v>
+        <v>4253</v>
       </c>
       <c r="AG32" s="15">
-        <v>13765</v>
+        <v>10522</v>
       </c>
       <c r="AH32" s="15">
-        <v>4253</v>
+        <v>10590</v>
       </c>
       <c r="AI32" s="15">
-        <v>10522</v>
+        <v>10802</v>
       </c>
       <c r="AJ32" s="15">
-        <v>10590</v>
+        <v>9709</v>
       </c>
       <c r="AK32" s="15">
-        <v>10802</v>
+        <v>14059</v>
       </c>
       <c r="AL32" s="15">
-        <v>9709</v>
+        <v>12588</v>
       </c>
       <c r="AM32" s="15">
-        <v>14059</v>
+        <v>13880</v>
       </c>
       <c r="AN32" s="15">
-        <v>12588</v>
+        <v>15805</v>
       </c>
       <c r="AO32" s="15">
-        <v>13880</v>
+        <v>3392</v>
       </c>
       <c r="AP32" s="15">
-        <v>15805</v>
+        <v>6180</v>
       </c>
       <c r="AQ32" s="15">
-        <v>3392</v>
+        <v>10490</v>
       </c>
       <c r="AR32" s="15">
-        <v>6180</v>
+        <v>6973</v>
       </c>
       <c r="AS32" s="15">
-        <v>10490</v>
+        <v>9611</v>
       </c>
       <c r="AT32" s="15">
-        <v>6973</v>
+        <v>6629</v>
       </c>
       <c r="AU32" s="15">
-        <v>9611</v>
+        <v>10638</v>
       </c>
       <c r="AV32" s="15">
-        <v>6629</v>
+        <v>11344</v>
       </c>
       <c r="AW32" s="15">
-        <v>10638</v>
+        <v>9323</v>
       </c>
       <c r="AX32" s="15">
-        <v>11344</v>
+        <v>8469</v>
       </c>
       <c r="AY32" s="15">
-        <v>9323</v>
+        <v>9622</v>
       </c>
       <c r="AZ32" s="15">
-        <v>8469</v>
+        <v>9265</v>
       </c>
       <c r="BA32" s="15">
-        <v>9621</v>
+        <v>6599</v>
       </c>
       <c r="BB32" s="15">
-        <v>9265</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
@@ -4467,154 +4502,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>245417</v>
+        <v>133072</v>
       </c>
       <c r="F39" s="11">
-        <v>292592</v>
+        <v>210931</v>
       </c>
       <c r="G39" s="11">
-        <v>133072</v>
+        <v>367879</v>
       </c>
       <c r="H39" s="11">
-        <v>210931</v>
+        <v>72141</v>
       </c>
       <c r="I39" s="11">
-        <v>367879</v>
+        <v>338087</v>
       </c>
       <c r="J39" s="11">
-        <v>72141</v>
+        <v>57812</v>
       </c>
       <c r="K39" s="11">
-        <v>338087</v>
+        <v>219935</v>
       </c>
       <c r="L39" s="11">
-        <v>57812</v>
+        <v>299689</v>
       </c>
       <c r="M39" s="11">
-        <v>219935</v>
+        <v>308897</v>
       </c>
       <c r="N39" s="11">
-        <v>299689</v>
+        <v>269021</v>
       </c>
       <c r="O39" s="11">
-        <v>308897</v>
+        <v>277453</v>
       </c>
       <c r="P39" s="11">
-        <v>269021</v>
+        <v>431209</v>
       </c>
       <c r="Q39" s="11">
-        <v>277453</v>
+        <v>222159</v>
       </c>
       <c r="R39" s="11">
-        <v>431209</v>
+        <v>216370</v>
       </c>
       <c r="S39" s="11">
-        <v>222159</v>
+        <v>275538</v>
       </c>
       <c r="T39" s="11">
-        <v>216370</v>
+        <v>135971</v>
       </c>
       <c r="U39" s="11">
-        <v>275538</v>
+        <v>405988</v>
       </c>
       <c r="V39" s="11">
-        <v>135971</v>
+        <v>365928</v>
       </c>
       <c r="W39" s="11">
-        <v>405988</v>
+        <v>530198</v>
       </c>
       <c r="X39" s="11">
-        <v>365928</v>
+        <v>300830</v>
       </c>
       <c r="Y39" s="11">
-        <v>530198</v>
+        <v>529308</v>
       </c>
       <c r="Z39" s="11">
-        <v>300830</v>
+        <v>581230</v>
       </c>
       <c r="AA39" s="11">
-        <v>529308</v>
+        <v>658525</v>
       </c>
       <c r="AB39" s="11">
-        <v>581230</v>
+        <v>639476</v>
       </c>
       <c r="AC39" s="11">
-        <v>658525</v>
+        <v>476606</v>
       </c>
       <c r="AD39" s="11">
-        <v>639476</v>
+        <v>650741</v>
       </c>
       <c r="AE39" s="11">
-        <v>476606</v>
+        <v>655981</v>
       </c>
       <c r="AF39" s="11">
-        <v>650741</v>
+        <v>414079</v>
       </c>
       <c r="AG39" s="11">
-        <v>655981</v>
+        <v>541580</v>
       </c>
       <c r="AH39" s="11">
-        <v>414079</v>
+        <v>854410</v>
       </c>
       <c r="AI39" s="11">
-        <v>541580</v>
+        <v>690500</v>
       </c>
       <c r="AJ39" s="11">
-        <v>854410</v>
+        <v>636390</v>
       </c>
       <c r="AK39" s="11">
-        <v>690500</v>
+        <v>933279</v>
       </c>
       <c r="AL39" s="11">
-        <v>636390</v>
+        <v>931503</v>
       </c>
       <c r="AM39" s="11">
-        <v>933279</v>
+        <v>1119592</v>
       </c>
       <c r="AN39" s="11">
-        <v>931503</v>
+        <v>1092906</v>
       </c>
       <c r="AO39" s="11">
-        <v>1119592</v>
+        <v>314066</v>
       </c>
       <c r="AP39" s="11">
-        <v>1092906</v>
+        <v>555546</v>
       </c>
       <c r="AQ39" s="11">
-        <v>314066</v>
+        <v>931846</v>
       </c>
       <c r="AR39" s="11">
-        <v>555546</v>
+        <v>465181</v>
       </c>
       <c r="AS39" s="11">
-        <v>931846</v>
+        <v>586997</v>
       </c>
       <c r="AT39" s="11">
-        <v>465181</v>
+        <v>339359</v>
       </c>
       <c r="AU39" s="11">
-        <v>586997</v>
+        <v>555212</v>
       </c>
       <c r="AV39" s="11">
-        <v>339359</v>
+        <v>1070743</v>
       </c>
       <c r="AW39" s="11">
-        <v>555212</v>
+        <v>526539</v>
       </c>
       <c r="AX39" s="11">
-        <v>1070743</v>
+        <v>435277</v>
       </c>
       <c r="AY39" s="11">
-        <v>526539</v>
+        <v>845907</v>
       </c>
       <c r="AZ39" s="11">
-        <v>435277</v>
+        <v>563681</v>
       </c>
       <c r="BA39" s="11">
-        <v>742413</v>
+        <v>299100</v>
       </c>
       <c r="BB39" s="11">
-        <v>563681</v>
+        <v>515454</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -4626,154 +4661,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>335341</v>
+        <v>228207</v>
       </c>
       <c r="F40" s="13">
-        <v>379752</v>
+        <v>244593</v>
       </c>
       <c r="G40" s="13">
-        <v>228207</v>
+        <v>451785</v>
       </c>
       <c r="H40" s="13">
-        <v>244593</v>
+        <v>72239</v>
       </c>
       <c r="I40" s="13">
-        <v>451785</v>
+        <v>167670</v>
       </c>
       <c r="J40" s="13">
-        <v>72239</v>
+        <v>385756</v>
       </c>
       <c r="K40" s="13">
-        <v>167670</v>
+        <v>462062</v>
       </c>
       <c r="L40" s="13">
-        <v>385756</v>
+        <v>580165</v>
       </c>
       <c r="M40" s="13">
-        <v>462062</v>
+        <v>503247</v>
       </c>
       <c r="N40" s="13">
-        <v>580165</v>
+        <v>160308</v>
       </c>
       <c r="O40" s="13">
-        <v>503247</v>
+        <v>281087</v>
       </c>
       <c r="P40" s="13">
-        <v>160308</v>
+        <v>435073</v>
       </c>
       <c r="Q40" s="13">
-        <v>281087</v>
+        <v>176918</v>
       </c>
       <c r="R40" s="13">
-        <v>435073</v>
+        <v>346407</v>
       </c>
       <c r="S40" s="13">
-        <v>176918</v>
+        <v>535075</v>
       </c>
       <c r="T40" s="13">
-        <v>346407</v>
+        <v>78738</v>
       </c>
       <c r="U40" s="13">
-        <v>535075</v>
+        <v>346981</v>
       </c>
       <c r="V40" s="13">
-        <v>78738</v>
+        <v>409756</v>
       </c>
       <c r="W40" s="13">
-        <v>346981</v>
+        <v>474855</v>
       </c>
       <c r="X40" s="13">
-        <v>409756</v>
+        <v>462286</v>
       </c>
       <c r="Y40" s="13">
-        <v>474855</v>
+        <v>270637</v>
       </c>
       <c r="Z40" s="13">
-        <v>462286</v>
+        <v>400262</v>
       </c>
       <c r="AA40" s="13">
-        <v>270637</v>
+        <v>653440</v>
       </c>
       <c r="AB40" s="13">
-        <v>400262</v>
+        <v>1101063</v>
       </c>
       <c r="AC40" s="13">
-        <v>653440</v>
+        <v>272693</v>
       </c>
       <c r="AD40" s="13">
-        <v>1101063</v>
+        <v>585479</v>
       </c>
       <c r="AE40" s="13">
-        <v>272693</v>
+        <v>842662</v>
       </c>
       <c r="AF40" s="13">
-        <v>585479</v>
+        <v>136451</v>
       </c>
       <c r="AG40" s="13">
-        <v>842662</v>
+        <v>656903</v>
       </c>
       <c r="AH40" s="13">
-        <v>136451</v>
+        <v>399786</v>
       </c>
       <c r="AI40" s="13">
-        <v>656903</v>
+        <v>838949</v>
       </c>
       <c r="AJ40" s="13">
-        <v>399786</v>
+        <v>798539</v>
       </c>
       <c r="AK40" s="13">
-        <v>838949</v>
+        <v>1051164</v>
       </c>
       <c r="AL40" s="13">
-        <v>798539</v>
+        <v>1026145</v>
       </c>
       <c r="AM40" s="13">
-        <v>1051164</v>
+        <v>1030708</v>
       </c>
       <c r="AN40" s="13">
-        <v>1026145</v>
+        <v>1109659</v>
       </c>
       <c r="AO40" s="13">
-        <v>1030708</v>
+        <v>116449</v>
       </c>
       <c r="AP40" s="13">
-        <v>1109659</v>
+        <v>491857</v>
       </c>
       <c r="AQ40" s="13">
-        <v>116449</v>
+        <v>690648</v>
       </c>
       <c r="AR40" s="13">
-        <v>491857</v>
+        <v>516216</v>
       </c>
       <c r="AS40" s="13">
-        <v>690648</v>
+        <v>754065</v>
       </c>
       <c r="AT40" s="13">
-        <v>516216</v>
+        <v>590159</v>
       </c>
       <c r="AU40" s="13">
-        <v>584647</v>
+        <v>839468</v>
       </c>
       <c r="AV40" s="13">
-        <v>590159</v>
+        <v>826353</v>
       </c>
       <c r="AW40" s="13">
-        <v>670050</v>
+        <v>943825</v>
       </c>
       <c r="AX40" s="13">
-        <v>826353</v>
+        <v>881573</v>
       </c>
       <c r="AY40" s="13">
-        <v>943825</v>
+        <v>742413</v>
       </c>
       <c r="AZ40" s="13">
-        <v>881573</v>
+        <v>910134</v>
       </c>
       <c r="BA40" s="13">
-        <v>845908</v>
+        <v>688230</v>
       </c>
       <c r="BB40" s="13">
-        <v>910134</v>
+        <v>712889</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -4785,154 +4820,154 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>212831</v>
+        <v>260803</v>
       </c>
       <c r="F41" s="11">
-        <v>225665</v>
+        <v>153502</v>
       </c>
       <c r="G41" s="11">
-        <v>260803</v>
+        <v>319496</v>
       </c>
       <c r="H41" s="11">
-        <v>153502</v>
+        <v>2739</v>
       </c>
       <c r="I41" s="11">
-        <v>319496</v>
+        <v>150665</v>
       </c>
       <c r="J41" s="11">
-        <v>2739</v>
+        <v>186450</v>
       </c>
       <c r="K41" s="11">
-        <v>150665</v>
+        <v>385045</v>
       </c>
       <c r="L41" s="11">
-        <v>186450</v>
+        <v>336596</v>
       </c>
       <c r="M41" s="11">
-        <v>385045</v>
+        <v>288015</v>
       </c>
       <c r="N41" s="11">
-        <v>336596</v>
+        <v>173700</v>
       </c>
       <c r="O41" s="11">
-        <v>288015</v>
+        <v>468445</v>
       </c>
       <c r="P41" s="11">
-        <v>173700</v>
+        <v>517421</v>
       </c>
       <c r="Q41" s="11">
-        <v>468445</v>
+        <v>208648</v>
       </c>
       <c r="R41" s="11">
-        <v>517421</v>
+        <v>330834</v>
       </c>
       <c r="S41" s="11">
-        <v>208648</v>
+        <v>356881</v>
       </c>
       <c r="T41" s="11">
-        <v>330834</v>
+        <v>11507</v>
       </c>
       <c r="U41" s="11">
-        <v>356881</v>
+        <v>404418</v>
       </c>
       <c r="V41" s="11">
-        <v>11507</v>
+        <v>340860</v>
       </c>
       <c r="W41" s="11">
-        <v>404418</v>
+        <v>385627</v>
       </c>
       <c r="X41" s="11">
-        <v>340860</v>
+        <v>317496</v>
       </c>
       <c r="Y41" s="11">
-        <v>385627</v>
+        <v>229818</v>
       </c>
       <c r="Z41" s="11">
-        <v>317496</v>
+        <v>274023</v>
       </c>
       <c r="AA41" s="11">
-        <v>229818</v>
+        <v>617080</v>
       </c>
       <c r="AB41" s="11">
-        <v>274023</v>
+        <v>978696</v>
       </c>
       <c r="AC41" s="11">
-        <v>617080</v>
+        <v>383315</v>
       </c>
       <c r="AD41" s="11">
-        <v>978696</v>
+        <v>651915</v>
       </c>
       <c r="AE41" s="11">
-        <v>383315</v>
+        <v>855510</v>
       </c>
       <c r="AF41" s="11">
-        <v>651915</v>
+        <v>204053</v>
       </c>
       <c r="AG41" s="11">
-        <v>855510</v>
+        <v>450202</v>
       </c>
       <c r="AH41" s="11">
-        <v>204053</v>
+        <v>669426</v>
       </c>
       <c r="AI41" s="11">
-        <v>450202</v>
+        <v>780093</v>
       </c>
       <c r="AJ41" s="11">
-        <v>669426</v>
+        <v>613291</v>
       </c>
       <c r="AK41" s="11">
-        <v>780093</v>
+        <v>1036461</v>
       </c>
       <c r="AL41" s="11">
-        <v>613291</v>
+        <v>892684</v>
       </c>
       <c r="AM41" s="11">
-        <v>1036461</v>
+        <v>999753</v>
       </c>
       <c r="AN41" s="11">
-        <v>892684</v>
+        <v>895714</v>
       </c>
       <c r="AO41" s="11">
-        <v>999753</v>
+        <v>346199</v>
       </c>
       <c r="AP41" s="11">
-        <v>895714</v>
+        <v>300889</v>
       </c>
       <c r="AQ41" s="11">
-        <v>346199</v>
+        <v>713310</v>
       </c>
       <c r="AR41" s="11">
-        <v>300889</v>
+        <v>412705</v>
       </c>
       <c r="AS41" s="11">
-        <v>713310</v>
+        <v>723501</v>
       </c>
       <c r="AT41" s="11">
-        <v>412705</v>
+        <v>449699</v>
       </c>
       <c r="AU41" s="11">
-        <v>723501</v>
+        <v>1087993</v>
       </c>
       <c r="AV41" s="11">
-        <v>449699</v>
+        <v>783911</v>
       </c>
       <c r="AW41" s="11">
-        <v>1087993</v>
+        <v>388624</v>
       </c>
       <c r="AX41" s="11">
-        <v>783911</v>
+        <v>623673</v>
       </c>
       <c r="AY41" s="11">
-        <v>388624</v>
+        <v>1186522</v>
       </c>
       <c r="AZ41" s="11">
-        <v>623673</v>
+        <v>613573</v>
       </c>
       <c r="BA41" s="11">
-        <v>1186522</v>
+        <v>740173</v>
       </c>
       <c r="BB41" s="11">
-        <v>613573</v>
+        <v>828103</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -5072,83 +5107,83 @@
       <c r="AB43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>60</v>
+      <c r="AC43" s="11">
+        <v>13884</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>12532</v>
       </c>
       <c r="AE43" s="11">
-        <v>13884</v>
+        <v>23898</v>
       </c>
       <c r="AF43" s="11">
-        <v>12532</v>
+        <v>6243</v>
       </c>
       <c r="AG43" s="11">
-        <v>23898</v>
+        <v>19423</v>
       </c>
       <c r="AH43" s="11">
-        <v>6243</v>
+        <v>14021</v>
       </c>
       <c r="AI43" s="11">
-        <v>19423</v>
+        <v>10992</v>
       </c>
       <c r="AJ43" s="11">
-        <v>14021</v>
+        <v>13065</v>
       </c>
       <c r="AK43" s="11">
-        <v>10992</v>
+        <v>15243</v>
       </c>
       <c r="AL43" s="11">
-        <v>13065</v>
+        <v>9552</v>
       </c>
       <c r="AM43" s="11">
-        <v>15243</v>
+        <v>2730</v>
       </c>
       <c r="AN43" s="11">
-        <v>9552</v>
+        <v>23960</v>
       </c>
       <c r="AO43" s="11">
-        <v>2730</v>
+        <v>14514</v>
       </c>
       <c r="AP43" s="11">
-        <v>23960</v>
+        <v>5465</v>
       </c>
       <c r="AQ43" s="11">
-        <v>14514</v>
+        <v>5470</v>
       </c>
       <c r="AR43" s="11">
-        <v>5465</v>
+        <v>2705</v>
       </c>
       <c r="AS43" s="11">
-        <v>5470</v>
+        <v>7394</v>
       </c>
       <c r="AT43" s="11">
-        <v>2705</v>
+        <v>7795</v>
       </c>
       <c r="AU43" s="11">
-        <v>7394</v>
+        <v>8456</v>
       </c>
       <c r="AV43" s="11">
-        <v>7795</v>
+        <v>5417</v>
       </c>
       <c r="AW43" s="11">
-        <v>8456</v>
+        <v>7186</v>
       </c>
       <c r="AX43" s="11">
-        <v>5417</v>
+        <v>9422</v>
       </c>
       <c r="AY43" s="11">
-        <v>7186</v>
+        <v>10239</v>
       </c>
       <c r="AZ43" s="11">
-        <v>9422</v>
+        <v>46557</v>
       </c>
       <c r="BA43" s="11">
-        <v>10239</v>
+        <v>20818</v>
       </c>
       <c r="BB43" s="11">
-        <v>46557</v>
+        <v>39732</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -5231,83 +5266,83 @@
       <c r="AB44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AC44" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD44" s="15" t="s">
-        <v>60</v>
+      <c r="AC44" s="15">
+        <v>13884</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>12532</v>
       </c>
       <c r="AE44" s="15">
-        <v>13884</v>
+        <v>23898</v>
       </c>
       <c r="AF44" s="15">
-        <v>12532</v>
+        <v>6243</v>
       </c>
       <c r="AG44" s="15">
-        <v>23898</v>
+        <v>19423</v>
       </c>
       <c r="AH44" s="15">
-        <v>6243</v>
+        <v>14021</v>
       </c>
       <c r="AI44" s="15">
-        <v>19423</v>
+        <v>10992</v>
       </c>
       <c r="AJ44" s="15">
-        <v>14021</v>
+        <v>13065</v>
       </c>
       <c r="AK44" s="15">
-        <v>10992</v>
+        <v>15243</v>
       </c>
       <c r="AL44" s="15">
-        <v>13065</v>
+        <v>9552</v>
       </c>
       <c r="AM44" s="15">
-        <v>15243</v>
+        <v>2730</v>
       </c>
       <c r="AN44" s="15">
-        <v>9552</v>
+        <v>23960</v>
       </c>
       <c r="AO44" s="15">
-        <v>2730</v>
+        <v>14514</v>
       </c>
       <c r="AP44" s="15">
-        <v>23960</v>
+        <v>5465</v>
       </c>
       <c r="AQ44" s="15">
-        <v>14514</v>
+        <v>5470</v>
       </c>
       <c r="AR44" s="15">
-        <v>5465</v>
+        <v>2705</v>
       </c>
       <c r="AS44" s="15">
-        <v>5470</v>
+        <v>7394</v>
       </c>
       <c r="AT44" s="15">
-        <v>2705</v>
+        <v>7795</v>
       </c>
       <c r="AU44" s="15">
-        <v>7394</v>
+        <v>8456</v>
       </c>
       <c r="AV44" s="15">
-        <v>7795</v>
+        <v>5417</v>
       </c>
       <c r="AW44" s="15">
-        <v>8456</v>
+        <v>7186</v>
       </c>
       <c r="AX44" s="15">
-        <v>5417</v>
+        <v>9422</v>
       </c>
       <c r="AY44" s="15">
-        <v>7186</v>
+        <v>10239</v>
       </c>
       <c r="AZ44" s="15">
-        <v>9422</v>
+        <v>46557</v>
       </c>
       <c r="BA44" s="15">
-        <v>10239</v>
+        <v>20818</v>
       </c>
       <c r="BB44" s="15">
-        <v>46557</v>
+        <v>39732</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
@@ -5447,11 +5482,11 @@
       <c r="AB46" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AC46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD46" s="17" t="s">
-        <v>60</v>
+      <c r="AC46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="17">
+        <v>0</v>
       </c>
       <c r="AE46" s="17">
         <v>0</v>
@@ -5663,83 +5698,83 @@
       <c r="AB48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC48" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD48" s="11" t="s">
-        <v>60</v>
+      <c r="AC48" s="11">
+        <v>-31488</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>-56009</v>
       </c>
       <c r="AE48" s="11">
-        <v>0</v>
+        <v>-82605</v>
       </c>
       <c r="AF48" s="11">
-        <v>0</v>
+        <v>-11564</v>
       </c>
       <c r="AG48" s="11">
-        <v>-170103</v>
+        <v>-54416</v>
       </c>
       <c r="AH48" s="11">
-        <v>-11564</v>
+        <v>-103909</v>
       </c>
       <c r="AI48" s="11">
-        <v>-54416</v>
+        <v>-235607</v>
       </c>
       <c r="AJ48" s="11">
-        <v>-103909</v>
+        <v>-161691</v>
       </c>
       <c r="AK48" s="11">
-        <v>-235607</v>
+        <v>-119088</v>
       </c>
       <c r="AL48" s="11">
-        <v>-161691</v>
+        <v>-115277</v>
       </c>
       <c r="AM48" s="11">
-        <v>-119088</v>
+        <v>-112079</v>
       </c>
       <c r="AN48" s="11">
-        <v>-115277</v>
+        <v>-204882</v>
       </c>
       <c r="AO48" s="11">
-        <v>-112079</v>
+        <v>-36995</v>
       </c>
       <c r="AP48" s="11">
-        <v>-204882</v>
+        <v>-45946</v>
       </c>
       <c r="AQ48" s="11">
-        <v>-36995</v>
+        <v>-46192</v>
       </c>
       <c r="AR48" s="11">
-        <v>-45946</v>
+        <v>-16286</v>
       </c>
       <c r="AS48" s="11">
-        <v>-46192</v>
+        <v>-37502</v>
       </c>
       <c r="AT48" s="11">
-        <v>-16286</v>
+        <v>-16386</v>
       </c>
       <c r="AU48" s="11">
-        <v>-37502</v>
+        <v>-40513</v>
       </c>
       <c r="AV48" s="11">
-        <v>-16386</v>
+        <v>-35307</v>
       </c>
       <c r="AW48" s="11">
-        <v>-40513</v>
+        <v>-28490</v>
       </c>
       <c r="AX48" s="11">
-        <v>-35307</v>
+        <v>-37223</v>
       </c>
       <c r="AY48" s="11">
-        <v>-28490</v>
+        <v>-53821</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-37223</v>
+        <v>-325105</v>
       </c>
       <c r="BA48" s="11">
-        <v>-53821</v>
+        <v>-1213</v>
       </c>
       <c r="BB48" s="11">
-        <v>-25696</v>
+        <v>-25515</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
@@ -5749,154 +5784,154 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>793589</v>
+        <v>622082</v>
       </c>
       <c r="F49" s="15">
-        <v>898009</v>
+        <v>609026</v>
       </c>
       <c r="G49" s="15">
-        <v>622082</v>
+        <v>1139160</v>
       </c>
       <c r="H49" s="15">
-        <v>609026</v>
+        <v>147119</v>
       </c>
       <c r="I49" s="15">
-        <v>1139160</v>
+        <v>656422</v>
       </c>
       <c r="J49" s="15">
-        <v>147119</v>
+        <v>630018</v>
       </c>
       <c r="K49" s="15">
-        <v>656422</v>
+        <v>1067042</v>
       </c>
       <c r="L49" s="15">
-        <v>630018</v>
+        <v>1216450</v>
       </c>
       <c r="M49" s="15">
-        <v>1067042</v>
+        <v>1100159</v>
       </c>
       <c r="N49" s="15">
-        <v>1216450</v>
+        <v>603029</v>
       </c>
       <c r="O49" s="15">
-        <v>1100159</v>
+        <v>1026985</v>
       </c>
       <c r="P49" s="15">
-        <v>603029</v>
+        <v>1383703</v>
       </c>
       <c r="Q49" s="15">
-        <v>1026985</v>
+        <v>607725</v>
       </c>
       <c r="R49" s="15">
-        <v>1383703</v>
+        <v>893611</v>
       </c>
       <c r="S49" s="15">
-        <v>607725</v>
+        <v>1167494</v>
       </c>
       <c r="T49" s="15">
-        <v>893611</v>
+        <v>226216</v>
       </c>
       <c r="U49" s="15">
-        <v>1167494</v>
+        <v>1157387</v>
       </c>
       <c r="V49" s="15">
-        <v>226216</v>
+        <v>1116544</v>
       </c>
       <c r="W49" s="15">
-        <v>1157387</v>
+        <v>1390680</v>
       </c>
       <c r="X49" s="15">
-        <v>1116544</v>
+        <v>1080612</v>
       </c>
       <c r="Y49" s="15">
-        <v>1390680</v>
+        <v>1029763</v>
       </c>
       <c r="Z49" s="15">
-        <v>1080612</v>
+        <v>1255515</v>
       </c>
       <c r="AA49" s="15">
-        <v>1029763</v>
+        <v>1929045</v>
       </c>
       <c r="AB49" s="15">
-        <v>1255515</v>
+        <v>2719235</v>
       </c>
       <c r="AC49" s="15">
-        <v>1929045</v>
+        <v>1115010</v>
       </c>
       <c r="AD49" s="15">
-        <v>2719235</v>
+        <v>1844658</v>
       </c>
       <c r="AE49" s="15">
-        <v>1146498</v>
+        <v>2295446</v>
       </c>
       <c r="AF49" s="15">
-        <v>1900667</v>
+        <v>749262</v>
       </c>
       <c r="AG49" s="15">
-        <v>2207948</v>
+        <v>1613692</v>
       </c>
       <c r="AH49" s="15">
-        <v>749262</v>
+        <v>1833734</v>
       </c>
       <c r="AI49" s="15">
-        <v>1613692</v>
+        <v>2084927</v>
       </c>
       <c r="AJ49" s="15">
-        <v>1833734</v>
+        <v>1899594</v>
       </c>
       <c r="AK49" s="15">
-        <v>2084927</v>
+        <v>2917059</v>
       </c>
       <c r="AL49" s="15">
-        <v>1899594</v>
+        <v>2744607</v>
       </c>
       <c r="AM49" s="15">
-        <v>2917059</v>
+        <v>3040704</v>
       </c>
       <c r="AN49" s="15">
-        <v>2744607</v>
+        <v>2917357</v>
       </c>
       <c r="AO49" s="15">
-        <v>3040704</v>
+        <v>754233</v>
       </c>
       <c r="AP49" s="15">
-        <v>2917357</v>
+        <v>1307811</v>
       </c>
       <c r="AQ49" s="15">
-        <v>754233</v>
+        <v>2295082</v>
       </c>
       <c r="AR49" s="15">
-        <v>1307811</v>
+        <v>1380521</v>
       </c>
       <c r="AS49" s="15">
-        <v>2295082</v>
+        <v>2034455</v>
       </c>
       <c r="AT49" s="15">
-        <v>1380521</v>
+        <v>1370626</v>
       </c>
       <c r="AU49" s="15">
-        <v>1865037</v>
+        <v>2450616</v>
       </c>
       <c r="AV49" s="15">
-        <v>1370626</v>
+        <v>2651117</v>
       </c>
       <c r="AW49" s="15">
-        <v>2281198</v>
+        <v>1837684</v>
       </c>
       <c r="AX49" s="15">
-        <v>2651117</v>
+        <v>1912722</v>
       </c>
       <c r="AY49" s="15">
-        <v>1837684</v>
+        <v>2731260</v>
       </c>
       <c r="AZ49" s="15">
-        <v>1912722</v>
+        <v>1808840</v>
       </c>
       <c r="BA49" s="15">
-        <v>2731261</v>
+        <v>1747108</v>
       </c>
       <c r="BB49" s="15">
-        <v>2108249</v>
+        <v>2070663</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
@@ -6342,154 +6377,154 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>80201634</v>
+        <v>51142198</v>
       </c>
       <c r="F56" s="11">
-        <v>76755509</v>
+        <v>69225796</v>
       </c>
       <c r="G56" s="11">
-        <v>51142198</v>
+        <v>73693710</v>
       </c>
       <c r="H56" s="11">
-        <v>69225796</v>
+        <v>78756550</v>
       </c>
       <c r="I56" s="11">
-        <v>73693710</v>
+        <v>75634676</v>
       </c>
       <c r="J56" s="11">
-        <v>78756550</v>
+        <v>33631181</v>
       </c>
       <c r="K56" s="11">
-        <v>75634676</v>
+        <v>71107339</v>
       </c>
       <c r="L56" s="11">
-        <v>33631181</v>
+        <v>83177630</v>
       </c>
       <c r="M56" s="11">
-        <v>71107339</v>
+        <v>79880269</v>
       </c>
       <c r="N56" s="11">
-        <v>83177630</v>
+        <v>79733551</v>
       </c>
       <c r="O56" s="11">
-        <v>79880269</v>
+        <v>89414438</v>
       </c>
       <c r="P56" s="11">
-        <v>79733551</v>
+        <v>87430860</v>
       </c>
       <c r="Q56" s="11">
-        <v>89414438</v>
+        <v>76160096</v>
       </c>
       <c r="R56" s="11">
-        <v>87430860</v>
+        <v>86134554</v>
       </c>
       <c r="S56" s="11">
-        <v>76160096</v>
+        <v>86565504</v>
       </c>
       <c r="T56" s="11">
-        <v>86134554</v>
+        <v>122496396</v>
       </c>
       <c r="U56" s="11">
-        <v>86565504</v>
+        <v>117780099</v>
       </c>
       <c r="V56" s="11">
-        <v>122496396</v>
+        <v>89666258</v>
       </c>
       <c r="W56" s="11">
-        <v>117780099</v>
+        <v>117769436</v>
       </c>
       <c r="X56" s="11">
-        <v>89666258</v>
+        <v>133405765</v>
       </c>
       <c r="Y56" s="11">
-        <v>117769436</v>
+        <v>136208955</v>
       </c>
       <c r="Z56" s="11">
-        <v>133405765</v>
+        <v>151204475</v>
       </c>
       <c r="AA56" s="11">
-        <v>136208955</v>
+        <v>157466523</v>
       </c>
       <c r="AB56" s="11">
-        <v>151204475</v>
+        <v>159988992</v>
       </c>
       <c r="AC56" s="11">
-        <v>157466523</v>
+        <v>246308010</v>
       </c>
       <c r="AD56" s="11">
-        <v>159988992</v>
+        <v>233073424</v>
       </c>
       <c r="AE56" s="11">
-        <v>246308010</v>
+        <v>215712266</v>
       </c>
       <c r="AF56" s="11">
-        <v>233073424</v>
+        <v>248995189</v>
       </c>
       <c r="AG56" s="11">
-        <v>215712266</v>
+        <v>223978495</v>
       </c>
       <c r="AH56" s="11">
-        <v>248995189</v>
+        <v>240543356</v>
       </c>
       <c r="AI56" s="11">
-        <v>223978495</v>
+        <v>269726563</v>
       </c>
       <c r="AJ56" s="11">
-        <v>240543356</v>
+        <v>276330873</v>
       </c>
       <c r="AK56" s="11">
-        <v>269726563</v>
+        <v>286986162</v>
       </c>
       <c r="AL56" s="11">
-        <v>276330873</v>
+        <v>290278280</v>
       </c>
       <c r="AM56" s="11">
-        <v>286986162</v>
+        <v>286267451</v>
       </c>
       <c r="AN56" s="11">
-        <v>290278280</v>
+        <v>257093860</v>
       </c>
       <c r="AO56" s="11">
-        <v>286267451</v>
+        <v>290801852</v>
       </c>
       <c r="AP56" s="11">
-        <v>257093860</v>
+        <v>317818078</v>
       </c>
       <c r="AQ56" s="11">
-        <v>290801852</v>
+        <v>282463171</v>
       </c>
       <c r="AR56" s="11">
-        <v>317818078</v>
+        <v>333224212</v>
       </c>
       <c r="AS56" s="11">
-        <v>282463171</v>
+        <v>343675059</v>
       </c>
       <c r="AT56" s="11">
-        <v>333224212</v>
+        <v>403998810</v>
       </c>
       <c r="AU56" s="11">
-        <v>343675059</v>
+        <v>383169082</v>
       </c>
       <c r="AV56" s="11">
-        <v>403998810</v>
+        <v>415016667</v>
       </c>
       <c r="AW56" s="11">
-        <v>383169082</v>
+        <v>372902975</v>
       </c>
       <c r="AX56" s="11">
-        <v>415016667</v>
+        <v>370764055</v>
       </c>
       <c r="AY56" s="11">
-        <v>372902975</v>
+        <v>161432634</v>
       </c>
       <c r="AZ56" s="11">
-        <v>370764055</v>
+        <v>128284251</v>
       </c>
       <c r="BA56" s="11">
-        <v>1083814599</v>
+        <v>327960526</v>
       </c>
       <c r="BB56" s="11">
-        <v>128284251</v>
+        <v>330843389</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
@@ -6501,154 +6536,154 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>53161224</v>
+        <v>54115959</v>
       </c>
       <c r="F57" s="13">
-        <v>54577752</v>
+        <v>55919753</v>
       </c>
       <c r="G57" s="13">
-        <v>54115959</v>
+        <v>62905180</v>
       </c>
       <c r="H57" s="13">
-        <v>55919753</v>
+        <v>59018791</v>
       </c>
       <c r="I57" s="13">
-        <v>62905180</v>
+        <v>49285714</v>
       </c>
       <c r="J57" s="13">
-        <v>59018791</v>
+        <v>63771863</v>
       </c>
       <c r="K57" s="13">
-        <v>49285714</v>
+        <v>67860479</v>
       </c>
       <c r="L57" s="13">
-        <v>63771863</v>
+        <v>71116082</v>
       </c>
       <c r="M57" s="13">
-        <v>67860479</v>
+        <v>67037032</v>
       </c>
       <c r="N57" s="13">
-        <v>71116082</v>
+        <v>53276171</v>
       </c>
       <c r="O57" s="13">
-        <v>67037032</v>
+        <v>62201151</v>
       </c>
       <c r="P57" s="13">
-        <v>53276171</v>
+        <v>50187219</v>
       </c>
       <c r="Q57" s="13">
-        <v>62201151</v>
+        <v>64828875</v>
       </c>
       <c r="R57" s="13">
-        <v>50187219</v>
+        <v>68324852</v>
       </c>
       <c r="S57" s="13">
-        <v>64828875</v>
+        <v>69907891</v>
       </c>
       <c r="T57" s="13">
-        <v>68324852</v>
+        <v>43026230</v>
       </c>
       <c r="U57" s="13">
-        <v>69907891</v>
+        <v>61282409</v>
       </c>
       <c r="V57" s="13">
-        <v>43026230</v>
+        <v>60623761</v>
       </c>
       <c r="W57" s="13">
-        <v>61282409</v>
+        <v>70852731</v>
       </c>
       <c r="X57" s="13">
-        <v>60623761</v>
+        <v>89486256</v>
       </c>
       <c r="Y57" s="13">
-        <v>70852731</v>
+        <v>77993372</v>
       </c>
       <c r="Z57" s="13">
-        <v>89486256</v>
+        <v>93870075</v>
       </c>
       <c r="AA57" s="13">
-        <v>77993372</v>
+        <v>111775573</v>
       </c>
       <c r="AB57" s="13">
-        <v>93870075</v>
+        <v>112296073</v>
       </c>
       <c r="AC57" s="13">
-        <v>111775573</v>
+        <v>107190645</v>
       </c>
       <c r="AD57" s="13">
-        <v>112296073</v>
+        <v>107545738</v>
       </c>
       <c r="AE57" s="13">
-        <v>107190645</v>
+        <v>120122880</v>
       </c>
       <c r="AF57" s="13">
-        <v>107545738</v>
+        <v>82647486</v>
       </c>
       <c r="AG57" s="13">
-        <v>120122880</v>
+        <v>112176059</v>
       </c>
       <c r="AH57" s="13">
-        <v>82647486</v>
+        <v>90367541</v>
       </c>
       <c r="AI57" s="13">
-        <v>112176059</v>
+        <v>146362352</v>
       </c>
       <c r="AJ57" s="13">
-        <v>90367541</v>
+        <v>153447156</v>
       </c>
       <c r="AK57" s="13">
-        <v>146362352</v>
+        <v>141342477</v>
       </c>
       <c r="AL57" s="13">
-        <v>153447156</v>
+        <v>155641590</v>
       </c>
       <c r="AM57" s="13">
-        <v>141342477</v>
+        <v>145027156</v>
       </c>
       <c r="AN57" s="13">
-        <v>155641590</v>
+        <v>135771320</v>
       </c>
       <c r="AO57" s="13">
-        <v>145027156</v>
+        <v>139627098</v>
       </c>
       <c r="AP57" s="13">
-        <v>135771320</v>
+        <v>142278565</v>
       </c>
       <c r="AQ57" s="13">
-        <v>139627098</v>
+        <v>135288541</v>
       </c>
       <c r="AR57" s="13">
-        <v>142278565</v>
+        <v>118046193</v>
       </c>
       <c r="AS57" s="13">
-        <v>135288541</v>
+        <v>131576514</v>
       </c>
       <c r="AT57" s="13">
-        <v>118046193</v>
+        <v>129591348</v>
       </c>
       <c r="AU57" s="13">
-        <v>102014832</v>
+        <v>127909188</v>
       </c>
       <c r="AV57" s="13">
-        <v>129591348</v>
+        <v>120529901</v>
       </c>
       <c r="AW57" s="13">
-        <v>102095078</v>
+        <v>137724354</v>
       </c>
       <c r="AX57" s="13">
-        <v>120529901</v>
+        <v>152574074</v>
       </c>
       <c r="AY57" s="13">
-        <v>137724354</v>
+        <v>393019058</v>
       </c>
       <c r="AZ57" s="13">
-        <v>152574074</v>
+        <v>257828329</v>
       </c>
       <c r="BA57" s="13">
-        <v>108269295</v>
+        <v>173751578</v>
       </c>
       <c r="BB57" s="13">
-        <v>257828329</v>
+        <v>176457673</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -6660,154 +6695,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>127903245</v>
+        <v>129430769</v>
       </c>
       <c r="F58" s="11">
-        <v>132978786</v>
+        <v>129210438</v>
       </c>
       <c r="G58" s="11">
-        <v>129430769</v>
+        <v>128569819</v>
       </c>
       <c r="H58" s="11">
-        <v>129210438</v>
+        <v>136950000</v>
       </c>
       <c r="I58" s="11">
-        <v>128569819</v>
+        <v>124826015</v>
       </c>
       <c r="J58" s="11">
-        <v>136950000</v>
+        <v>141250000</v>
       </c>
       <c r="K58" s="11">
-        <v>124826015</v>
+        <v>156204868</v>
       </c>
       <c r="L58" s="11">
-        <v>141250000</v>
+        <v>158996693</v>
       </c>
       <c r="M58" s="11">
-        <v>156204868</v>
+        <v>156700218</v>
       </c>
       <c r="N58" s="11">
-        <v>158996693</v>
+        <v>160387812</v>
       </c>
       <c r="O58" s="11">
-        <v>156700218</v>
+        <v>162937391</v>
       </c>
       <c r="P58" s="11">
-        <v>160387812</v>
+        <v>161795184</v>
       </c>
       <c r="Q58" s="11">
-        <v>162937391</v>
+        <v>165069620</v>
       </c>
       <c r="R58" s="11">
-        <v>161795184</v>
+        <v>162892171</v>
       </c>
       <c r="S58" s="11">
-        <v>165069620</v>
+        <v>157354938</v>
       </c>
       <c r="T58" s="11">
-        <v>162892171</v>
+        <v>159819444</v>
       </c>
       <c r="U58" s="11">
-        <v>157354938</v>
+        <v>158657513</v>
       </c>
       <c r="V58" s="11">
-        <v>159819444</v>
+        <v>148522876</v>
       </c>
       <c r="W58" s="11">
-        <v>158657513</v>
+        <v>172231800</v>
       </c>
       <c r="X58" s="11">
-        <v>148522876</v>
+        <v>213084564</v>
       </c>
       <c r="Y58" s="11">
-        <v>172231800</v>
+        <v>208357208</v>
       </c>
       <c r="Z58" s="11">
-        <v>213084564</v>
+        <v>214920000</v>
       </c>
       <c r="AA58" s="11">
-        <v>208357208</v>
+        <v>282416476</v>
       </c>
       <c r="AB58" s="11">
-        <v>214920000</v>
+        <v>269316456</v>
       </c>
       <c r="AC58" s="11">
-        <v>282416476</v>
+        <v>296683437</v>
       </c>
       <c r="AD58" s="11">
-        <v>269316456</v>
+        <v>297135369</v>
       </c>
       <c r="AE58" s="11">
-        <v>296683437</v>
+        <v>297775844</v>
       </c>
       <c r="AF58" s="11">
-        <v>297135369</v>
+        <v>297020378</v>
       </c>
       <c r="AG58" s="11">
-        <v>297775844</v>
+        <v>300937166</v>
       </c>
       <c r="AH58" s="11">
-        <v>297020378</v>
+        <v>324806405</v>
       </c>
       <c r="AI58" s="11">
-        <v>300937166</v>
+        <v>369887624</v>
       </c>
       <c r="AJ58" s="11">
-        <v>324806405</v>
+        <v>360971748</v>
       </c>
       <c r="AK58" s="11">
-        <v>369887624</v>
+        <v>370826834</v>
       </c>
       <c r="AL58" s="11">
-        <v>360971748</v>
+        <v>366755957</v>
       </c>
       <c r="AM58" s="11">
-        <v>370826834</v>
+        <v>362360638</v>
       </c>
       <c r="AN58" s="11">
-        <v>366755957</v>
+        <v>361612434</v>
       </c>
       <c r="AO58" s="11">
-        <v>362360638</v>
+        <v>364804004</v>
       </c>
       <c r="AP58" s="11">
-        <v>361612434</v>
+        <v>368285190</v>
       </c>
       <c r="AQ58" s="11">
-        <v>364804004</v>
+        <v>370166061</v>
       </c>
       <c r="AR58" s="11">
-        <v>368285190</v>
+        <v>366523091</v>
       </c>
       <c r="AS58" s="11">
-        <v>370166061</v>
+        <v>369510215</v>
       </c>
       <c r="AT58" s="11">
-        <v>366523091</v>
+        <v>445687810</v>
       </c>
       <c r="AU58" s="11">
-        <v>369510215</v>
+        <v>456756087</v>
       </c>
       <c r="AV58" s="11">
-        <v>445687810</v>
+        <v>447437785</v>
       </c>
       <c r="AW58" s="11">
-        <v>456756087</v>
+        <v>457204706</v>
       </c>
       <c r="AX58" s="11">
-        <v>447437785</v>
+        <v>501344855</v>
       </c>
       <c r="AY58" s="11">
-        <v>457204706</v>
+        <v>540310565</v>
       </c>
       <c r="AZ58" s="11">
-        <v>501344855</v>
+        <v>545398222</v>
       </c>
       <c r="BA58" s="11">
-        <v>540310565</v>
+        <v>547262847</v>
       </c>
       <c r="BB58" s="11">
-        <v>545398222</v>
+        <v>526113723</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
@@ -6947,83 +6982,83 @@
       <c r="AB60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC60" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD60" s="11" t="s">
-        <v>60</v>
+      <c r="AC60" s="11">
+        <v>19229917</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>19369397</v>
       </c>
       <c r="AE60" s="11">
-        <v>19229917</v>
+        <v>28586124</v>
       </c>
       <c r="AF60" s="11">
-        <v>19369397</v>
+        <v>24773810</v>
       </c>
       <c r="AG60" s="11">
-        <v>28586124</v>
+        <v>25828457</v>
       </c>
       <c r="AH60" s="11">
-        <v>24773810</v>
+        <v>25354430</v>
       </c>
       <c r="AI60" s="11">
-        <v>25828457</v>
+        <v>27411471</v>
       </c>
       <c r="AJ60" s="11">
-        <v>25354430</v>
+        <v>25974155</v>
       </c>
       <c r="AK60" s="11">
-        <v>27411471</v>
+        <v>26509565</v>
       </c>
       <c r="AL60" s="11">
-        <v>25974155</v>
+        <v>27136364</v>
       </c>
       <c r="AM60" s="11">
-        <v>26509565</v>
+        <v>26504854</v>
       </c>
       <c r="AN60" s="11">
-        <v>27136364</v>
+        <v>26504425</v>
       </c>
       <c r="AO60" s="11">
-        <v>26504854</v>
+        <v>27436673</v>
       </c>
       <c r="AP60" s="11">
-        <v>26504425</v>
+        <v>34588608</v>
       </c>
       <c r="AQ60" s="11">
-        <v>27436673</v>
+        <v>34402516</v>
       </c>
       <c r="AR60" s="11">
-        <v>34588608</v>
+        <v>34679487</v>
       </c>
       <c r="AS60" s="11">
-        <v>34402516</v>
+        <v>34551402</v>
       </c>
       <c r="AT60" s="11">
-        <v>34679487</v>
+        <v>34491150</v>
       </c>
       <c r="AU60" s="11">
-        <v>34551402</v>
+        <v>34655738</v>
       </c>
       <c r="AV60" s="11">
-        <v>34491150</v>
+        <v>34724359</v>
       </c>
       <c r="AW60" s="11">
-        <v>34655738</v>
+        <v>34548077</v>
       </c>
       <c r="AX60" s="11">
-        <v>34724359</v>
+        <v>34512821</v>
       </c>
       <c r="AY60" s="11">
-        <v>34548077</v>
+        <v>34474747</v>
       </c>
       <c r="AZ60" s="11">
-        <v>34512821</v>
+        <v>215541667</v>
       </c>
       <c r="BA60" s="11">
-        <v>34474747</v>
+        <v>55812332</v>
       </c>
       <c r="BB60" s="11">
-        <v>215541667</v>
+        <v>59927602</v>
       </c>
     </row>
   </sheetData>
